--- a/GATEWAY/A1#111EDINEXTSRL/report-checklist.xlsx
+++ b/GATEWAY/A1#111EDINEXTSRL/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\OneDrive\Desktop\fse2\tentativo2\da_inviare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\OneDrive\Desktop\fse2\TENTATIVO3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B822E64E-67C6-4B34-843F-69107600D87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B0E75A-8689-4214-B995-840D5E9EE7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="885" windowWidth="27375" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1080" windowWidth="28800" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -178,15 +178,6 @@
     <t>IDENTIFICATIVI SOFTWARE</t>
   </si>
   <si>
-    <t>subject_application_id:</t>
-  </si>
-  <si>
-    <t>subject_application_vendor:</t>
-  </si>
-  <si>
-    <t>subject_application_version:</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -235,18 +226,6 @@
     <t>VALIDAZIONE</t>
   </si>
   <si>
-    <t>LAB</t>
-  </si>
-  <si>
-    <t>LDO</t>
-  </si>
-  <si>
-    <t>RAD</t>
-  </si>
-  <si>
-    <t>CERT_VAC</t>
-  </si>
-  <si>
     <t>SING_VAC</t>
   </si>
   <si>
@@ -280,15 +259,6 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VPS</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
   </si>
   <si>
     <r>
@@ -330,6 +300,12 @@
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.</t>
     </r>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_SING_VAC_KO</t>
@@ -512,40 +488,10 @@
     <t>Validazione</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>28,36,44,52,53,54,55,56,57,58,59,60,61,62</t>
-  </si>
-  <si>
-    <t>6,7,8,9</t>
-  </si>
-  <si>
-    <t>29,37,45,63,64,65,66,67,68,69,70,71,72,73,74</t>
-  </si>
-  <si>
-    <t>11,12,13,14</t>
-  </si>
-  <si>
-    <t>31,39,47,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93</t>
-  </si>
-  <si>
-    <t>16,17,18,19</t>
-  </si>
-  <si>
-    <t>33,41,49,94,95,96,97,98,99,100,101,102,103,104,105,106</t>
-  </si>
-  <si>
     <t>20,21,22,23</t>
   </si>
   <si>
     <t>34,42,50,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121</t>
-  </si>
-  <si>
-    <t>24,25,26,27</t>
-  </si>
-  <si>
-    <t>35,43,51,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</t>
   </si>
   <si>
     <t>PASS</t>
@@ -557,35 +503,218 @@
     <t>NO</t>
   </si>
   <si>
-    <t>6de42524595575de</t>
+    <t>In caso di  errore il servizio dell'applicativo genera una eccezione, l'evento viene registrato nel LOGFILE e il record viene marcato come "da riparare". La riparazione richiede un intervento da parte dell'amministratore che puo' risolvere l'anomalia e quindi modificare lo stato da "da riparare" in "da reinviare", oppure in "ERRORE NON RIPARABILE".  Nel primo caso il record sarà accodato ed elaborato al prossimo ciclo come di norma.</t>
   </si>
   <si>
-    <t>02389a559e51c41b</t>
+    <t>In caso di Time out il servizio dell'applicativo genera una eccezione, l'evento viene registrato nel LOGFILE e il record viene marcato come "da reinviare". Al prossimo evento il record verrà accodato agli altri da inviare ed elaborato come di norma. Se l'anomalia persiste, la coda degli elementi da inviare aumenterà fino al prossimo evento positivo.</t>
   </si>
   <si>
-    <t>0f4c6c0add47309a</t>
+    <t>2023-02-15T16.37.22Z</t>
   </si>
   <si>
-    <t>46cf0d6a368367a2</t>
+    <t>2023-02-15T16.37.26Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.dfe7e67501061330ba90b85583024e99cfdc58eb51867c62a50c8d31d9170710.a2d01107ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-02-15T16.37.29Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.f293772d98c8623d6bd79e783d22a16ca0bd0edd8e8273801db6e5cb5df6f132.88b5b539e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-02-15T16.37.33Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.4334fc4f3b976f064f391fc853c486f82a4f4840028832c08d920663aaa464aa.0394acfd76^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-02-15T16.37.35Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.45bc45fa8e59ea9009352576cae74eec30a3d3d8439706545c23b7084eeaa6d1.2883e5d15c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-02-15T16.37.36Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.37.38Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.37.40Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.37.41Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.37.44Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.37.46Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.37.47Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.37.49Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.37.51Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.37.54Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.37.57Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.37.58Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.38.00Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.38.03Z</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.38.05Z</t>
+  </si>
+  <si>
+    <t>69873f6bba97c012</t>
+  </si>
+  <si>
+    <t>ebbee1bb632771e8</t>
+  </si>
+  <si>
+    <t>049e77c646842480</t>
+  </si>
+  <si>
+    <t>edf5c1f8dc6a92bf</t>
+  </si>
+  <si>
+    <t>388099fb1c0924ac</t>
+  </si>
+  <si>
+    <t>16821b48aff86838</t>
+  </si>
+  <si>
+    <t>70bdb64456bfcafc</t>
+  </si>
+  <si>
+    <t>cf7f9ff3c727882d</t>
+  </si>
+  <si>
+    <t>fa3477cd0823ab62</t>
+  </si>
+  <si>
+    <t>1442ba555383391b</t>
+  </si>
+  <si>
+    <t>868269ed01cf2dc9</t>
+  </si>
+  <si>
+    <t>8d3b6d94356b4ca9</t>
+  </si>
+  <si>
+    <t>da6a9e5d85f92098</t>
+  </si>
+  <si>
+    <t>c4a89c27f61e40f1</t>
+  </si>
+  <si>
+    <t>f344215ca54870eb</t>
+  </si>
+  <si>
+    <t>2ed375bf3f238498</t>
+  </si>
+  <si>
+    <t>f94b6191244c4d1f</t>
+  </si>
+  <si>
+    <t>84926f2392a6203c</t>
+  </si>
+  <si>
+    <t>6191ba0aae8a3f67</t>
+  </si>
+  <si>
+    <t>684463e4629f45e8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.98b287280e326c0e5c171b58a579a240a6d49c30b08995ac13acdcf6f9763004.2bdb3b9086^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.c9b141e5a6cac0de3f9055d0acdb43b2ff189ac3d0c80427bd5ecc71f4c8affe.7fabf10d92^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.62ae41a89afa79a83c3bb91367535563d0ef392912565c86008eccab516ed635.32df1ac916^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2905816a2e3ad76c4425dc1327e6c6690ffbb49abb9421c90810a737f4048424.1eab34df0a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-15T16.38.06Z</t>
+  </si>
+  <si>
+    <t>f90c21f73cea6a09</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2be54e4b3829abf9d7e1fc26b166c7baa446bdff1fcd9dbcb83b7af1e589aa5d.4ce4ad7547^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.75e573e6c348571c7c008ae495cf02caf79f254e48b61b566fdc29d78a54cee4.02cdcc59c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b4b2bbe4160cfdca17f0eb8b5d8132e57e20187eba770e75631012ca1840722e.1cdb653958^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1706ac0f8460316769d0fa5c3967d9b65838539e041df8d492c25cff73e4b5fb.553ad96384^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.c819413003eb67dfa095cc3e7600be75a72c991be94608633b453c50fdee07b7.dad3b718ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.f15fd51e32ab45d7fad974469bc4ecf8a48a97220732dc6de20a97bf81fcd24d.0d27a18c81^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.17ae5360a7fd7335c97a5852210200dd94408637ce35eca54afa4b55357611eb.25512c6db6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.adf77e0767acfacd1ff4fd7b2b2218facd68185df8beef9b4d65dc2cdcfb2cea.37650f5290^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9923d475fdbe3eaa5817ece6804fbfdbf0e112b3584ec3e8f77fb851b74450a2.553b9adac8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.4624925cdfc162c9463cb782d30afd7b526f0e5d2330ab785d8eb242f3a071ca.ac92fa48fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.647a3d04ccc2098498b800cc9afd0ece9e1d4f2aad711276f76aa2e8ca01fa2f.49df42a68f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.41779c3f37a55ab7de784413cc452aaf9755a83aaf8012ed794937895e42f831.1f3db2e549^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.5ea9d1e407d13a5ca2a09714d76a522948ccfe5b1a39ee0ec7d86869bdab93c0.45665eef54^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.fcd008691a93d6596a9f08bdc1b507a7ec1f85c9d5c319b6086c98190dd54d4d.e9cbbc9776^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.695793f222d13bd79d318f45ea5b76443a85a161b8fb5482255a0fa9438b9bdc.1f5d8af8ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>EDINEXT SRL</t>
+  </si>
+  <si>
+    <t>subject_application_id: AVR</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: EDINEXT SRL</t>
+  </si>
+  <si>
+    <t>subject_application_version: 2.0</t>
+  </si>
+  <si>
+    <t>il test non è applicabile perché l'evento non è riproducibile dal lato applicativo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +772,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -664,7 +804,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -920,32 +1060,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -973,41 +1087,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1077,28 +1161,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1116,13 +1219,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1419,7 +1515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2491,20 +2589,21 @@
   <dimension ref="A1:O876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" customWidth="1"/>
-    <col min="6" max="9" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="27.28515625" customWidth="1"/>
     <col min="12" max="12" width="33.28515625" customWidth="1"/>
     <col min="13" max="14" width="36.42578125" customWidth="1"/>
@@ -2512,7 +2611,7 @@
     <col min="16" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="1" spans="1:15">
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -2524,13 +2623,15 @@
       <c r="N1" s="9"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:15" ht="18.75">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="43"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2542,15 +2643,15 @@
       <c r="N2" s="9"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:15" ht="15.75">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="38"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="43"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2562,13 +2663,13 @@
       <c r="N3" s="9"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="38"/>
+    <row r="4" spans="1:15" ht="15.75">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="43"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2581,13 +2682,13 @@
       <c r="N4" s="9"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="38"/>
+    <row r="5" spans="1:15" ht="15.75">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="43"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2599,9 +2700,9 @@
       <c r="N5" s="9"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+    <row r="6" spans="1:15">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2614,7 +2715,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="7" spans="1:15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2629,7 +2730,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1">
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2641,716 +2742,936 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1">
+    <row r="9" spans="1:15" ht="57" thickBot="1">
       <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="N9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1">
+    </row>
+    <row r="10" spans="1:15" ht="409.6" thickBot="1">
       <c r="A10" s="14">
         <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" s="17">
-        <v>44956</v>
-      </c>
-      <c r="G10" s="49">
-        <v>0.68732638888888886</v>
+        <v>44972</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="20"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1">
+    <row r="11" spans="1:15" ht="409.6" thickBot="1">
       <c r="A11" s="14">
         <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="17">
-        <v>44956</v>
-      </c>
-      <c r="G11" s="49">
-        <v>0.68737268518518524</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="20"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1">
+    <row r="12" spans="1:15" ht="409.6" thickBot="1">
       <c r="A12" s="14">
         <v>22</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F12" s="17">
-        <v>44956</v>
-      </c>
-      <c r="G12" s="49">
-        <v>0.68740740740740736</v>
+        <v>44972</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="20"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1">
+    <row r="13" spans="1:15" ht="409.6" thickBot="1">
       <c r="A13" s="14">
         <v>23</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>40</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F13" s="17">
-        <v>44956</v>
-      </c>
-      <c r="G13" s="49">
-        <v>0.68744212962962958</v>
+        <v>44972</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="20"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1">
+    <row r="14" spans="1:15" ht="409.6" thickBot="1">
       <c r="A14" s="14">
         <v>34</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+        <v>35</v>
+      </c>
+      <c r="F14" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:15" ht="409.6" thickBot="1">
       <c r="A15" s="14">
         <v>42</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="F15" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A16" s="14">
+    <row r="16" spans="1:15" s="39" customFormat="1" ht="240.75" thickBot="1">
+      <c r="A16" s="31">
         <v>50</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="21"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="34">
+        <v>44972</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="1:15" ht="409.6" thickBot="1">
       <c r="A17" s="14">
         <v>107</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="F17" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1">
+    <row r="18" spans="1:15" ht="409.6" thickBot="1">
       <c r="A18" s="14">
         <v>108</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="F18" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1">
+    <row r="19" spans="1:15" ht="409.6" thickBot="1">
       <c r="A19" s="14">
         <v>109</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="F19" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1">
+    <row r="20" spans="1:15" ht="409.6" thickBot="1">
       <c r="A20" s="14">
         <v>110</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="F20" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1">
+    <row r="21" spans="1:15" ht="409.6" thickBot="1">
       <c r="A21" s="14">
         <v>111</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="F21" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1">
+    <row r="22" spans="1:15" ht="409.6" thickBot="1">
       <c r="A22" s="14">
         <v>112</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F22" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1">
+    <row r="23" spans="1:15" ht="409.6" thickBot="1">
       <c r="A23" s="14">
         <v>113</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="F23" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1">
+    <row r="24" spans="1:15" ht="409.6" thickBot="1">
       <c r="A24" s="14">
         <v>114</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="F24" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1">
+    <row r="25" spans="1:15" ht="409.6" thickBot="1">
       <c r="A25" s="14">
         <v>115</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="F25" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1">
+    <row r="26" spans="1:15" ht="409.6" thickBot="1">
       <c r="A26" s="14">
         <v>116</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="F26" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1">
+    <row r="27" spans="1:15" ht="409.6" thickBot="1">
       <c r="A27" s="14">
         <v>117</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="F27" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1">
+    <row r="28" spans="1:15" ht="409.6" thickBot="1">
       <c r="A28" s="14">
         <v>118</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+        <v>65</v>
+      </c>
+      <c r="F28" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1">
+    <row r="29" spans="1:15" ht="409.6" thickBot="1">
       <c r="A29" s="14">
         <v>119</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="F29" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1">
+    <row r="30" spans="1:15" ht="409.6" thickBot="1">
       <c r="A30" s="14">
         <v>120</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="F30" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
       <c r="N30" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1">
+    <row r="31" spans="1:15" ht="409.5">
       <c r="A31" s="14">
         <v>121</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="F31" s="17">
+        <v>44972</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1">
+    <row r="32" spans="1:15">
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -3362,7 +3683,7 @@
       <c r="N32" s="9"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="6:15" ht="14.25" customHeight="1">
+    <row r="33" spans="6:15">
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -3374,7 +3695,7 @@
       <c r="N33" s="9"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="6:15" ht="14.25" customHeight="1">
+    <row r="34" spans="6:15">
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -3386,7 +3707,7 @@
       <c r="N34" s="9"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="6:15" ht="14.25" customHeight="1">
+    <row r="35" spans="6:15">
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3398,7 +3719,7 @@
       <c r="N35" s="9"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="6:15" ht="14.25" customHeight="1">
+    <row r="36" spans="6:15">
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -3410,7 +3731,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="6:15" ht="14.25" customHeight="1">
+    <row r="37" spans="6:15">
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -3422,7 +3743,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="6:15" ht="14.25" customHeight="1">
+    <row r="38" spans="6:15">
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -3434,7 +3755,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="6:15" ht="14.25" customHeight="1">
+    <row r="39" spans="6:15">
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -3446,7 +3767,7 @@
       <c r="N39" s="9"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="6:15" ht="14.25" customHeight="1">
+    <row r="40" spans="6:15">
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -3458,7 +3779,7 @@
       <c r="N40" s="9"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="6:15" ht="14.25" customHeight="1">
+    <row r="41" spans="6:15">
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -3470,7 +3791,7 @@
       <c r="N41" s="9"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="6:15" ht="14.25" customHeight="1">
+    <row r="42" spans="6:15">
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -3482,7 +3803,7 @@
       <c r="N42" s="9"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="6:15" ht="14.25" customHeight="1">
+    <row r="43" spans="6:15">
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -3494,7 +3815,7 @@
       <c r="N43" s="9"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="6:15" ht="14.25" customHeight="1">
+    <row r="44" spans="6:15">
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -3506,7 +3827,7 @@
       <c r="N44" s="9"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="6:15" ht="14.25" customHeight="1">
+    <row r="45" spans="6:15">
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -3518,7 +3839,7 @@
       <c r="N45" s="9"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="6:15" ht="14.25" customHeight="1">
+    <row r="46" spans="6:15">
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -3530,7 +3851,7 @@
       <c r="N46" s="9"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="6:15" ht="14.25" customHeight="1">
+    <row r="47" spans="6:15">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -3542,7 +3863,7 @@
       <c r="N47" s="9"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="6:15" ht="14.25" customHeight="1">
+    <row r="48" spans="6:15">
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -3554,7 +3875,7 @@
       <c r="N48" s="9"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="6:15" ht="14.25" customHeight="1">
+    <row r="49" spans="6:15">
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -3566,7 +3887,7 @@
       <c r="N49" s="9"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="6:15" ht="14.25" customHeight="1">
+    <row r="50" spans="6:15">
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -3578,7 +3899,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="6:15" ht="14.25" customHeight="1">
+    <row r="51" spans="6:15">
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -3590,7 +3911,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="6:15" ht="14.25" customHeight="1">
+    <row r="52" spans="6:15">
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -3602,7 +3923,7 @@
       <c r="N52" s="9"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="6:15" ht="14.25" customHeight="1">
+    <row r="53" spans="6:15">
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -3614,7 +3935,7 @@
       <c r="N53" s="9"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="6:15" ht="14.25" customHeight="1">
+    <row r="54" spans="6:15">
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -3626,7 +3947,7 @@
       <c r="N54" s="9"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="6:15" ht="14.25" customHeight="1">
+    <row r="55" spans="6:15">
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -3638,7 +3959,7 @@
       <c r="N55" s="9"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="6:15" ht="14.25" customHeight="1">
+    <row r="56" spans="6:15">
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -3650,7 +3971,7 @@
       <c r="N56" s="9"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="6:15" ht="14.25" customHeight="1">
+    <row r="57" spans="6:15">
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -3662,7 +3983,7 @@
       <c r="N57" s="9"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="6:15" ht="14.25" customHeight="1">
+    <row r="58" spans="6:15">
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -3674,7 +3995,7 @@
       <c r="N58" s="9"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="6:15" ht="14.25" customHeight="1">
+    <row r="59" spans="6:15">
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -3686,7 +4007,7 @@
       <c r="N59" s="9"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="6:15" ht="14.25" customHeight="1">
+    <row r="60" spans="6:15">
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -3698,7 +4019,7 @@
       <c r="N60" s="9"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="6:15" ht="14.25" customHeight="1">
+    <row r="61" spans="6:15">
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -3710,7 +4031,7 @@
       <c r="N61" s="9"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="6:15" ht="14.25" customHeight="1">
+    <row r="62" spans="6:15">
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -3722,7 +4043,7 @@
       <c r="N62" s="9"/>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="6:15" ht="14.25" customHeight="1">
+    <row r="63" spans="6:15">
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -3734,7 +4055,7 @@
       <c r="N63" s="9"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="6:15" ht="14.25" customHeight="1">
+    <row r="64" spans="6:15">
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -3746,7 +4067,7 @@
       <c r="N64" s="9"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="6:15" ht="14.25" customHeight="1">
+    <row r="65" spans="6:15">
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -3758,7 +4079,7 @@
       <c r="N65" s="9"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="6:15" ht="14.25" customHeight="1">
+    <row r="66" spans="6:15">
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -3770,7 +4091,7 @@
       <c r="N66" s="9"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="6:15" ht="14.25" customHeight="1">
+    <row r="67" spans="6:15">
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -3782,7 +4103,7 @@
       <c r="N67" s="9"/>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="6:15" ht="14.25" customHeight="1">
+    <row r="68" spans="6:15">
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -3794,7 +4115,7 @@
       <c r="N68" s="9"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="6:15" ht="14.25" customHeight="1">
+    <row r="69" spans="6:15">
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -3806,7 +4127,7 @@
       <c r="N69" s="9"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="6:15" ht="14.25" customHeight="1">
+    <row r="70" spans="6:15">
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -3818,7 +4139,7 @@
       <c r="N70" s="9"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="6:15" ht="14.25" customHeight="1">
+    <row r="71" spans="6:15">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -3830,7 +4151,7 @@
       <c r="N71" s="9"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="6:15" ht="14.25" customHeight="1">
+    <row r="72" spans="6:15">
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -3842,7 +4163,7 @@
       <c r="N72" s="9"/>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="6:15" ht="14.25" customHeight="1">
+    <row r="73" spans="6:15">
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -3854,7 +4175,7 @@
       <c r="N73" s="9"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="6:15" ht="14.25" customHeight="1">
+    <row r="74" spans="6:15">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -3866,7 +4187,7 @@
       <c r="N74" s="9"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="6:15" ht="14.25" customHeight="1">
+    <row r="75" spans="6:15">
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -3878,7 +4199,7 @@
       <c r="N75" s="9"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="6:15" ht="14.25" customHeight="1">
+    <row r="76" spans="6:15">
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -3890,7 +4211,7 @@
       <c r="N76" s="9"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="6:15" ht="14.25" customHeight="1">
+    <row r="77" spans="6:15">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -3902,7 +4223,7 @@
       <c r="N77" s="9"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="6:15" ht="14.25" customHeight="1">
+    <row r="78" spans="6:15">
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -3914,7 +4235,7 @@
       <c r="N78" s="9"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="6:15" ht="14.25" customHeight="1">
+    <row r="79" spans="6:15">
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -3926,7 +4247,7 @@
       <c r="N79" s="9"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="6:15" ht="14.25" customHeight="1">
+    <row r="80" spans="6:15">
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -3938,7 +4259,7 @@
       <c r="N80" s="9"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="6:15" ht="14.25" customHeight="1">
+    <row r="81" spans="6:15">
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -3950,7 +4271,7 @@
       <c r="N81" s="9"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="6:15" ht="14.25" customHeight="1">
+    <row r="82" spans="6:15">
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -3962,7 +4283,7 @@
       <c r="N82" s="9"/>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="6:15" ht="14.25" customHeight="1">
+    <row r="83" spans="6:15">
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -3974,7 +4295,7 @@
       <c r="N83" s="9"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="6:15" ht="14.25" customHeight="1">
+    <row r="84" spans="6:15">
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -3986,7 +4307,7 @@
       <c r="N84" s="9"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="6:15" ht="14.25" customHeight="1">
+    <row r="85" spans="6:15">
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -3998,7 +4319,7 @@
       <c r="N85" s="9"/>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="6:15" ht="14.25" customHeight="1">
+    <row r="86" spans="6:15">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -4010,7 +4331,7 @@
       <c r="N86" s="9"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="6:15" ht="14.25" customHeight="1">
+    <row r="87" spans="6:15">
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -4022,7 +4343,7 @@
       <c r="N87" s="9"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="6:15" ht="14.25" customHeight="1">
+    <row r="88" spans="6:15">
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -4034,7 +4355,7 @@
       <c r="N88" s="9"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="6:15" ht="14.25" customHeight="1">
+    <row r="89" spans="6:15">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -4046,7 +4367,7 @@
       <c r="N89" s="9"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="6:15" ht="14.25" customHeight="1">
+    <row r="90" spans="6:15">
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -4058,7 +4379,7 @@
       <c r="N90" s="9"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="6:15" ht="14.25" customHeight="1">
+    <row r="91" spans="6:15">
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -4070,7 +4391,7 @@
       <c r="N91" s="9"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="6:15" ht="14.25" customHeight="1">
+    <row r="92" spans="6:15">
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
@@ -4082,7 +4403,7 @@
       <c r="N92" s="9"/>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="6:15" ht="14.25" customHeight="1">
+    <row r="93" spans="6:15">
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -4094,7 +4415,7 @@
       <c r="N93" s="9"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="6:15" ht="14.25" customHeight="1">
+    <row r="94" spans="6:15">
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -4106,7 +4427,7 @@
       <c r="N94" s="9"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="6:15" ht="14.25" customHeight="1">
+    <row r="95" spans="6:15">
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -4118,7 +4439,7 @@
       <c r="N95" s="9"/>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="6:15" ht="14.25" customHeight="1">
+    <row r="96" spans="6:15">
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -4130,7 +4451,7 @@
       <c r="N96" s="9"/>
       <c r="O96" s="6"/>
     </row>
-    <row r="97" spans="6:15" ht="14.25" customHeight="1">
+    <row r="97" spans="6:15">
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
@@ -4142,7 +4463,7 @@
       <c r="N97" s="9"/>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="6:15" ht="14.25" customHeight="1">
+    <row r="98" spans="6:15">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
@@ -4154,7 +4475,7 @@
       <c r="N98" s="9"/>
       <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="6:15" ht="14.25" customHeight="1">
+    <row r="99" spans="6:15">
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
@@ -4166,7 +4487,7 @@
       <c r="N99" s="9"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="6:15" ht="14.25" customHeight="1">
+    <row r="100" spans="6:15">
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -4178,7 +4499,7 @@
       <c r="N100" s="9"/>
       <c r="O100" s="6"/>
     </row>
-    <row r="101" spans="6:15" ht="14.25" customHeight="1">
+    <row r="101" spans="6:15">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
@@ -4190,7 +4511,7 @@
       <c r="N101" s="9"/>
       <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="6:15" ht="14.25" customHeight="1">
+    <row r="102" spans="6:15">
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -4202,7 +4523,7 @@
       <c r="N102" s="9"/>
       <c r="O102" s="6"/>
     </row>
-    <row r="103" spans="6:15" ht="14.25" customHeight="1">
+    <row r="103" spans="6:15">
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
@@ -4214,7 +4535,7 @@
       <c r="N103" s="9"/>
       <c r="O103" s="6"/>
     </row>
-    <row r="104" spans="6:15" ht="14.25" customHeight="1">
+    <row r="104" spans="6:15">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
@@ -4226,7 +4547,7 @@
       <c r="N104" s="9"/>
       <c r="O104" s="6"/>
     </row>
-    <row r="105" spans="6:15" ht="14.25" customHeight="1">
+    <row r="105" spans="6:15">
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
@@ -4238,7 +4559,7 @@
       <c r="N105" s="9"/>
       <c r="O105" s="6"/>
     </row>
-    <row r="106" spans="6:15" ht="14.25" customHeight="1">
+    <row r="106" spans="6:15">
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -4250,7 +4571,7 @@
       <c r="N106" s="9"/>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="6:15" ht="14.25" customHeight="1">
+    <row r="107" spans="6:15">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -4262,7 +4583,7 @@
       <c r="N107" s="9"/>
       <c r="O107" s="6"/>
     </row>
-    <row r="108" spans="6:15" ht="14.25" customHeight="1">
+    <row r="108" spans="6:15">
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -4274,7 +4595,7 @@
       <c r="N108" s="9"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="6:15" ht="14.25" customHeight="1">
+    <row r="109" spans="6:15">
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -4286,7 +4607,7 @@
       <c r="N109" s="9"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="6:15" ht="14.25" customHeight="1">
+    <row r="110" spans="6:15">
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
@@ -4298,7 +4619,7 @@
       <c r="N110" s="9"/>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="6:15" ht="14.25" customHeight="1">
+    <row r="111" spans="6:15">
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
@@ -4310,7 +4631,7 @@
       <c r="N111" s="9"/>
       <c r="O111" s="6"/>
     </row>
-    <row r="112" spans="6:15" ht="14.25" customHeight="1">
+    <row r="112" spans="6:15">
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -4322,7 +4643,7 @@
       <c r="N112" s="9"/>
       <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="6:15" ht="14.25" customHeight="1">
+    <row r="113" spans="6:15">
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -4334,7 +4655,7 @@
       <c r="N113" s="9"/>
       <c r="O113" s="6"/>
     </row>
-    <row r="114" spans="6:15" ht="14.25" customHeight="1">
+    <row r="114" spans="6:15">
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
@@ -4346,7 +4667,7 @@
       <c r="N114" s="9"/>
       <c r="O114" s="6"/>
     </row>
-    <row r="115" spans="6:15" ht="14.25" customHeight="1">
+    <row r="115" spans="6:15">
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
@@ -4358,7 +4679,7 @@
       <c r="N115" s="9"/>
       <c r="O115" s="6"/>
     </row>
-    <row r="116" spans="6:15" ht="14.25" customHeight="1">
+    <row r="116" spans="6:15">
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
@@ -4370,7 +4691,7 @@
       <c r="N116" s="9"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="6:15" ht="14.25" customHeight="1">
+    <row r="117" spans="6:15">
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
@@ -4382,7 +4703,7 @@
       <c r="N117" s="9"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="6:15" ht="14.25" customHeight="1">
+    <row r="118" spans="6:15">
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
@@ -4394,7 +4715,7 @@
       <c r="N118" s="9"/>
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="6:15" ht="14.25" customHeight="1">
+    <row r="119" spans="6:15">
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
@@ -4406,7 +4727,7 @@
       <c r="N119" s="9"/>
       <c r="O119" s="6"/>
     </row>
-    <row r="120" spans="6:15" ht="14.25" customHeight="1">
+    <row r="120" spans="6:15">
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
@@ -4418,7 +4739,7 @@
       <c r="N120" s="9"/>
       <c r="O120" s="6"/>
     </row>
-    <row r="121" spans="6:15" ht="14.25" customHeight="1">
+    <row r="121" spans="6:15">
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
@@ -4430,7 +4751,7 @@
       <c r="N121" s="9"/>
       <c r="O121" s="6"/>
     </row>
-    <row r="122" spans="6:15" ht="14.25" customHeight="1">
+    <row r="122" spans="6:15">
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
@@ -4442,7 +4763,7 @@
       <c r="N122" s="9"/>
       <c r="O122" s="6"/>
     </row>
-    <row r="123" spans="6:15" ht="14.25" customHeight="1">
+    <row r="123" spans="6:15">
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
@@ -4454,7 +4775,7 @@
       <c r="N123" s="9"/>
       <c r="O123" s="6"/>
     </row>
-    <row r="124" spans="6:15" ht="14.25" customHeight="1">
+    <row r="124" spans="6:15">
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
@@ -4466,7 +4787,7 @@
       <c r="N124" s="9"/>
       <c r="O124" s="6"/>
     </row>
-    <row r="125" spans="6:15" ht="14.25" customHeight="1">
+    <row r="125" spans="6:15">
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
@@ -4478,7 +4799,7 @@
       <c r="N125" s="9"/>
       <c r="O125" s="6"/>
     </row>
-    <row r="126" spans="6:15" ht="14.25" customHeight="1">
+    <row r="126" spans="6:15">
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
@@ -4490,7 +4811,7 @@
       <c r="N126" s="9"/>
       <c r="O126" s="6"/>
     </row>
-    <row r="127" spans="6:15" ht="14.25" customHeight="1">
+    <row r="127" spans="6:15">
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
@@ -4502,7 +4823,7 @@
       <c r="N127" s="9"/>
       <c r="O127" s="6"/>
     </row>
-    <row r="128" spans="6:15" ht="14.25" customHeight="1">
+    <row r="128" spans="6:15">
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
@@ -4514,7 +4835,7 @@
       <c r="N128" s="9"/>
       <c r="O128" s="6"/>
     </row>
-    <row r="129" spans="6:15" ht="14.25" customHeight="1">
+    <row r="129" spans="6:15">
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
@@ -4526,7 +4847,7 @@
       <c r="N129" s="9"/>
       <c r="O129" s="6"/>
     </row>
-    <row r="130" spans="6:15" ht="14.25" customHeight="1">
+    <row r="130" spans="6:15">
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
@@ -4538,7 +4859,7 @@
       <c r="N130" s="9"/>
       <c r="O130" s="6"/>
     </row>
-    <row r="131" spans="6:15" ht="14.25" customHeight="1">
+    <row r="131" spans="6:15">
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
@@ -4550,7 +4871,7 @@
       <c r="N131" s="9"/>
       <c r="O131" s="6"/>
     </row>
-    <row r="132" spans="6:15" ht="14.25" customHeight="1">
+    <row r="132" spans="6:15">
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
@@ -4562,7 +4883,7 @@
       <c r="N132" s="9"/>
       <c r="O132" s="6"/>
     </row>
-    <row r="133" spans="6:15" ht="14.25" customHeight="1">
+    <row r="133" spans="6:15">
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
@@ -4574,7 +4895,7 @@
       <c r="N133" s="9"/>
       <c r="O133" s="6"/>
     </row>
-    <row r="134" spans="6:15" ht="14.25" customHeight="1">
+    <row r="134" spans="6:15">
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
@@ -4586,7 +4907,7 @@
       <c r="N134" s="9"/>
       <c r="O134" s="6"/>
     </row>
-    <row r="135" spans="6:15" ht="14.25" customHeight="1">
+    <row r="135" spans="6:15">
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
@@ -4598,7 +4919,7 @@
       <c r="N135" s="9"/>
       <c r="O135" s="6"/>
     </row>
-    <row r="136" spans="6:15" ht="14.25" customHeight="1">
+    <row r="136" spans="6:15">
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
@@ -4610,7 +4931,7 @@
       <c r="N136" s="9"/>
       <c r="O136" s="6"/>
     </row>
-    <row r="137" spans="6:15" ht="14.25" customHeight="1">
+    <row r="137" spans="6:15">
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
@@ -4622,7 +4943,7 @@
       <c r="N137" s="9"/>
       <c r="O137" s="6"/>
     </row>
-    <row r="138" spans="6:15" ht="14.25" customHeight="1">
+    <row r="138" spans="6:15">
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
@@ -4634,7 +4955,7 @@
       <c r="N138" s="9"/>
       <c r="O138" s="6"/>
     </row>
-    <row r="139" spans="6:15" ht="14.25" customHeight="1">
+    <row r="139" spans="6:15">
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
@@ -4646,7 +4967,7 @@
       <c r="N139" s="9"/>
       <c r="O139" s="6"/>
     </row>
-    <row r="140" spans="6:15" ht="14.25" customHeight="1">
+    <row r="140" spans="6:15">
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
@@ -4658,7 +4979,7 @@
       <c r="N140" s="9"/>
       <c r="O140" s="6"/>
     </row>
-    <row r="141" spans="6:15" ht="14.25" customHeight="1">
+    <row r="141" spans="6:15">
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
@@ -4670,7 +4991,7 @@
       <c r="N141" s="9"/>
       <c r="O141" s="6"/>
     </row>
-    <row r="142" spans="6:15" ht="14.25" customHeight="1">
+    <row r="142" spans="6:15">
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
@@ -4682,7 +5003,7 @@
       <c r="N142" s="9"/>
       <c r="O142" s="6"/>
     </row>
-    <row r="143" spans="6:15" ht="14.25" customHeight="1">
+    <row r="143" spans="6:15">
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
@@ -4694,7 +5015,7 @@
       <c r="N143" s="9"/>
       <c r="O143" s="6"/>
     </row>
-    <row r="144" spans="6:15" ht="14.25" customHeight="1">
+    <row r="144" spans="6:15">
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
@@ -4706,7 +5027,7 @@
       <c r="N144" s="9"/>
       <c r="O144" s="6"/>
     </row>
-    <row r="145" spans="6:15" ht="14.25" customHeight="1">
+    <row r="145" spans="6:15">
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
@@ -4718,7 +5039,7 @@
       <c r="N145" s="9"/>
       <c r="O145" s="6"/>
     </row>
-    <row r="146" spans="6:15" ht="14.25" customHeight="1">
+    <row r="146" spans="6:15">
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
@@ -4730,7 +5051,7 @@
       <c r="N146" s="9"/>
       <c r="O146" s="6"/>
     </row>
-    <row r="147" spans="6:15" ht="14.25" customHeight="1">
+    <row r="147" spans="6:15">
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
@@ -4742,7 +5063,7 @@
       <c r="N147" s="9"/>
       <c r="O147" s="6"/>
     </row>
-    <row r="148" spans="6:15" ht="14.25" customHeight="1">
+    <row r="148" spans="6:15">
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
@@ -4754,7 +5075,7 @@
       <c r="N148" s="9"/>
       <c r="O148" s="6"/>
     </row>
-    <row r="149" spans="6:15" ht="14.25" customHeight="1">
+    <row r="149" spans="6:15">
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
@@ -4766,7 +5087,7 @@
       <c r="N149" s="9"/>
       <c r="O149" s="6"/>
     </row>
-    <row r="150" spans="6:15" ht="14.25" customHeight="1">
+    <row r="150" spans="6:15">
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
@@ -4778,7 +5099,7 @@
       <c r="N150" s="9"/>
       <c r="O150" s="6"/>
     </row>
-    <row r="151" spans="6:15" ht="14.25" customHeight="1">
+    <row r="151" spans="6:15">
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
@@ -4790,7 +5111,7 @@
       <c r="N151" s="9"/>
       <c r="O151" s="6"/>
     </row>
-    <row r="152" spans="6:15" ht="14.25" customHeight="1">
+    <row r="152" spans="6:15">
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
@@ -4802,7 +5123,7 @@
       <c r="N152" s="9"/>
       <c r="O152" s="6"/>
     </row>
-    <row r="153" spans="6:15" ht="14.25" customHeight="1">
+    <row r="153" spans="6:15">
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
@@ -4814,7 +5135,7 @@
       <c r="N153" s="9"/>
       <c r="O153" s="6"/>
     </row>
-    <row r="154" spans="6:15" ht="14.25" customHeight="1">
+    <row r="154" spans="6:15">
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
@@ -4826,7 +5147,7 @@
       <c r="N154" s="9"/>
       <c r="O154" s="6"/>
     </row>
-    <row r="155" spans="6:15" ht="14.25" customHeight="1">
+    <row r="155" spans="6:15">
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
@@ -4838,7 +5159,7 @@
       <c r="N155" s="9"/>
       <c r="O155" s="6"/>
     </row>
-    <row r="156" spans="6:15" ht="14.25" customHeight="1">
+    <row r="156" spans="6:15">
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
@@ -4850,7 +5171,7 @@
       <c r="N156" s="9"/>
       <c r="O156" s="6"/>
     </row>
-    <row r="157" spans="6:15" ht="14.25" customHeight="1">
+    <row r="157" spans="6:15">
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
@@ -4862,7 +5183,7 @@
       <c r="N157" s="9"/>
       <c r="O157" s="6"/>
     </row>
-    <row r="158" spans="6:15" ht="14.25" customHeight="1">
+    <row r="158" spans="6:15">
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
@@ -4874,7 +5195,7 @@
       <c r="N158" s="9"/>
       <c r="O158" s="6"/>
     </row>
-    <row r="159" spans="6:15" ht="14.25" customHeight="1">
+    <row r="159" spans="6:15">
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
@@ -4886,7 +5207,7 @@
       <c r="N159" s="9"/>
       <c r="O159" s="6"/>
     </row>
-    <row r="160" spans="6:15" ht="14.25" customHeight="1">
+    <row r="160" spans="6:15">
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
@@ -4898,7 +5219,7 @@
       <c r="N160" s="9"/>
       <c r="O160" s="6"/>
     </row>
-    <row r="161" spans="6:15" ht="14.25" customHeight="1">
+    <row r="161" spans="6:15">
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
@@ -4910,7 +5231,7 @@
       <c r="N161" s="9"/>
       <c r="O161" s="6"/>
     </row>
-    <row r="162" spans="6:15" ht="14.25" customHeight="1">
+    <row r="162" spans="6:15">
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
@@ -4922,7 +5243,7 @@
       <c r="N162" s="9"/>
       <c r="O162" s="6"/>
     </row>
-    <row r="163" spans="6:15" ht="14.25" customHeight="1">
+    <row r="163" spans="6:15">
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
@@ -4934,7 +5255,7 @@
       <c r="N163" s="9"/>
       <c r="O163" s="6"/>
     </row>
-    <row r="164" spans="6:15" ht="14.25" customHeight="1">
+    <row r="164" spans="6:15">
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
@@ -4946,7 +5267,7 @@
       <c r="N164" s="9"/>
       <c r="O164" s="6"/>
     </row>
-    <row r="165" spans="6:15" ht="14.25" customHeight="1">
+    <row r="165" spans="6:15">
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
@@ -4958,7 +5279,7 @@
       <c r="N165" s="9"/>
       <c r="O165" s="6"/>
     </row>
-    <row r="166" spans="6:15" ht="14.25" customHeight="1">
+    <row r="166" spans="6:15">
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
@@ -4970,7 +5291,7 @@
       <c r="N166" s="9"/>
       <c r="O166" s="6"/>
     </row>
-    <row r="167" spans="6:15" ht="14.25" customHeight="1">
+    <row r="167" spans="6:15">
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
@@ -4982,7 +5303,7 @@
       <c r="N167" s="9"/>
       <c r="O167" s="6"/>
     </row>
-    <row r="168" spans="6:15" ht="14.25" customHeight="1">
+    <row r="168" spans="6:15">
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
@@ -4994,7 +5315,7 @@
       <c r="N168" s="9"/>
       <c r="O168" s="6"/>
     </row>
-    <row r="169" spans="6:15" ht="14.25" customHeight="1">
+    <row r="169" spans="6:15">
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
@@ -5006,7 +5327,7 @@
       <c r="N169" s="9"/>
       <c r="O169" s="6"/>
     </row>
-    <row r="170" spans="6:15" ht="14.25" customHeight="1">
+    <row r="170" spans="6:15">
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
@@ -5018,7 +5339,7 @@
       <c r="N170" s="9"/>
       <c r="O170" s="6"/>
     </row>
-    <row r="171" spans="6:15" ht="14.25" customHeight="1">
+    <row r="171" spans="6:15">
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
@@ -5030,7 +5351,7 @@
       <c r="N171" s="9"/>
       <c r="O171" s="6"/>
     </row>
-    <row r="172" spans="6:15" ht="14.25" customHeight="1">
+    <row r="172" spans="6:15">
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
@@ -5042,7 +5363,7 @@
       <c r="N172" s="9"/>
       <c r="O172" s="6"/>
     </row>
-    <row r="173" spans="6:15" ht="14.25" customHeight="1">
+    <row r="173" spans="6:15">
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
@@ -5054,7 +5375,7 @@
       <c r="N173" s="9"/>
       <c r="O173" s="6"/>
     </row>
-    <row r="174" spans="6:15" ht="14.25" customHeight="1">
+    <row r="174" spans="6:15">
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
@@ -5066,7 +5387,7 @@
       <c r="N174" s="9"/>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="6:15" ht="14.25" customHeight="1">
+    <row r="175" spans="6:15">
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
@@ -5078,7 +5399,7 @@
       <c r="N175" s="9"/>
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="6:15" ht="14.25" customHeight="1">
+    <row r="176" spans="6:15">
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
@@ -5090,7 +5411,7 @@
       <c r="N176" s="9"/>
       <c r="O176" s="6"/>
     </row>
-    <row r="177" spans="6:15" ht="14.25" customHeight="1">
+    <row r="177" spans="6:15">
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
@@ -5102,7 +5423,7 @@
       <c r="N177" s="9"/>
       <c r="O177" s="6"/>
     </row>
-    <row r="178" spans="6:15" ht="14.25" customHeight="1">
+    <row r="178" spans="6:15">
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
@@ -5114,7 +5435,7 @@
       <c r="N178" s="9"/>
       <c r="O178" s="6"/>
     </row>
-    <row r="179" spans="6:15" ht="14.25" customHeight="1">
+    <row r="179" spans="6:15">
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
@@ -5126,7 +5447,7 @@
       <c r="N179" s="9"/>
       <c r="O179" s="6"/>
     </row>
-    <row r="180" spans="6:15" ht="14.25" customHeight="1">
+    <row r="180" spans="6:15">
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
@@ -5138,7 +5459,7 @@
       <c r="N180" s="9"/>
       <c r="O180" s="6"/>
     </row>
-    <row r="181" spans="6:15" ht="14.25" customHeight="1">
+    <row r="181" spans="6:15">
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
@@ -5150,7 +5471,7 @@
       <c r="N181" s="9"/>
       <c r="O181" s="6"/>
     </row>
-    <row r="182" spans="6:15" ht="14.25" customHeight="1">
+    <row r="182" spans="6:15">
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
@@ -5162,7 +5483,7 @@
       <c r="N182" s="9"/>
       <c r="O182" s="6"/>
     </row>
-    <row r="183" spans="6:15" ht="14.25" customHeight="1">
+    <row r="183" spans="6:15">
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
@@ -5174,7 +5495,7 @@
       <c r="N183" s="9"/>
       <c r="O183" s="6"/>
     </row>
-    <row r="184" spans="6:15" ht="14.25" customHeight="1">
+    <row r="184" spans="6:15">
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
@@ -5186,7 +5507,7 @@
       <c r="N184" s="9"/>
       <c r="O184" s="6"/>
     </row>
-    <row r="185" spans="6:15" ht="14.25" customHeight="1">
+    <row r="185" spans="6:15">
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
@@ -5198,7 +5519,7 @@
       <c r="N185" s="9"/>
       <c r="O185" s="6"/>
     </row>
-    <row r="186" spans="6:15" ht="14.25" customHeight="1">
+    <row r="186" spans="6:15">
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
@@ -5210,7 +5531,7 @@
       <c r="N186" s="9"/>
       <c r="O186" s="6"/>
     </row>
-    <row r="187" spans="6:15" ht="14.25" customHeight="1">
+    <row r="187" spans="6:15">
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
@@ -5222,7 +5543,7 @@
       <c r="N187" s="9"/>
       <c r="O187" s="6"/>
     </row>
-    <row r="188" spans="6:15" ht="14.25" customHeight="1">
+    <row r="188" spans="6:15">
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
@@ -5234,7 +5555,7 @@
       <c r="N188" s="9"/>
       <c r="O188" s="6"/>
     </row>
-    <row r="189" spans="6:15" ht="14.25" customHeight="1">
+    <row r="189" spans="6:15">
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
@@ -5246,7 +5567,7 @@
       <c r="N189" s="9"/>
       <c r="O189" s="6"/>
     </row>
-    <row r="190" spans="6:15" ht="14.25" customHeight="1">
+    <row r="190" spans="6:15">
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
@@ -5258,7 +5579,7 @@
       <c r="N190" s="9"/>
       <c r="O190" s="6"/>
     </row>
-    <row r="191" spans="6:15" ht="14.25" customHeight="1">
+    <row r="191" spans="6:15">
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
@@ -5270,7 +5591,7 @@
       <c r="N191" s="9"/>
       <c r="O191" s="6"/>
     </row>
-    <row r="192" spans="6:15" ht="14.25" customHeight="1">
+    <row r="192" spans="6:15">
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
@@ -5282,7 +5603,7 @@
       <c r="N192" s="9"/>
       <c r="O192" s="6"/>
     </row>
-    <row r="193" spans="6:15" ht="14.25" customHeight="1">
+    <row r="193" spans="6:15">
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
@@ -5294,7 +5615,7 @@
       <c r="N193" s="9"/>
       <c r="O193" s="6"/>
     </row>
-    <row r="194" spans="6:15" ht="14.25" customHeight="1">
+    <row r="194" spans="6:15">
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
@@ -5306,7 +5627,7 @@
       <c r="N194" s="9"/>
       <c r="O194" s="6"/>
     </row>
-    <row r="195" spans="6:15" ht="14.25" customHeight="1">
+    <row r="195" spans="6:15">
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
@@ -5318,7 +5639,7 @@
       <c r="N195" s="9"/>
       <c r="O195" s="6"/>
     </row>
-    <row r="196" spans="6:15" ht="14.25" customHeight="1">
+    <row r="196" spans="6:15">
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
@@ -5330,7 +5651,7 @@
       <c r="N196" s="9"/>
       <c r="O196" s="6"/>
     </row>
-    <row r="197" spans="6:15" ht="14.25" customHeight="1">
+    <row r="197" spans="6:15">
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
@@ -5342,7 +5663,7 @@
       <c r="N197" s="9"/>
       <c r="O197" s="6"/>
     </row>
-    <row r="198" spans="6:15" ht="14.25" customHeight="1">
+    <row r="198" spans="6:15">
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
@@ -5354,7 +5675,7 @@
       <c r="N198" s="9"/>
       <c r="O198" s="6"/>
     </row>
-    <row r="199" spans="6:15" ht="14.25" customHeight="1">
+    <row r="199" spans="6:15">
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
@@ -5366,7 +5687,7 @@
       <c r="N199" s="9"/>
       <c r="O199" s="6"/>
     </row>
-    <row r="200" spans="6:15" ht="14.25" customHeight="1">
+    <row r="200" spans="6:15">
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
@@ -5378,7 +5699,7 @@
       <c r="N200" s="9"/>
       <c r="O200" s="6"/>
     </row>
-    <row r="201" spans="6:15" ht="14.25" customHeight="1">
+    <row r="201" spans="6:15">
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
@@ -5390,7 +5711,7 @@
       <c r="N201" s="9"/>
       <c r="O201" s="6"/>
     </row>
-    <row r="202" spans="6:15" ht="14.25" customHeight="1">
+    <row r="202" spans="6:15">
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
@@ -5402,7 +5723,7 @@
       <c r="N202" s="9"/>
       <c r="O202" s="6"/>
     </row>
-    <row r="203" spans="6:15" ht="14.25" customHeight="1">
+    <row r="203" spans="6:15">
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
@@ -5414,7 +5735,7 @@
       <c r="N203" s="9"/>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="6:15" ht="14.25" customHeight="1">
+    <row r="204" spans="6:15">
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
@@ -5426,7 +5747,7 @@
       <c r="N204" s="9"/>
       <c r="O204" s="6"/>
     </row>
-    <row r="205" spans="6:15" ht="14.25" customHeight="1">
+    <row r="205" spans="6:15">
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
@@ -5438,7 +5759,7 @@
       <c r="N205" s="9"/>
       <c r="O205" s="6"/>
     </row>
-    <row r="206" spans="6:15" ht="14.25" customHeight="1">
+    <row r="206" spans="6:15">
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
@@ -5450,7 +5771,7 @@
       <c r="N206" s="9"/>
       <c r="O206" s="6"/>
     </row>
-    <row r="207" spans="6:15" ht="14.25" customHeight="1">
+    <row r="207" spans="6:15">
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
@@ -5462,7 +5783,7 @@
       <c r="N207" s="9"/>
       <c r="O207" s="6"/>
     </row>
-    <row r="208" spans="6:15" ht="14.25" customHeight="1">
+    <row r="208" spans="6:15">
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
@@ -5474,7 +5795,7 @@
       <c r="N208" s="9"/>
       <c r="O208" s="6"/>
     </row>
-    <row r="209" spans="6:15" ht="14.25" customHeight="1">
+    <row r="209" spans="6:15">
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
@@ -5486,7 +5807,7 @@
       <c r="N209" s="9"/>
       <c r="O209" s="6"/>
     </row>
-    <row r="210" spans="6:15" ht="14.25" customHeight="1">
+    <row r="210" spans="6:15">
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
       <c r="H210" s="7"/>
@@ -5498,7 +5819,7 @@
       <c r="N210" s="9"/>
       <c r="O210" s="6"/>
     </row>
-    <row r="211" spans="6:15" ht="14.25" customHeight="1">
+    <row r="211" spans="6:15">
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
@@ -5510,7 +5831,7 @@
       <c r="N211" s="9"/>
       <c r="O211" s="6"/>
     </row>
-    <row r="212" spans="6:15" ht="14.25" customHeight="1">
+    <row r="212" spans="6:15">
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
@@ -5522,7 +5843,7 @@
       <c r="N212" s="9"/>
       <c r="O212" s="6"/>
     </row>
-    <row r="213" spans="6:15" ht="14.25" customHeight="1">
+    <row r="213" spans="6:15">
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
@@ -5534,7 +5855,7 @@
       <c r="N213" s="9"/>
       <c r="O213" s="6"/>
     </row>
-    <row r="214" spans="6:15" ht="14.25" customHeight="1">
+    <row r="214" spans="6:15">
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
@@ -5546,7 +5867,7 @@
       <c r="N214" s="9"/>
       <c r="O214" s="6"/>
     </row>
-    <row r="215" spans="6:15" ht="14.25" customHeight="1">
+    <row r="215" spans="6:15">
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
       <c r="H215" s="7"/>
@@ -5558,7 +5879,7 @@
       <c r="N215" s="9"/>
       <c r="O215" s="6"/>
     </row>
-    <row r="216" spans="6:15" ht="14.25" customHeight="1">
+    <row r="216" spans="6:15">
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
       <c r="H216" s="7"/>
@@ -5570,7 +5891,7 @@
       <c r="N216" s="9"/>
       <c r="O216" s="6"/>
     </row>
-    <row r="217" spans="6:15" ht="14.25" customHeight="1">
+    <row r="217" spans="6:15">
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
       <c r="H217" s="7"/>
@@ -5582,7 +5903,7 @@
       <c r="N217" s="9"/>
       <c r="O217" s="6"/>
     </row>
-    <row r="218" spans="6:15" ht="14.25" customHeight="1">
+    <row r="218" spans="6:15">
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
       <c r="H218" s="7"/>
@@ -5594,7 +5915,7 @@
       <c r="N218" s="9"/>
       <c r="O218" s="6"/>
     </row>
-    <row r="219" spans="6:15" ht="14.25" customHeight="1">
+    <row r="219" spans="6:15">
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
       <c r="H219" s="7"/>
@@ -5606,7 +5927,7 @@
       <c r="N219" s="9"/>
       <c r="O219" s="6"/>
     </row>
-    <row r="220" spans="6:15" ht="14.25" customHeight="1">
+    <row r="220" spans="6:15">
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
       <c r="H220" s="7"/>
@@ -5618,7 +5939,7 @@
       <c r="N220" s="9"/>
       <c r="O220" s="6"/>
     </row>
-    <row r="221" spans="6:15" ht="14.25" customHeight="1">
+    <row r="221" spans="6:15">
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
@@ -5630,7 +5951,7 @@
       <c r="N221" s="9"/>
       <c r="O221" s="6"/>
     </row>
-    <row r="222" spans="6:15" ht="14.25" customHeight="1">
+    <row r="222" spans="6:15">
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
@@ -5642,7 +5963,7 @@
       <c r="N222" s="9"/>
       <c r="O222" s="6"/>
     </row>
-    <row r="223" spans="6:15" ht="14.25" customHeight="1">
+    <row r="223" spans="6:15">
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
       <c r="H223" s="7"/>
@@ -5654,7 +5975,7 @@
       <c r="N223" s="9"/>
       <c r="O223" s="6"/>
     </row>
-    <row r="224" spans="6:15" ht="14.25" customHeight="1">
+    <row r="224" spans="6:15">
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
       <c r="H224" s="7"/>
@@ -5666,7 +5987,7 @@
       <c r="N224" s="9"/>
       <c r="O224" s="6"/>
     </row>
-    <row r="225" spans="6:15" ht="14.25" customHeight="1">
+    <row r="225" spans="6:15">
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
       <c r="H225" s="7"/>
@@ -5678,7 +5999,7 @@
       <c r="N225" s="9"/>
       <c r="O225" s="6"/>
     </row>
-    <row r="226" spans="6:15" ht="14.25" customHeight="1">
+    <row r="226" spans="6:15">
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
@@ -5690,7 +6011,7 @@
       <c r="N226" s="9"/>
       <c r="O226" s="6"/>
     </row>
-    <row r="227" spans="6:15" ht="14.25" customHeight="1">
+    <row r="227" spans="6:15">
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
       <c r="H227" s="7"/>
@@ -5702,7 +6023,7 @@
       <c r="N227" s="9"/>
       <c r="O227" s="6"/>
     </row>
-    <row r="228" spans="6:15" ht="14.25" customHeight="1">
+    <row r="228" spans="6:15">
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
       <c r="H228" s="7"/>
@@ -5714,7 +6035,7 @@
       <c r="N228" s="9"/>
       <c r="O228" s="6"/>
     </row>
-    <row r="229" spans="6:15" ht="14.25" customHeight="1">
+    <row r="229" spans="6:15">
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
       <c r="H229" s="7"/>
@@ -5726,7 +6047,7 @@
       <c r="N229" s="9"/>
       <c r="O229" s="6"/>
     </row>
-    <row r="230" spans="6:15" ht="14.25" customHeight="1">
+    <row r="230" spans="6:15">
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
       <c r="H230" s="7"/>
@@ -5738,7 +6059,7 @@
       <c r="N230" s="9"/>
       <c r="O230" s="6"/>
     </row>
-    <row r="231" spans="6:15" ht="14.25" customHeight="1">
+    <row r="231" spans="6:15">
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
       <c r="H231" s="7"/>
@@ -5750,7 +6071,7 @@
       <c r="N231" s="9"/>
       <c r="O231" s="6"/>
     </row>
-    <row r="232" spans="6:15" ht="14.25" customHeight="1">
+    <row r="232" spans="6:15">
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
       <c r="H232" s="7"/>
@@ -5762,7 +6083,7 @@
       <c r="N232" s="9"/>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="6:15" ht="14.25" customHeight="1">
+    <row r="233" spans="6:15">
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
       <c r="H233" s="7"/>
@@ -5774,7 +6095,7 @@
       <c r="N233" s="9"/>
       <c r="O233" s="6"/>
     </row>
-    <row r="234" spans="6:15" ht="14.25" customHeight="1">
+    <row r="234" spans="6:15">
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
       <c r="H234" s="7"/>
@@ -5786,7 +6107,7 @@
       <c r="N234" s="9"/>
       <c r="O234" s="6"/>
     </row>
-    <row r="235" spans="6:15" ht="14.25" customHeight="1">
+    <row r="235" spans="6:15">
       <c r="F235" s="7"/>
       <c r="G235" s="7"/>
       <c r="H235" s="7"/>
@@ -5798,7 +6119,7 @@
       <c r="N235" s="9"/>
       <c r="O235" s="6"/>
     </row>
-    <row r="236" spans="6:15" ht="14.25" customHeight="1">
+    <row r="236" spans="6:15">
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
       <c r="H236" s="7"/>
@@ -5810,7 +6131,7 @@
       <c r="N236" s="9"/>
       <c r="O236" s="6"/>
     </row>
-    <row r="237" spans="6:15" ht="14.25" customHeight="1">
+    <row r="237" spans="6:15">
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
       <c r="H237" s="7"/>
@@ -5822,7 +6143,7 @@
       <c r="N237" s="9"/>
       <c r="O237" s="6"/>
     </row>
-    <row r="238" spans="6:15" ht="14.25" customHeight="1">
+    <row r="238" spans="6:15">
       <c r="F238" s="7"/>
       <c r="G238" s="7"/>
       <c r="H238" s="7"/>
@@ -5834,7 +6155,7 @@
       <c r="N238" s="9"/>
       <c r="O238" s="6"/>
     </row>
-    <row r="239" spans="6:15" ht="14.25" customHeight="1">
+    <row r="239" spans="6:15">
       <c r="F239" s="7"/>
       <c r="G239" s="7"/>
       <c r="H239" s="7"/>
@@ -5846,7 +6167,7 @@
       <c r="N239" s="9"/>
       <c r="O239" s="6"/>
     </row>
-    <row r="240" spans="6:15" ht="14.25" customHeight="1">
+    <row r="240" spans="6:15">
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
       <c r="H240" s="7"/>
@@ -5858,7 +6179,7 @@
       <c r="N240" s="9"/>
       <c r="O240" s="6"/>
     </row>
-    <row r="241" spans="6:15" ht="14.25" customHeight="1">
+    <row r="241" spans="6:15">
       <c r="F241" s="7"/>
       <c r="G241" s="7"/>
       <c r="H241" s="7"/>
@@ -5870,7 +6191,7 @@
       <c r="N241" s="9"/>
       <c r="O241" s="6"/>
     </row>
-    <row r="242" spans="6:15" ht="14.25" customHeight="1">
+    <row r="242" spans="6:15">
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
       <c r="H242" s="7"/>
@@ -5882,7 +6203,7 @@
       <c r="N242" s="9"/>
       <c r="O242" s="6"/>
     </row>
-    <row r="243" spans="6:15" ht="14.25" customHeight="1">
+    <row r="243" spans="6:15">
       <c r="F243" s="7"/>
       <c r="G243" s="7"/>
       <c r="H243" s="7"/>
@@ -5894,7 +6215,7 @@
       <c r="N243" s="9"/>
       <c r="O243" s="6"/>
     </row>
-    <row r="244" spans="6:15" ht="14.25" customHeight="1">
+    <row r="244" spans="6:15">
       <c r="F244" s="7"/>
       <c r="G244" s="7"/>
       <c r="H244" s="7"/>
@@ -5906,7 +6227,7 @@
       <c r="N244" s="9"/>
       <c r="O244" s="6"/>
     </row>
-    <row r="245" spans="6:15" ht="14.25" customHeight="1">
+    <row r="245" spans="6:15">
       <c r="F245" s="7"/>
       <c r="G245" s="7"/>
       <c r="H245" s="7"/>
@@ -5918,7 +6239,7 @@
       <c r="N245" s="9"/>
       <c r="O245" s="6"/>
     </row>
-    <row r="246" spans="6:15" ht="14.25" customHeight="1">
+    <row r="246" spans="6:15">
       <c r="F246" s="7"/>
       <c r="G246" s="7"/>
       <c r="H246" s="7"/>
@@ -5930,7 +6251,7 @@
       <c r="N246" s="9"/>
       <c r="O246" s="6"/>
     </row>
-    <row r="247" spans="6:15" ht="14.25" customHeight="1">
+    <row r="247" spans="6:15">
       <c r="F247" s="7"/>
       <c r="G247" s="7"/>
       <c r="H247" s="7"/>
@@ -5942,7 +6263,7 @@
       <c r="N247" s="9"/>
       <c r="O247" s="6"/>
     </row>
-    <row r="248" spans="6:15" ht="14.25" customHeight="1">
+    <row r="248" spans="6:15">
       <c r="F248" s="7"/>
       <c r="G248" s="7"/>
       <c r="H248" s="7"/>
@@ -5954,7 +6275,7 @@
       <c r="N248" s="9"/>
       <c r="O248" s="6"/>
     </row>
-    <row r="249" spans="6:15" ht="14.25" customHeight="1">
+    <row r="249" spans="6:15">
       <c r="F249" s="7"/>
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
@@ -5966,7 +6287,7 @@
       <c r="N249" s="9"/>
       <c r="O249" s="6"/>
     </row>
-    <row r="250" spans="6:15" ht="14.25" customHeight="1">
+    <row r="250" spans="6:15">
       <c r="F250" s="7"/>
       <c r="G250" s="7"/>
       <c r="H250" s="7"/>
@@ -5978,7 +6299,7 @@
       <c r="N250" s="9"/>
       <c r="O250" s="6"/>
     </row>
-    <row r="251" spans="6:15" ht="14.25" customHeight="1">
+    <row r="251" spans="6:15">
       <c r="F251" s="7"/>
       <c r="G251" s="7"/>
       <c r="H251" s="7"/>
@@ -5990,7 +6311,7 @@
       <c r="N251" s="9"/>
       <c r="O251" s="6"/>
     </row>
-    <row r="252" spans="6:15" ht="14.25" customHeight="1">
+    <row r="252" spans="6:15">
       <c r="F252" s="7"/>
       <c r="G252" s="7"/>
       <c r="H252" s="7"/>
@@ -6002,7 +6323,7 @@
       <c r="N252" s="9"/>
       <c r="O252" s="6"/>
     </row>
-    <row r="253" spans="6:15" ht="14.25" customHeight="1">
+    <row r="253" spans="6:15">
       <c r="F253" s="7"/>
       <c r="G253" s="7"/>
       <c r="H253" s="7"/>
@@ -6014,7 +6335,7 @@
       <c r="N253" s="9"/>
       <c r="O253" s="6"/>
     </row>
-    <row r="254" spans="6:15" ht="14.25" customHeight="1">
+    <row r="254" spans="6:15">
       <c r="F254" s="7"/>
       <c r="G254" s="7"/>
       <c r="H254" s="7"/>
@@ -6026,7 +6347,7 @@
       <c r="N254" s="9"/>
       <c r="O254" s="6"/>
     </row>
-    <row r="255" spans="6:15" ht="14.25" customHeight="1">
+    <row r="255" spans="6:15">
       <c r="F255" s="7"/>
       <c r="G255" s="7"/>
       <c r="H255" s="7"/>
@@ -6038,7 +6359,7 @@
       <c r="N255" s="9"/>
       <c r="O255" s="6"/>
     </row>
-    <row r="256" spans="6:15" ht="14.25" customHeight="1">
+    <row r="256" spans="6:15">
       <c r="F256" s="7"/>
       <c r="G256" s="7"/>
       <c r="H256" s="7"/>
@@ -6050,7 +6371,7 @@
       <c r="N256" s="9"/>
       <c r="O256" s="6"/>
     </row>
-    <row r="257" spans="6:15" ht="14.25" customHeight="1">
+    <row r="257" spans="6:15">
       <c r="F257" s="7"/>
       <c r="G257" s="7"/>
       <c r="H257" s="7"/>
@@ -6062,7 +6383,7 @@
       <c r="N257" s="9"/>
       <c r="O257" s="6"/>
     </row>
-    <row r="258" spans="6:15" ht="14.25" customHeight="1">
+    <row r="258" spans="6:15">
       <c r="F258" s="7"/>
       <c r="G258" s="7"/>
       <c r="H258" s="7"/>
@@ -6074,7 +6395,7 @@
       <c r="N258" s="9"/>
       <c r="O258" s="6"/>
     </row>
-    <row r="259" spans="6:15" ht="14.25" customHeight="1">
+    <row r="259" spans="6:15">
       <c r="F259" s="7"/>
       <c r="G259" s="7"/>
       <c r="H259" s="7"/>
@@ -6086,7 +6407,7 @@
       <c r="N259" s="9"/>
       <c r="O259" s="6"/>
     </row>
-    <row r="260" spans="6:15" ht="14.25" customHeight="1">
+    <row r="260" spans="6:15">
       <c r="F260" s="7"/>
       <c r="G260" s="7"/>
       <c r="H260" s="7"/>
@@ -6098,7 +6419,7 @@
       <c r="N260" s="9"/>
       <c r="O260" s="6"/>
     </row>
-    <row r="261" spans="6:15" ht="14.25" customHeight="1">
+    <row r="261" spans="6:15">
       <c r="F261" s="7"/>
       <c r="G261" s="7"/>
       <c r="H261" s="7"/>
@@ -6110,7 +6431,7 @@
       <c r="N261" s="9"/>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="6:15" ht="14.25" customHeight="1">
+    <row r="262" spans="6:15">
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
       <c r="H262" s="7"/>
@@ -6122,7 +6443,7 @@
       <c r="N262" s="9"/>
       <c r="O262" s="6"/>
     </row>
-    <row r="263" spans="6:15" ht="14.25" customHeight="1">
+    <row r="263" spans="6:15">
       <c r="F263" s="7"/>
       <c r="G263" s="7"/>
       <c r="H263" s="7"/>
@@ -6134,7 +6455,7 @@
       <c r="N263" s="9"/>
       <c r="O263" s="6"/>
     </row>
-    <row r="264" spans="6:15" ht="14.25" customHeight="1">
+    <row r="264" spans="6:15">
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
       <c r="H264" s="7"/>
@@ -6146,7 +6467,7 @@
       <c r="N264" s="9"/>
       <c r="O264" s="6"/>
     </row>
-    <row r="265" spans="6:15" ht="14.25" customHeight="1">
+    <row r="265" spans="6:15">
       <c r="F265" s="7"/>
       <c r="G265" s="7"/>
       <c r="H265" s="7"/>
@@ -6158,7 +6479,7 @@
       <c r="N265" s="9"/>
       <c r="O265" s="6"/>
     </row>
-    <row r="266" spans="6:15" ht="14.25" customHeight="1">
+    <row r="266" spans="6:15">
       <c r="F266" s="7"/>
       <c r="G266" s="7"/>
       <c r="H266" s="7"/>
@@ -6170,7 +6491,7 @@
       <c r="N266" s="9"/>
       <c r="O266" s="6"/>
     </row>
-    <row r="267" spans="6:15" ht="14.25" customHeight="1">
+    <row r="267" spans="6:15">
       <c r="F267" s="7"/>
       <c r="G267" s="7"/>
       <c r="H267" s="7"/>
@@ -6182,7 +6503,7 @@
       <c r="N267" s="9"/>
       <c r="O267" s="6"/>
     </row>
-    <row r="268" spans="6:15" ht="14.25" customHeight="1">
+    <row r="268" spans="6:15">
       <c r="F268" s="7"/>
       <c r="G268" s="7"/>
       <c r="H268" s="7"/>
@@ -6194,7 +6515,7 @@
       <c r="N268" s="9"/>
       <c r="O268" s="6"/>
     </row>
-    <row r="269" spans="6:15" ht="14.25" customHeight="1">
+    <row r="269" spans="6:15">
       <c r="F269" s="7"/>
       <c r="G269" s="7"/>
       <c r="H269" s="7"/>
@@ -6206,7 +6527,7 @@
       <c r="N269" s="9"/>
       <c r="O269" s="6"/>
     </row>
-    <row r="270" spans="6:15" ht="14.25" customHeight="1">
+    <row r="270" spans="6:15">
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
       <c r="H270" s="7"/>
@@ -6218,7 +6539,7 @@
       <c r="N270" s="9"/>
       <c r="O270" s="6"/>
     </row>
-    <row r="271" spans="6:15" ht="14.25" customHeight="1">
+    <row r="271" spans="6:15">
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
       <c r="H271" s="7"/>
@@ -6230,7 +6551,7 @@
       <c r="N271" s="9"/>
       <c r="O271" s="6"/>
     </row>
-    <row r="272" spans="6:15" ht="14.25" customHeight="1">
+    <row r="272" spans="6:15">
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
       <c r="H272" s="7"/>
@@ -6242,7 +6563,7 @@
       <c r="N272" s="9"/>
       <c r="O272" s="6"/>
     </row>
-    <row r="273" spans="6:15" ht="14.25" customHeight="1">
+    <row r="273" spans="6:15">
       <c r="F273" s="7"/>
       <c r="G273" s="7"/>
       <c r="H273" s="7"/>
@@ -6254,7 +6575,7 @@
       <c r="N273" s="9"/>
       <c r="O273" s="6"/>
     </row>
-    <row r="274" spans="6:15" ht="14.25" customHeight="1">
+    <row r="274" spans="6:15">
       <c r="F274" s="7"/>
       <c r="G274" s="7"/>
       <c r="H274" s="7"/>
@@ -6266,7 +6587,7 @@
       <c r="N274" s="9"/>
       <c r="O274" s="6"/>
     </row>
-    <row r="275" spans="6:15" ht="14.25" customHeight="1">
+    <row r="275" spans="6:15">
       <c r="F275" s="7"/>
       <c r="G275" s="7"/>
       <c r="H275" s="7"/>
@@ -6278,7 +6599,7 @@
       <c r="N275" s="9"/>
       <c r="O275" s="6"/>
     </row>
-    <row r="276" spans="6:15" ht="14.25" customHeight="1">
+    <row r="276" spans="6:15">
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
       <c r="H276" s="7"/>
@@ -6290,7 +6611,7 @@
       <c r="N276" s="9"/>
       <c r="O276" s="6"/>
     </row>
-    <row r="277" spans="6:15" ht="14.25" customHeight="1">
+    <row r="277" spans="6:15">
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
       <c r="H277" s="7"/>
@@ -6302,7 +6623,7 @@
       <c r="N277" s="9"/>
       <c r="O277" s="6"/>
     </row>
-    <row r="278" spans="6:15" ht="14.25" customHeight="1">
+    <row r="278" spans="6:15">
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
       <c r="H278" s="7"/>
@@ -6314,7 +6635,7 @@
       <c r="N278" s="9"/>
       <c r="O278" s="6"/>
     </row>
-    <row r="279" spans="6:15" ht="14.25" customHeight="1">
+    <row r="279" spans="6:15">
       <c r="F279" s="7"/>
       <c r="G279" s="7"/>
       <c r="H279" s="7"/>
@@ -6326,7 +6647,7 @@
       <c r="N279" s="9"/>
       <c r="O279" s="6"/>
     </row>
-    <row r="280" spans="6:15" ht="14.25" customHeight="1">
+    <row r="280" spans="6:15">
       <c r="F280" s="7"/>
       <c r="G280" s="7"/>
       <c r="H280" s="7"/>
@@ -6338,7 +6659,7 @@
       <c r="N280" s="9"/>
       <c r="O280" s="6"/>
     </row>
-    <row r="281" spans="6:15" ht="14.25" customHeight="1">
+    <row r="281" spans="6:15">
       <c r="F281" s="7"/>
       <c r="G281" s="7"/>
       <c r="H281" s="7"/>
@@ -6350,7 +6671,7 @@
       <c r="N281" s="9"/>
       <c r="O281" s="6"/>
     </row>
-    <row r="282" spans="6:15" ht="14.25" customHeight="1">
+    <row r="282" spans="6:15">
       <c r="F282" s="7"/>
       <c r="G282" s="7"/>
       <c r="H282" s="7"/>
@@ -6362,7 +6683,7 @@
       <c r="N282" s="9"/>
       <c r="O282" s="6"/>
     </row>
-    <row r="283" spans="6:15" ht="14.25" customHeight="1">
+    <row r="283" spans="6:15">
       <c r="F283" s="7"/>
       <c r="G283" s="7"/>
       <c r="H283" s="7"/>
@@ -6374,7 +6695,7 @@
       <c r="N283" s="9"/>
       <c r="O283" s="6"/>
     </row>
-    <row r="284" spans="6:15" ht="14.25" customHeight="1">
+    <row r="284" spans="6:15">
       <c r="F284" s="7"/>
       <c r="G284" s="7"/>
       <c r="H284" s="7"/>
@@ -6386,7 +6707,7 @@
       <c r="N284" s="9"/>
       <c r="O284" s="6"/>
     </row>
-    <row r="285" spans="6:15" ht="14.25" customHeight="1">
+    <row r="285" spans="6:15">
       <c r="F285" s="7"/>
       <c r="G285" s="7"/>
       <c r="H285" s="7"/>
@@ -6398,7 +6719,7 @@
       <c r="N285" s="9"/>
       <c r="O285" s="6"/>
     </row>
-    <row r="286" spans="6:15" ht="14.25" customHeight="1">
+    <row r="286" spans="6:15">
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
       <c r="H286" s="7"/>
@@ -6410,7 +6731,7 @@
       <c r="N286" s="9"/>
       <c r="O286" s="6"/>
     </row>
-    <row r="287" spans="6:15" ht="14.25" customHeight="1">
+    <row r="287" spans="6:15">
       <c r="F287" s="7"/>
       <c r="G287" s="7"/>
       <c r="H287" s="7"/>
@@ -6422,7 +6743,7 @@
       <c r="N287" s="9"/>
       <c r="O287" s="6"/>
     </row>
-    <row r="288" spans="6:15" ht="14.25" customHeight="1">
+    <row r="288" spans="6:15">
       <c r="F288" s="7"/>
       <c r="G288" s="7"/>
       <c r="H288" s="7"/>
@@ -6434,7 +6755,7 @@
       <c r="N288" s="9"/>
       <c r="O288" s="6"/>
     </row>
-    <row r="289" spans="6:15" ht="14.25" customHeight="1">
+    <row r="289" spans="6:15">
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
       <c r="H289" s="7"/>
@@ -6446,7 +6767,7 @@
       <c r="N289" s="9"/>
       <c r="O289" s="6"/>
     </row>
-    <row r="290" spans="6:15" ht="14.25" customHeight="1">
+    <row r="290" spans="6:15">
       <c r="F290" s="7"/>
       <c r="G290" s="7"/>
       <c r="H290" s="7"/>
@@ -6458,7 +6779,7 @@
       <c r="N290" s="9"/>
       <c r="O290" s="6"/>
     </row>
-    <row r="291" spans="6:15" ht="14.25" customHeight="1">
+    <row r="291" spans="6:15">
       <c r="F291" s="7"/>
       <c r="G291" s="7"/>
       <c r="H291" s="7"/>
@@ -6470,7 +6791,7 @@
       <c r="N291" s="9"/>
       <c r="O291" s="6"/>
     </row>
-    <row r="292" spans="6:15" ht="14.25" customHeight="1">
+    <row r="292" spans="6:15">
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
       <c r="H292" s="7"/>
@@ -6482,7 +6803,7 @@
       <c r="N292" s="9"/>
       <c r="O292" s="6"/>
     </row>
-    <row r="293" spans="6:15" ht="14.25" customHeight="1">
+    <row r="293" spans="6:15">
       <c r="F293" s="7"/>
       <c r="G293" s="7"/>
       <c r="H293" s="7"/>
@@ -6494,7 +6815,7 @@
       <c r="N293" s="9"/>
       <c r="O293" s="6"/>
     </row>
-    <row r="294" spans="6:15" ht="14.25" customHeight="1">
+    <row r="294" spans="6:15">
       <c r="F294" s="7"/>
       <c r="G294" s="7"/>
       <c r="H294" s="7"/>
@@ -6506,7 +6827,7 @@
       <c r="N294" s="9"/>
       <c r="O294" s="6"/>
     </row>
-    <row r="295" spans="6:15" ht="14.25" customHeight="1">
+    <row r="295" spans="6:15">
       <c r="F295" s="7"/>
       <c r="G295" s="7"/>
       <c r="H295" s="7"/>
@@ -6518,7 +6839,7 @@
       <c r="N295" s="9"/>
       <c r="O295" s="6"/>
     </row>
-    <row r="296" spans="6:15" ht="14.25" customHeight="1">
+    <row r="296" spans="6:15">
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
       <c r="H296" s="7"/>
@@ -6530,7 +6851,7 @@
       <c r="N296" s="9"/>
       <c r="O296" s="6"/>
     </row>
-    <row r="297" spans="6:15" ht="14.25" customHeight="1">
+    <row r="297" spans="6:15">
       <c r="F297" s="7"/>
       <c r="G297" s="7"/>
       <c r="H297" s="7"/>
@@ -6542,7 +6863,7 @@
       <c r="N297" s="9"/>
       <c r="O297" s="6"/>
     </row>
-    <row r="298" spans="6:15" ht="14.25" customHeight="1">
+    <row r="298" spans="6:15">
       <c r="F298" s="7"/>
       <c r="G298" s="7"/>
       <c r="H298" s="7"/>
@@ -6554,7 +6875,7 @@
       <c r="N298" s="9"/>
       <c r="O298" s="6"/>
     </row>
-    <row r="299" spans="6:15" ht="14.25" customHeight="1">
+    <row r="299" spans="6:15">
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
       <c r="H299" s="7"/>
@@ -6566,7 +6887,7 @@
       <c r="N299" s="9"/>
       <c r="O299" s="6"/>
     </row>
-    <row r="300" spans="6:15" ht="14.25" customHeight="1">
+    <row r="300" spans="6:15">
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
       <c r="H300" s="7"/>
@@ -6578,7 +6899,7 @@
       <c r="N300" s="9"/>
       <c r="O300" s="6"/>
     </row>
-    <row r="301" spans="6:15" ht="14.25" customHeight="1">
+    <row r="301" spans="6:15">
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
       <c r="H301" s="7"/>
@@ -6590,7 +6911,7 @@
       <c r="N301" s="9"/>
       <c r="O301" s="6"/>
     </row>
-    <row r="302" spans="6:15" ht="14.25" customHeight="1">
+    <row r="302" spans="6:15">
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
       <c r="H302" s="7"/>
@@ -6602,7 +6923,7 @@
       <c r="N302" s="9"/>
       <c r="O302" s="6"/>
     </row>
-    <row r="303" spans="6:15" ht="14.25" customHeight="1">
+    <row r="303" spans="6:15">
       <c r="F303" s="7"/>
       <c r="G303" s="7"/>
       <c r="H303" s="7"/>
@@ -6614,7 +6935,7 @@
       <c r="N303" s="9"/>
       <c r="O303" s="6"/>
     </row>
-    <row r="304" spans="6:15" ht="14.25" customHeight="1">
+    <row r="304" spans="6:15">
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
       <c r="H304" s="7"/>
@@ -6626,7 +6947,7 @@
       <c r="N304" s="9"/>
       <c r="O304" s="6"/>
     </row>
-    <row r="305" spans="6:15" ht="14.25" customHeight="1">
+    <row r="305" spans="6:15">
       <c r="F305" s="7"/>
       <c r="G305" s="7"/>
       <c r="H305" s="7"/>
@@ -6638,7 +6959,7 @@
       <c r="N305" s="9"/>
       <c r="O305" s="6"/>
     </row>
-    <row r="306" spans="6:15" ht="14.25" customHeight="1">
+    <row r="306" spans="6:15">
       <c r="F306" s="7"/>
       <c r="G306" s="7"/>
       <c r="H306" s="7"/>
@@ -6650,7 +6971,7 @@
       <c r="N306" s="9"/>
       <c r="O306" s="6"/>
     </row>
-    <row r="307" spans="6:15" ht="14.25" customHeight="1">
+    <row r="307" spans="6:15">
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
       <c r="H307" s="7"/>
@@ -6662,7 +6983,7 @@
       <c r="N307" s="9"/>
       <c r="O307" s="6"/>
     </row>
-    <row r="308" spans="6:15" ht="14.25" customHeight="1">
+    <row r="308" spans="6:15">
       <c r="F308" s="7"/>
       <c r="G308" s="7"/>
       <c r="H308" s="7"/>
@@ -6674,7 +6995,7 @@
       <c r="N308" s="9"/>
       <c r="O308" s="6"/>
     </row>
-    <row r="309" spans="6:15" ht="14.25" customHeight="1">
+    <row r="309" spans="6:15">
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
@@ -6686,7 +7007,7 @@
       <c r="N309" s="9"/>
       <c r="O309" s="6"/>
     </row>
-    <row r="310" spans="6:15" ht="14.25" customHeight="1">
+    <row r="310" spans="6:15">
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
       <c r="H310" s="7"/>
@@ -6698,7 +7019,7 @@
       <c r="N310" s="9"/>
       <c r="O310" s="6"/>
     </row>
-    <row r="311" spans="6:15" ht="14.25" customHeight="1">
+    <row r="311" spans="6:15">
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
       <c r="H311" s="7"/>
@@ -6710,7 +7031,7 @@
       <c r="N311" s="9"/>
       <c r="O311" s="6"/>
     </row>
-    <row r="312" spans="6:15" ht="14.25" customHeight="1">
+    <row r="312" spans="6:15">
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
       <c r="H312" s="7"/>
@@ -6722,7 +7043,7 @@
       <c r="N312" s="9"/>
       <c r="O312" s="6"/>
     </row>
-    <row r="313" spans="6:15" ht="14.25" customHeight="1">
+    <row r="313" spans="6:15">
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
       <c r="H313" s="7"/>
@@ -6734,7 +7055,7 @@
       <c r="N313" s="9"/>
       <c r="O313" s="6"/>
     </row>
-    <row r="314" spans="6:15" ht="14.25" customHeight="1">
+    <row r="314" spans="6:15">
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
@@ -6746,7 +7067,7 @@
       <c r="N314" s="9"/>
       <c r="O314" s="6"/>
     </row>
-    <row r="315" spans="6:15" ht="14.25" customHeight="1">
+    <row r="315" spans="6:15">
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
       <c r="H315" s="7"/>
@@ -6758,7 +7079,7 @@
       <c r="N315" s="9"/>
       <c r="O315" s="6"/>
     </row>
-    <row r="316" spans="6:15" ht="14.25" customHeight="1">
+    <row r="316" spans="6:15">
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
       <c r="H316" s="7"/>
@@ -6770,7 +7091,7 @@
       <c r="N316" s="9"/>
       <c r="O316" s="6"/>
     </row>
-    <row r="317" spans="6:15" ht="14.25" customHeight="1">
+    <row r="317" spans="6:15">
       <c r="F317" s="7"/>
       <c r="G317" s="7"/>
       <c r="H317" s="7"/>
@@ -6782,7 +7103,7 @@
       <c r="N317" s="9"/>
       <c r="O317" s="6"/>
     </row>
-    <row r="318" spans="6:15" ht="14.25" customHeight="1">
+    <row r="318" spans="6:15">
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
       <c r="H318" s="7"/>
@@ -6794,7 +7115,7 @@
       <c r="N318" s="9"/>
       <c r="O318" s="6"/>
     </row>
-    <row r="319" spans="6:15" ht="14.25" customHeight="1">
+    <row r="319" spans="6:15">
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
       <c r="H319" s="7"/>
@@ -6806,7 +7127,7 @@
       <c r="N319" s="9"/>
       <c r="O319" s="6"/>
     </row>
-    <row r="320" spans="6:15" ht="14.25" customHeight="1">
+    <row r="320" spans="6:15">
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
       <c r="H320" s="7"/>
@@ -6818,7 +7139,7 @@
       <c r="N320" s="9"/>
       <c r="O320" s="6"/>
     </row>
-    <row r="321" spans="6:15" ht="14.25" customHeight="1">
+    <row r="321" spans="6:15">
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
       <c r="H321" s="7"/>
@@ -6830,7 +7151,7 @@
       <c r="N321" s="9"/>
       <c r="O321" s="6"/>
     </row>
-    <row r="322" spans="6:15" ht="14.25" customHeight="1">
+    <row r="322" spans="6:15">
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
       <c r="H322" s="7"/>
@@ -6842,7 +7163,7 @@
       <c r="N322" s="9"/>
       <c r="O322" s="6"/>
     </row>
-    <row r="323" spans="6:15" ht="14.25" customHeight="1">
+    <row r="323" spans="6:15">
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
       <c r="H323" s="7"/>
@@ -6854,7 +7175,7 @@
       <c r="N323" s="9"/>
       <c r="O323" s="6"/>
     </row>
-    <row r="324" spans="6:15" ht="14.25" customHeight="1">
+    <row r="324" spans="6:15">
       <c r="F324" s="7"/>
       <c r="G324" s="7"/>
       <c r="H324" s="7"/>
@@ -6866,7 +7187,7 @@
       <c r="N324" s="9"/>
       <c r="O324" s="6"/>
     </row>
-    <row r="325" spans="6:15" ht="14.25" customHeight="1">
+    <row r="325" spans="6:15">
       <c r="F325" s="7"/>
       <c r="G325" s="7"/>
       <c r="H325" s="7"/>
@@ -6878,7 +7199,7 @@
       <c r="N325" s="9"/>
       <c r="O325" s="6"/>
     </row>
-    <row r="326" spans="6:15" ht="14.25" customHeight="1">
+    <row r="326" spans="6:15">
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
       <c r="H326" s="7"/>
@@ -6890,7 +7211,7 @@
       <c r="N326" s="9"/>
       <c r="O326" s="6"/>
     </row>
-    <row r="327" spans="6:15" ht="14.25" customHeight="1">
+    <row r="327" spans="6:15">
       <c r="F327" s="7"/>
       <c r="G327" s="7"/>
       <c r="H327" s="7"/>
@@ -6902,7 +7223,7 @@
       <c r="N327" s="9"/>
       <c r="O327" s="6"/>
     </row>
-    <row r="328" spans="6:15" ht="14.25" customHeight="1">
+    <row r="328" spans="6:15">
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
       <c r="H328" s="7"/>
@@ -6914,7 +7235,7 @@
       <c r="N328" s="9"/>
       <c r="O328" s="6"/>
     </row>
-    <row r="329" spans="6:15" ht="14.25" customHeight="1">
+    <row r="329" spans="6:15">
       <c r="F329" s="7"/>
       <c r="G329" s="7"/>
       <c r="H329" s="7"/>
@@ -6926,7 +7247,7 @@
       <c r="N329" s="9"/>
       <c r="O329" s="6"/>
     </row>
-    <row r="330" spans="6:15" ht="14.25" customHeight="1">
+    <row r="330" spans="6:15">
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
       <c r="H330" s="7"/>
@@ -6938,7 +7259,7 @@
       <c r="N330" s="9"/>
       <c r="O330" s="6"/>
     </row>
-    <row r="331" spans="6:15" ht="14.25" customHeight="1">
+    <row r="331" spans="6:15">
       <c r="F331" s="7"/>
       <c r="G331" s="7"/>
       <c r="H331" s="7"/>
@@ -6950,7 +7271,7 @@
       <c r="N331" s="9"/>
       <c r="O331" s="6"/>
     </row>
-    <row r="332" spans="6:15" ht="14.25" customHeight="1">
+    <row r="332" spans="6:15">
       <c r="F332" s="7"/>
       <c r="G332" s="7"/>
       <c r="H332" s="7"/>
@@ -6962,7 +7283,7 @@
       <c r="N332" s="9"/>
       <c r="O332" s="6"/>
     </row>
-    <row r="333" spans="6:15" ht="14.25" customHeight="1">
+    <row r="333" spans="6:15">
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
       <c r="H333" s="7"/>
@@ -6974,7 +7295,7 @@
       <c r="N333" s="9"/>
       <c r="O333" s="6"/>
     </row>
-    <row r="334" spans="6:15" ht="14.25" customHeight="1">
+    <row r="334" spans="6:15">
       <c r="F334" s="7"/>
       <c r="G334" s="7"/>
       <c r="H334" s="7"/>
@@ -6986,7 +7307,7 @@
       <c r="N334" s="9"/>
       <c r="O334" s="6"/>
     </row>
-    <row r="335" spans="6:15" ht="14.25" customHeight="1">
+    <row r="335" spans="6:15">
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
       <c r="H335" s="7"/>
@@ -6998,7 +7319,7 @@
       <c r="N335" s="9"/>
       <c r="O335" s="6"/>
     </row>
-    <row r="336" spans="6:15" ht="14.25" customHeight="1">
+    <row r="336" spans="6:15">
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
       <c r="H336" s="7"/>
@@ -7010,7 +7331,7 @@
       <c r="N336" s="9"/>
       <c r="O336" s="6"/>
     </row>
-    <row r="337" spans="6:15" ht="14.25" customHeight="1">
+    <row r="337" spans="6:15">
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
       <c r="H337" s="7"/>
@@ -7022,7 +7343,7 @@
       <c r="N337" s="9"/>
       <c r="O337" s="6"/>
     </row>
-    <row r="338" spans="6:15" ht="14.25" customHeight="1">
+    <row r="338" spans="6:15">
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
       <c r="H338" s="7"/>
@@ -7034,7 +7355,7 @@
       <c r="N338" s="9"/>
       <c r="O338" s="6"/>
     </row>
-    <row r="339" spans="6:15" ht="14.25" customHeight="1">
+    <row r="339" spans="6:15">
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
       <c r="H339" s="7"/>
@@ -7046,7 +7367,7 @@
       <c r="N339" s="9"/>
       <c r="O339" s="6"/>
     </row>
-    <row r="340" spans="6:15" ht="14.25" customHeight="1">
+    <row r="340" spans="6:15">
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
       <c r="H340" s="7"/>
@@ -7058,7 +7379,7 @@
       <c r="N340" s="9"/>
       <c r="O340" s="6"/>
     </row>
-    <row r="341" spans="6:15" ht="14.25" customHeight="1">
+    <row r="341" spans="6:15">
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
       <c r="H341" s="7"/>
@@ -7070,7 +7391,7 @@
       <c r="N341" s="9"/>
       <c r="O341" s="6"/>
     </row>
-    <row r="342" spans="6:15" ht="14.25" customHeight="1">
+    <row r="342" spans="6:15">
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
       <c r="H342" s="7"/>
@@ -7082,7 +7403,7 @@
       <c r="N342" s="9"/>
       <c r="O342" s="6"/>
     </row>
-    <row r="343" spans="6:15" ht="14.25" customHeight="1">
+    <row r="343" spans="6:15">
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
       <c r="H343" s="7"/>
@@ -7094,7 +7415,7 @@
       <c r="N343" s="9"/>
       <c r="O343" s="6"/>
     </row>
-    <row r="344" spans="6:15" ht="14.25" customHeight="1">
+    <row r="344" spans="6:15">
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
       <c r="H344" s="7"/>
@@ -7106,7 +7427,7 @@
       <c r="N344" s="9"/>
       <c r="O344" s="6"/>
     </row>
-    <row r="345" spans="6:15" ht="14.25" customHeight="1">
+    <row r="345" spans="6:15">
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
       <c r="H345" s="7"/>
@@ -7118,7 +7439,7 @@
       <c r="N345" s="9"/>
       <c r="O345" s="6"/>
     </row>
-    <row r="346" spans="6:15" ht="14.25" customHeight="1">
+    <row r="346" spans="6:15">
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
       <c r="H346" s="7"/>
@@ -7130,7 +7451,7 @@
       <c r="N346" s="9"/>
       <c r="O346" s="6"/>
     </row>
-    <row r="347" spans="6:15" ht="14.25" customHeight="1">
+    <row r="347" spans="6:15">
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
       <c r="H347" s="7"/>
@@ -7142,7 +7463,7 @@
       <c r="N347" s="9"/>
       <c r="O347" s="6"/>
     </row>
-    <row r="348" spans="6:15" ht="14.25" customHeight="1">
+    <row r="348" spans="6:15">
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
       <c r="H348" s="7"/>
@@ -7154,7 +7475,7 @@
       <c r="N348" s="9"/>
       <c r="O348" s="6"/>
     </row>
-    <row r="349" spans="6:15" ht="14.25" customHeight="1">
+    <row r="349" spans="6:15">
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
       <c r="H349" s="7"/>
@@ -7166,7 +7487,7 @@
       <c r="N349" s="9"/>
       <c r="O349" s="6"/>
     </row>
-    <row r="350" spans="6:15" ht="14.25" customHeight="1">
+    <row r="350" spans="6:15">
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
@@ -7178,7 +7499,7 @@
       <c r="N350" s="9"/>
       <c r="O350" s="6"/>
     </row>
-    <row r="351" spans="6:15" ht="14.25" customHeight="1">
+    <row r="351" spans="6:15">
       <c r="F351" s="7"/>
       <c r="G351" s="7"/>
       <c r="H351" s="7"/>
@@ -7190,7 +7511,7 @@
       <c r="N351" s="9"/>
       <c r="O351" s="6"/>
     </row>
-    <row r="352" spans="6:15" ht="14.25" customHeight="1">
+    <row r="352" spans="6:15">
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
       <c r="H352" s="7"/>
@@ -7202,7 +7523,7 @@
       <c r="N352" s="9"/>
       <c r="O352" s="6"/>
     </row>
-    <row r="353" spans="6:15" ht="14.25" customHeight="1">
+    <row r="353" spans="6:15">
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
       <c r="H353" s="7"/>
@@ -7214,7 +7535,7 @@
       <c r="N353" s="9"/>
       <c r="O353" s="6"/>
     </row>
-    <row r="354" spans="6:15" ht="14.25" customHeight="1">
+    <row r="354" spans="6:15">
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
       <c r="H354" s="7"/>
@@ -7226,7 +7547,7 @@
       <c r="N354" s="9"/>
       <c r="O354" s="6"/>
     </row>
-    <row r="355" spans="6:15" ht="14.25" customHeight="1">
+    <row r="355" spans="6:15">
       <c r="F355" s="7"/>
       <c r="G355" s="7"/>
       <c r="H355" s="7"/>
@@ -7238,7 +7559,7 @@
       <c r="N355" s="9"/>
       <c r="O355" s="6"/>
     </row>
-    <row r="356" spans="6:15" ht="14.25" customHeight="1">
+    <row r="356" spans="6:15">
       <c r="F356" s="7"/>
       <c r="G356" s="7"/>
       <c r="H356" s="7"/>
@@ -7250,7 +7571,7 @@
       <c r="N356" s="9"/>
       <c r="O356" s="6"/>
     </row>
-    <row r="357" spans="6:15" ht="14.25" customHeight="1">
+    <row r="357" spans="6:15">
       <c r="F357" s="7"/>
       <c r="G357" s="7"/>
       <c r="H357" s="7"/>
@@ -7262,7 +7583,7 @@
       <c r="N357" s="9"/>
       <c r="O357" s="6"/>
     </row>
-    <row r="358" spans="6:15" ht="14.25" customHeight="1">
+    <row r="358" spans="6:15">
       <c r="F358" s="7"/>
       <c r="G358" s="7"/>
       <c r="H358" s="7"/>
@@ -7274,7 +7595,7 @@
       <c r="N358" s="9"/>
       <c r="O358" s="6"/>
     </row>
-    <row r="359" spans="6:15" ht="14.25" customHeight="1">
+    <row r="359" spans="6:15">
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
       <c r="H359" s="7"/>
@@ -7286,7 +7607,7 @@
       <c r="N359" s="9"/>
       <c r="O359" s="6"/>
     </row>
-    <row r="360" spans="6:15" ht="14.25" customHeight="1">
+    <row r="360" spans="6:15">
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
       <c r="H360" s="7"/>
@@ -7298,7 +7619,7 @@
       <c r="N360" s="9"/>
       <c r="O360" s="6"/>
     </row>
-    <row r="361" spans="6:15" ht="14.25" customHeight="1">
+    <row r="361" spans="6:15">
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
       <c r="H361" s="7"/>
@@ -7310,7 +7631,7 @@
       <c r="N361" s="9"/>
       <c r="O361" s="6"/>
     </row>
-    <row r="362" spans="6:15" ht="14.25" customHeight="1">
+    <row r="362" spans="6:15">
       <c r="F362" s="7"/>
       <c r="G362" s="7"/>
       <c r="H362" s="7"/>
@@ -7322,7 +7643,7 @@
       <c r="N362" s="9"/>
       <c r="O362" s="6"/>
     </row>
-    <row r="363" spans="6:15" ht="14.25" customHeight="1">
+    <row r="363" spans="6:15">
       <c r="F363" s="7"/>
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
@@ -7334,7 +7655,7 @@
       <c r="N363" s="9"/>
       <c r="O363" s="6"/>
     </row>
-    <row r="364" spans="6:15" ht="14.25" customHeight="1">
+    <row r="364" spans="6:15">
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
       <c r="H364" s="7"/>
@@ -7346,7 +7667,7 @@
       <c r="N364" s="9"/>
       <c r="O364" s="6"/>
     </row>
-    <row r="365" spans="6:15" ht="14.25" customHeight="1">
+    <row r="365" spans="6:15">
       <c r="F365" s="7"/>
       <c r="G365" s="7"/>
       <c r="H365" s="7"/>
@@ -7358,7 +7679,7 @@
       <c r="N365" s="9"/>
       <c r="O365" s="6"/>
     </row>
-    <row r="366" spans="6:15" ht="14.25" customHeight="1">
+    <row r="366" spans="6:15">
       <c r="F366" s="7"/>
       <c r="G366" s="7"/>
       <c r="H366" s="7"/>
@@ -7370,7 +7691,7 @@
       <c r="N366" s="9"/>
       <c r="O366" s="6"/>
     </row>
-    <row r="367" spans="6:15" ht="14.25" customHeight="1">
+    <row r="367" spans="6:15">
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
       <c r="H367" s="7"/>
@@ -7382,7 +7703,7 @@
       <c r="N367" s="9"/>
       <c r="O367" s="6"/>
     </row>
-    <row r="368" spans="6:15" ht="14.25" customHeight="1">
+    <row r="368" spans="6:15">
       <c r="F368" s="7"/>
       <c r="G368" s="7"/>
       <c r="H368" s="7"/>
@@ -7394,7 +7715,7 @@
       <c r="N368" s="9"/>
       <c r="O368" s="6"/>
     </row>
-    <row r="369" spans="6:15" ht="14.25" customHeight="1">
+    <row r="369" spans="6:15">
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
       <c r="H369" s="7"/>
@@ -7406,7 +7727,7 @@
       <c r="N369" s="9"/>
       <c r="O369" s="6"/>
     </row>
-    <row r="370" spans="6:15" ht="14.25" customHeight="1">
+    <row r="370" spans="6:15">
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
       <c r="H370" s="7"/>
@@ -7418,7 +7739,7 @@
       <c r="N370" s="9"/>
       <c r="O370" s="6"/>
     </row>
-    <row r="371" spans="6:15" ht="14.25" customHeight="1">
+    <row r="371" spans="6:15">
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
       <c r="H371" s="7"/>
@@ -7430,7 +7751,7 @@
       <c r="N371" s="9"/>
       <c r="O371" s="6"/>
     </row>
-    <row r="372" spans="6:15" ht="14.25" customHeight="1">
+    <row r="372" spans="6:15">
       <c r="F372" s="7"/>
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
@@ -7442,7 +7763,7 @@
       <c r="N372" s="9"/>
       <c r="O372" s="6"/>
     </row>
-    <row r="373" spans="6:15" ht="14.25" customHeight="1">
+    <row r="373" spans="6:15">
       <c r="F373" s="7"/>
       <c r="G373" s="7"/>
       <c r="H373" s="7"/>
@@ -7454,7 +7775,7 @@
       <c r="N373" s="9"/>
       <c r="O373" s="6"/>
     </row>
-    <row r="374" spans="6:15" ht="14.25" customHeight="1">
+    <row r="374" spans="6:15">
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
       <c r="H374" s="7"/>
@@ -7466,7 +7787,7 @@
       <c r="N374" s="9"/>
       <c r="O374" s="6"/>
     </row>
-    <row r="375" spans="6:15" ht="14.25" customHeight="1">
+    <row r="375" spans="6:15">
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
       <c r="H375" s="7"/>
@@ -7478,7 +7799,7 @@
       <c r="N375" s="9"/>
       <c r="O375" s="6"/>
     </row>
-    <row r="376" spans="6:15" ht="14.25" customHeight="1">
+    <row r="376" spans="6:15">
       <c r="F376" s="7"/>
       <c r="G376" s="7"/>
       <c r="H376" s="7"/>
@@ -7490,7 +7811,7 @@
       <c r="N376" s="9"/>
       <c r="O376" s="6"/>
     </row>
-    <row r="377" spans="6:15" ht="14.25" customHeight="1">
+    <row r="377" spans="6:15">
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
       <c r="H377" s="7"/>
@@ -7502,7 +7823,7 @@
       <c r="N377" s="9"/>
       <c r="O377" s="6"/>
     </row>
-    <row r="378" spans="6:15" ht="14.25" customHeight="1">
+    <row r="378" spans="6:15">
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
       <c r="H378" s="7"/>
@@ -7514,7 +7835,7 @@
       <c r="N378" s="9"/>
       <c r="O378" s="6"/>
     </row>
-    <row r="379" spans="6:15" ht="14.25" customHeight="1">
+    <row r="379" spans="6:15">
       <c r="F379" s="7"/>
       <c r="G379" s="7"/>
       <c r="H379" s="7"/>
@@ -7526,7 +7847,7 @@
       <c r="N379" s="9"/>
       <c r="O379" s="6"/>
     </row>
-    <row r="380" spans="6:15" ht="14.25" customHeight="1">
+    <row r="380" spans="6:15">
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
       <c r="H380" s="7"/>
@@ -7538,7 +7859,7 @@
       <c r="N380" s="9"/>
       <c r="O380" s="6"/>
     </row>
-    <row r="381" spans="6:15" ht="14.25" customHeight="1">
+    <row r="381" spans="6:15">
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
       <c r="H381" s="7"/>
@@ -7550,7 +7871,7 @@
       <c r="N381" s="9"/>
       <c r="O381" s="6"/>
     </row>
-    <row r="382" spans="6:15" ht="14.25" customHeight="1">
+    <row r="382" spans="6:15">
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
       <c r="H382" s="7"/>
@@ -7562,7 +7883,7 @@
       <c r="N382" s="9"/>
       <c r="O382" s="6"/>
     </row>
-    <row r="383" spans="6:15" ht="14.25" customHeight="1">
+    <row r="383" spans="6:15">
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
       <c r="H383" s="7"/>
@@ -7574,7 +7895,7 @@
       <c r="N383" s="9"/>
       <c r="O383" s="6"/>
     </row>
-    <row r="384" spans="6:15" ht="14.25" customHeight="1">
+    <row r="384" spans="6:15">
       <c r="F384" s="7"/>
       <c r="G384" s="7"/>
       <c r="H384" s="7"/>
@@ -7586,7 +7907,7 @@
       <c r="N384" s="9"/>
       <c r="O384" s="6"/>
     </row>
-    <row r="385" spans="6:15" ht="14.25" customHeight="1">
+    <row r="385" spans="6:15">
       <c r="F385" s="7"/>
       <c r="G385" s="7"/>
       <c r="H385" s="7"/>
@@ -7598,7 +7919,7 @@
       <c r="N385" s="9"/>
       <c r="O385" s="6"/>
     </row>
-    <row r="386" spans="6:15" ht="14.25" customHeight="1">
+    <row r="386" spans="6:15">
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
@@ -7610,7 +7931,7 @@
       <c r="N386" s="9"/>
       <c r="O386" s="6"/>
     </row>
-    <row r="387" spans="6:15" ht="14.25" customHeight="1">
+    <row r="387" spans="6:15">
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
@@ -7622,7 +7943,7 @@
       <c r="N387" s="9"/>
       <c r="O387" s="6"/>
     </row>
-    <row r="388" spans="6:15" ht="14.25" customHeight="1">
+    <row r="388" spans="6:15">
       <c r="F388" s="7"/>
       <c r="G388" s="7"/>
       <c r="H388" s="7"/>
@@ -7634,7 +7955,7 @@
       <c r="N388" s="9"/>
       <c r="O388" s="6"/>
     </row>
-    <row r="389" spans="6:15" ht="14.25" customHeight="1">
+    <row r="389" spans="6:15">
       <c r="F389" s="7"/>
       <c r="G389" s="7"/>
       <c r="H389" s="7"/>
@@ -7646,7 +7967,7 @@
       <c r="N389" s="9"/>
       <c r="O389" s="6"/>
     </row>
-    <row r="390" spans="6:15" ht="14.25" customHeight="1">
+    <row r="390" spans="6:15">
       <c r="F390" s="7"/>
       <c r="G390" s="7"/>
       <c r="H390" s="7"/>
@@ -7658,7 +7979,7 @@
       <c r="N390" s="9"/>
       <c r="O390" s="6"/>
     </row>
-    <row r="391" spans="6:15" ht="14.25" customHeight="1">
+    <row r="391" spans="6:15">
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
       <c r="H391" s="7"/>
@@ -7670,7 +7991,7 @@
       <c r="N391" s="9"/>
       <c r="O391" s="6"/>
     </row>
-    <row r="392" spans="6:15" ht="14.25" customHeight="1">
+    <row r="392" spans="6:15">
       <c r="F392" s="7"/>
       <c r="G392" s="7"/>
       <c r="H392" s="7"/>
@@ -7682,7 +8003,7 @@
       <c r="N392" s="9"/>
       <c r="O392" s="6"/>
     </row>
-    <row r="393" spans="6:15" ht="14.25" customHeight="1">
+    <row r="393" spans="6:15">
       <c r="F393" s="7"/>
       <c r="G393" s="7"/>
       <c r="H393" s="7"/>
@@ -7694,7 +8015,7 @@
       <c r="N393" s="9"/>
       <c r="O393" s="6"/>
     </row>
-    <row r="394" spans="6:15" ht="14.25" customHeight="1">
+    <row r="394" spans="6:15">
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
       <c r="H394" s="7"/>
@@ -7706,7 +8027,7 @@
       <c r="N394" s="9"/>
       <c r="O394" s="6"/>
     </row>
-    <row r="395" spans="6:15" ht="14.25" customHeight="1">
+    <row r="395" spans="6:15">
       <c r="F395" s="7"/>
       <c r="G395" s="7"/>
       <c r="H395" s="7"/>
@@ -7718,7 +8039,7 @@
       <c r="N395" s="9"/>
       <c r="O395" s="6"/>
     </row>
-    <row r="396" spans="6:15" ht="14.25" customHeight="1">
+    <row r="396" spans="6:15">
       <c r="F396" s="7"/>
       <c r="G396" s="7"/>
       <c r="H396" s="7"/>
@@ -7730,7 +8051,7 @@
       <c r="N396" s="9"/>
       <c r="O396" s="6"/>
     </row>
-    <row r="397" spans="6:15" ht="14.25" customHeight="1">
+    <row r="397" spans="6:15">
       <c r="F397" s="7"/>
       <c r="G397" s="7"/>
       <c r="H397" s="7"/>
@@ -7742,7 +8063,7 @@
       <c r="N397" s="9"/>
       <c r="O397" s="6"/>
     </row>
-    <row r="398" spans="6:15" ht="14.25" customHeight="1">
+    <row r="398" spans="6:15">
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
       <c r="H398" s="7"/>
@@ -7754,7 +8075,7 @@
       <c r="N398" s="9"/>
       <c r="O398" s="6"/>
     </row>
-    <row r="399" spans="6:15" ht="14.25" customHeight="1">
+    <row r="399" spans="6:15">
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
       <c r="H399" s="7"/>
@@ -7766,7 +8087,7 @@
       <c r="N399" s="9"/>
       <c r="O399" s="6"/>
     </row>
-    <row r="400" spans="6:15" ht="14.25" customHeight="1">
+    <row r="400" spans="6:15">
       <c r="F400" s="7"/>
       <c r="G400" s="7"/>
       <c r="H400" s="7"/>
@@ -7778,7 +8099,7 @@
       <c r="N400" s="9"/>
       <c r="O400" s="6"/>
     </row>
-    <row r="401" spans="6:15" ht="14.25" customHeight="1">
+    <row r="401" spans="6:15">
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
       <c r="H401" s="7"/>
@@ -7790,7 +8111,7 @@
       <c r="N401" s="9"/>
       <c r="O401" s="6"/>
     </row>
-    <row r="402" spans="6:15" ht="14.25" customHeight="1">
+    <row r="402" spans="6:15">
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
       <c r="H402" s="7"/>
@@ -7802,7 +8123,7 @@
       <c r="N402" s="9"/>
       <c r="O402" s="6"/>
     </row>
-    <row r="403" spans="6:15" ht="14.25" customHeight="1">
+    <row r="403" spans="6:15">
       <c r="F403" s="7"/>
       <c r="G403" s="7"/>
       <c r="H403" s="7"/>
@@ -7814,7 +8135,7 @@
       <c r="N403" s="9"/>
       <c r="O403" s="6"/>
     </row>
-    <row r="404" spans="6:15" ht="14.25" customHeight="1">
+    <row r="404" spans="6:15">
       <c r="F404" s="7"/>
       <c r="G404" s="7"/>
       <c r="H404" s="7"/>
@@ -7826,7 +8147,7 @@
       <c r="N404" s="9"/>
       <c r="O404" s="6"/>
     </row>
-    <row r="405" spans="6:15" ht="14.25" customHeight="1">
+    <row r="405" spans="6:15">
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
       <c r="H405" s="7"/>
@@ -7838,7 +8159,7 @@
       <c r="N405" s="9"/>
       <c r="O405" s="6"/>
     </row>
-    <row r="406" spans="6:15" ht="14.25" customHeight="1">
+    <row r="406" spans="6:15">
       <c r="F406" s="7"/>
       <c r="G406" s="7"/>
       <c r="H406" s="7"/>
@@ -7850,7 +8171,7 @@
       <c r="N406" s="9"/>
       <c r="O406" s="6"/>
     </row>
-    <row r="407" spans="6:15" ht="14.25" customHeight="1">
+    <row r="407" spans="6:15">
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
       <c r="H407" s="7"/>
@@ -7862,7 +8183,7 @@
       <c r="N407" s="9"/>
       <c r="O407" s="6"/>
     </row>
-    <row r="408" spans="6:15" ht="14.25" customHeight="1">
+    <row r="408" spans="6:15">
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
       <c r="H408" s="7"/>
@@ -7874,7 +8195,7 @@
       <c r="N408" s="9"/>
       <c r="O408" s="6"/>
     </row>
-    <row r="409" spans="6:15" ht="14.25" customHeight="1">
+    <row r="409" spans="6:15">
       <c r="F409" s="7"/>
       <c r="G409" s="7"/>
       <c r="H409" s="7"/>
@@ -7886,7 +8207,7 @@
       <c r="N409" s="9"/>
       <c r="O409" s="6"/>
     </row>
-    <row r="410" spans="6:15" ht="14.25" customHeight="1">
+    <row r="410" spans="6:15">
       <c r="F410" s="7"/>
       <c r="G410" s="7"/>
       <c r="H410" s="7"/>
@@ -7898,7 +8219,7 @@
       <c r="N410" s="9"/>
       <c r="O410" s="6"/>
     </row>
-    <row r="411" spans="6:15" ht="14.25" customHeight="1">
+    <row r="411" spans="6:15">
       <c r="F411" s="7"/>
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
@@ -7910,7 +8231,7 @@
       <c r="N411" s="9"/>
       <c r="O411" s="6"/>
     </row>
-    <row r="412" spans="6:15" ht="14.25" customHeight="1">
+    <row r="412" spans="6:15">
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
       <c r="H412" s="7"/>
@@ -7922,7 +8243,7 @@
       <c r="N412" s="9"/>
       <c r="O412" s="6"/>
     </row>
-    <row r="413" spans="6:15" ht="14.25" customHeight="1">
+    <row r="413" spans="6:15">
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
       <c r="H413" s="7"/>
@@ -7934,7 +8255,7 @@
       <c r="N413" s="9"/>
       <c r="O413" s="6"/>
     </row>
-    <row r="414" spans="6:15" ht="14.25" customHeight="1">
+    <row r="414" spans="6:15">
       <c r="F414" s="7"/>
       <c r="G414" s="7"/>
       <c r="H414" s="7"/>
@@ -7946,7 +8267,7 @@
       <c r="N414" s="9"/>
       <c r="O414" s="6"/>
     </row>
-    <row r="415" spans="6:15" ht="14.25" customHeight="1">
+    <row r="415" spans="6:15">
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
@@ -7958,7 +8279,7 @@
       <c r="N415" s="9"/>
       <c r="O415" s="6"/>
     </row>
-    <row r="416" spans="6:15" ht="14.25" customHeight="1">
+    <row r="416" spans="6:15">
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
       <c r="H416" s="7"/>
@@ -7970,7 +8291,7 @@
       <c r="N416" s="9"/>
       <c r="O416" s="6"/>
     </row>
-    <row r="417" spans="6:15" ht="14.25" customHeight="1">
+    <row r="417" spans="6:15">
       <c r="F417" s="7"/>
       <c r="G417" s="7"/>
       <c r="H417" s="7"/>
@@ -7982,7 +8303,7 @@
       <c r="N417" s="9"/>
       <c r="O417" s="6"/>
     </row>
-    <row r="418" spans="6:15" ht="14.25" customHeight="1">
+    <row r="418" spans="6:15">
       <c r="F418" s="7"/>
       <c r="G418" s="7"/>
       <c r="H418" s="7"/>
@@ -7994,7 +8315,7 @@
       <c r="N418" s="9"/>
       <c r="O418" s="6"/>
     </row>
-    <row r="419" spans="6:15" ht="14.25" customHeight="1">
+    <row r="419" spans="6:15">
       <c r="F419" s="7"/>
       <c r="G419" s="7"/>
       <c r="H419" s="7"/>
@@ -8006,7 +8327,7 @@
       <c r="N419" s="9"/>
       <c r="O419" s="6"/>
     </row>
-    <row r="420" spans="6:15" ht="14.25" customHeight="1">
+    <row r="420" spans="6:15">
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
       <c r="H420" s="7"/>
@@ -8018,7 +8339,7 @@
       <c r="N420" s="9"/>
       <c r="O420" s="6"/>
     </row>
-    <row r="421" spans="6:15" ht="14.25" customHeight="1">
+    <row r="421" spans="6:15">
       <c r="F421" s="7"/>
       <c r="G421" s="7"/>
       <c r="H421" s="7"/>
@@ -8030,7 +8351,7 @@
       <c r="N421" s="9"/>
       <c r="O421" s="6"/>
     </row>
-    <row r="422" spans="6:15" ht="14.25" customHeight="1">
+    <row r="422" spans="6:15">
       <c r="F422" s="7"/>
       <c r="G422" s="7"/>
       <c r="H422" s="7"/>
@@ -8042,7 +8363,7 @@
       <c r="N422" s="9"/>
       <c r="O422" s="6"/>
     </row>
-    <row r="423" spans="6:15" ht="14.25" customHeight="1">
+    <row r="423" spans="6:15">
       <c r="F423" s="7"/>
       <c r="G423" s="7"/>
       <c r="H423" s="7"/>
@@ -8054,7 +8375,7 @@
       <c r="N423" s="9"/>
       <c r="O423" s="6"/>
     </row>
-    <row r="424" spans="6:15" ht="14.25" customHeight="1">
+    <row r="424" spans="6:15">
       <c r="F424" s="7"/>
       <c r="G424" s="7"/>
       <c r="H424" s="7"/>
@@ -8066,7 +8387,7 @@
       <c r="N424" s="9"/>
       <c r="O424" s="6"/>
     </row>
-    <row r="425" spans="6:15" ht="14.25" customHeight="1">
+    <row r="425" spans="6:15">
       <c r="F425" s="7"/>
       <c r="G425" s="7"/>
       <c r="H425" s="7"/>
@@ -8078,7 +8399,7 @@
       <c r="N425" s="9"/>
       <c r="O425" s="6"/>
     </row>
-    <row r="426" spans="6:15" ht="14.25" customHeight="1">
+    <row r="426" spans="6:15">
       <c r="F426" s="7"/>
       <c r="G426" s="7"/>
       <c r="H426" s="7"/>
@@ -8090,7 +8411,7 @@
       <c r="N426" s="9"/>
       <c r="O426" s="6"/>
     </row>
-    <row r="427" spans="6:15" ht="14.25" customHeight="1">
+    <row r="427" spans="6:15">
       <c r="F427" s="7"/>
       <c r="G427" s="7"/>
       <c r="H427" s="7"/>
@@ -8102,7 +8423,7 @@
       <c r="N427" s="9"/>
       <c r="O427" s="6"/>
     </row>
-    <row r="428" spans="6:15" ht="14.25" customHeight="1">
+    <row r="428" spans="6:15">
       <c r="F428" s="7"/>
       <c r="G428" s="7"/>
       <c r="H428" s="7"/>
@@ -8114,7 +8435,7 @@
       <c r="N428" s="9"/>
       <c r="O428" s="6"/>
     </row>
-    <row r="429" spans="6:15" ht="14.25" customHeight="1">
+    <row r="429" spans="6:15">
       <c r="F429" s="7"/>
       <c r="G429" s="7"/>
       <c r="H429" s="7"/>
@@ -8126,7 +8447,7 @@
       <c r="N429" s="9"/>
       <c r="O429" s="6"/>
     </row>
-    <row r="430" spans="6:15" ht="14.25" customHeight="1">
+    <row r="430" spans="6:15">
       <c r="F430" s="7"/>
       <c r="G430" s="7"/>
       <c r="H430" s="7"/>
@@ -8138,7 +8459,7 @@
       <c r="N430" s="9"/>
       <c r="O430" s="6"/>
     </row>
-    <row r="431" spans="6:15" ht="14.25" customHeight="1">
+    <row r="431" spans="6:15">
       <c r="F431" s="7"/>
       <c r="G431" s="7"/>
       <c r="H431" s="7"/>
@@ -8150,7 +8471,7 @@
       <c r="N431" s="9"/>
       <c r="O431" s="6"/>
     </row>
-    <row r="432" spans="6:15" ht="14.25" customHeight="1">
+    <row r="432" spans="6:15">
       <c r="F432" s="7"/>
       <c r="G432" s="7"/>
       <c r="H432" s="7"/>
@@ -8162,7 +8483,7 @@
       <c r="N432" s="9"/>
       <c r="O432" s="6"/>
     </row>
-    <row r="433" spans="6:15" ht="14.25" customHeight="1">
+    <row r="433" spans="6:15">
       <c r="F433" s="7"/>
       <c r="G433" s="7"/>
       <c r="H433" s="7"/>
@@ -8174,7 +8495,7 @@
       <c r="N433" s="9"/>
       <c r="O433" s="6"/>
     </row>
-    <row r="434" spans="6:15" ht="14.25" customHeight="1">
+    <row r="434" spans="6:15">
       <c r="F434" s="7"/>
       <c r="G434" s="7"/>
       <c r="H434" s="7"/>
@@ -8186,7 +8507,7 @@
       <c r="N434" s="9"/>
       <c r="O434" s="6"/>
     </row>
-    <row r="435" spans="6:15" ht="14.25" customHeight="1">
+    <row r="435" spans="6:15">
       <c r="F435" s="7"/>
       <c r="G435" s="7"/>
       <c r="H435" s="7"/>
@@ -8198,7 +8519,7 @@
       <c r="N435" s="9"/>
       <c r="O435" s="6"/>
     </row>
-    <row r="436" spans="6:15" ht="14.25" customHeight="1">
+    <row r="436" spans="6:15">
       <c r="F436" s="7"/>
       <c r="G436" s="7"/>
       <c r="H436" s="7"/>
@@ -8210,7 +8531,7 @@
       <c r="N436" s="9"/>
       <c r="O436" s="6"/>
     </row>
-    <row r="437" spans="6:15" ht="14.25" customHeight="1">
+    <row r="437" spans="6:15">
       <c r="F437" s="7"/>
       <c r="G437" s="7"/>
       <c r="H437" s="7"/>
@@ -8222,7 +8543,7 @@
       <c r="N437" s="9"/>
       <c r="O437" s="6"/>
     </row>
-    <row r="438" spans="6:15" ht="14.25" customHeight="1">
+    <row r="438" spans="6:15">
       <c r="F438" s="7"/>
       <c r="G438" s="7"/>
       <c r="H438" s="7"/>
@@ -8234,7 +8555,7 @@
       <c r="N438" s="9"/>
       <c r="O438" s="6"/>
     </row>
-    <row r="439" spans="6:15" ht="14.25" customHeight="1">
+    <row r="439" spans="6:15">
       <c r="F439" s="7"/>
       <c r="G439" s="7"/>
       <c r="H439" s="7"/>
@@ -8246,7 +8567,7 @@
       <c r="N439" s="9"/>
       <c r="O439" s="6"/>
     </row>
-    <row r="440" spans="6:15" ht="14.25" customHeight="1">
+    <row r="440" spans="6:15">
       <c r="F440" s="7"/>
       <c r="G440" s="7"/>
       <c r="H440" s="7"/>
@@ -8258,7 +8579,7 @@
       <c r="N440" s="9"/>
       <c r="O440" s="6"/>
     </row>
-    <row r="441" spans="6:15" ht="14.25" customHeight="1">
+    <row r="441" spans="6:15">
       <c r="F441" s="7"/>
       <c r="G441" s="7"/>
       <c r="H441" s="7"/>
@@ -8270,7 +8591,7 @@
       <c r="N441" s="9"/>
       <c r="O441" s="6"/>
     </row>
-    <row r="442" spans="6:15" ht="14.25" customHeight="1">
+    <row r="442" spans="6:15">
       <c r="F442" s="7"/>
       <c r="G442" s="7"/>
       <c r="H442" s="7"/>
@@ -8282,7 +8603,7 @@
       <c r="N442" s="9"/>
       <c r="O442" s="6"/>
     </row>
-    <row r="443" spans="6:15" ht="14.25" customHeight="1">
+    <row r="443" spans="6:15">
       <c r="F443" s="7"/>
       <c r="G443" s="7"/>
       <c r="H443" s="7"/>
@@ -8294,7 +8615,7 @@
       <c r="N443" s="9"/>
       <c r="O443" s="6"/>
     </row>
-    <row r="444" spans="6:15" ht="14.25" customHeight="1">
+    <row r="444" spans="6:15">
       <c r="F444" s="7"/>
       <c r="G444" s="7"/>
       <c r="H444" s="7"/>
@@ -8306,7 +8627,7 @@
       <c r="N444" s="9"/>
       <c r="O444" s="6"/>
     </row>
-    <row r="445" spans="6:15" ht="14.25" customHeight="1">
+    <row r="445" spans="6:15">
       <c r="F445" s="7"/>
       <c r="G445" s="7"/>
       <c r="H445" s="7"/>
@@ -8318,7 +8639,7 @@
       <c r="N445" s="9"/>
       <c r="O445" s="6"/>
     </row>
-    <row r="446" spans="6:15" ht="14.25" customHeight="1">
+    <row r="446" spans="6:15">
       <c r="F446" s="7"/>
       <c r="G446" s="7"/>
       <c r="H446" s="7"/>
@@ -8330,7 +8651,7 @@
       <c r="N446" s="9"/>
       <c r="O446" s="6"/>
     </row>
-    <row r="447" spans="6:15" ht="14.25" customHeight="1">
+    <row r="447" spans="6:15">
       <c r="F447" s="7"/>
       <c r="G447" s="7"/>
       <c r="H447" s="7"/>
@@ -8342,7 +8663,7 @@
       <c r="N447" s="9"/>
       <c r="O447" s="6"/>
     </row>
-    <row r="448" spans="6:15" ht="14.25" customHeight="1">
+    <row r="448" spans="6:15">
       <c r="F448" s="7"/>
       <c r="G448" s="7"/>
       <c r="H448" s="7"/>
@@ -8354,7 +8675,7 @@
       <c r="N448" s="9"/>
       <c r="O448" s="6"/>
     </row>
-    <row r="449" spans="6:15" ht="14.25" customHeight="1">
+    <row r="449" spans="6:15">
       <c r="F449" s="7"/>
       <c r="G449" s="7"/>
       <c r="H449" s="7"/>
@@ -8366,7 +8687,7 @@
       <c r="N449" s="9"/>
       <c r="O449" s="6"/>
     </row>
-    <row r="450" spans="6:15" ht="14.25" customHeight="1">
+    <row r="450" spans="6:15">
       <c r="F450" s="7"/>
       <c r="G450" s="7"/>
       <c r="H450" s="7"/>
@@ -8378,7 +8699,7 @@
       <c r="N450" s="9"/>
       <c r="O450" s="6"/>
     </row>
-    <row r="451" spans="6:15" ht="14.25" customHeight="1">
+    <row r="451" spans="6:15">
       <c r="F451" s="7"/>
       <c r="G451" s="7"/>
       <c r="H451" s="7"/>
@@ -8390,7 +8711,7 @@
       <c r="N451" s="9"/>
       <c r="O451" s="6"/>
     </row>
-    <row r="452" spans="6:15" ht="14.25" customHeight="1">
+    <row r="452" spans="6:15">
       <c r="F452" s="7"/>
       <c r="G452" s="7"/>
       <c r="H452" s="7"/>
@@ -8402,7 +8723,7 @@
       <c r="N452" s="9"/>
       <c r="O452" s="6"/>
     </row>
-    <row r="453" spans="6:15" ht="14.25" customHeight="1">
+    <row r="453" spans="6:15">
       <c r="F453" s="7"/>
       <c r="G453" s="7"/>
       <c r="H453" s="7"/>
@@ -8414,7 +8735,7 @@
       <c r="N453" s="9"/>
       <c r="O453" s="6"/>
     </row>
-    <row r="454" spans="6:15" ht="14.25" customHeight="1">
+    <row r="454" spans="6:15">
       <c r="F454" s="7"/>
       <c r="G454" s="7"/>
       <c r="H454" s="7"/>
@@ -8426,7 +8747,7 @@
       <c r="N454" s="9"/>
       <c r="O454" s="6"/>
     </row>
-    <row r="455" spans="6:15" ht="14.25" customHeight="1">
+    <row r="455" spans="6:15">
       <c r="F455" s="7"/>
       <c r="G455" s="7"/>
       <c r="H455" s="7"/>
@@ -8438,7 +8759,7 @@
       <c r="N455" s="9"/>
       <c r="O455" s="6"/>
     </row>
-    <row r="456" spans="6:15" ht="14.25" customHeight="1">
+    <row r="456" spans="6:15">
       <c r="F456" s="7"/>
       <c r="G456" s="7"/>
       <c r="H456" s="7"/>
@@ -8450,7 +8771,7 @@
       <c r="N456" s="9"/>
       <c r="O456" s="6"/>
     </row>
-    <row r="457" spans="6:15" ht="14.25" customHeight="1">
+    <row r="457" spans="6:15">
       <c r="F457" s="7"/>
       <c r="G457" s="7"/>
       <c r="H457" s="7"/>
@@ -8462,7 +8783,7 @@
       <c r="N457" s="9"/>
       <c r="O457" s="6"/>
     </row>
-    <row r="458" spans="6:15" ht="14.25" customHeight="1">
+    <row r="458" spans="6:15">
       <c r="F458" s="7"/>
       <c r="G458" s="7"/>
       <c r="H458" s="7"/>
@@ -8474,7 +8795,7 @@
       <c r="N458" s="9"/>
       <c r="O458" s="6"/>
     </row>
-    <row r="459" spans="6:15" ht="14.25" customHeight="1">
+    <row r="459" spans="6:15">
       <c r="F459" s="7"/>
       <c r="G459" s="7"/>
       <c r="H459" s="7"/>
@@ -8486,7 +8807,7 @@
       <c r="N459" s="9"/>
       <c r="O459" s="6"/>
     </row>
-    <row r="460" spans="6:15" ht="14.25" customHeight="1">
+    <row r="460" spans="6:15">
       <c r="F460" s="7"/>
       <c r="G460" s="7"/>
       <c r="H460" s="7"/>
@@ -8498,7 +8819,7 @@
       <c r="N460" s="9"/>
       <c r="O460" s="6"/>
     </row>
-    <row r="461" spans="6:15" ht="14.25" customHeight="1">
+    <row r="461" spans="6:15">
       <c r="F461" s="7"/>
       <c r="G461" s="7"/>
       <c r="H461" s="7"/>
@@ -8510,7 +8831,7 @@
       <c r="N461" s="9"/>
       <c r="O461" s="6"/>
     </row>
-    <row r="462" spans="6:15" ht="14.25" customHeight="1">
+    <row r="462" spans="6:15">
       <c r="F462" s="7"/>
       <c r="G462" s="7"/>
       <c r="H462" s="7"/>
@@ -8522,7 +8843,7 @@
       <c r="N462" s="9"/>
       <c r="O462" s="6"/>
     </row>
-    <row r="463" spans="6:15" ht="14.25" customHeight="1">
+    <row r="463" spans="6:15">
       <c r="F463" s="7"/>
       <c r="G463" s="7"/>
       <c r="H463" s="7"/>
@@ -8534,7 +8855,7 @@
       <c r="N463" s="9"/>
       <c r="O463" s="6"/>
     </row>
-    <row r="464" spans="6:15" ht="14.25" customHeight="1">
+    <row r="464" spans="6:15">
       <c r="F464" s="7"/>
       <c r="G464" s="7"/>
       <c r="H464" s="7"/>
@@ -8546,7 +8867,7 @@
       <c r="N464" s="9"/>
       <c r="O464" s="6"/>
     </row>
-    <row r="465" spans="6:15" ht="14.25" customHeight="1">
+    <row r="465" spans="6:15">
       <c r="F465" s="7"/>
       <c r="G465" s="7"/>
       <c r="H465" s="7"/>
@@ -8558,7 +8879,7 @@
       <c r="N465" s="9"/>
       <c r="O465" s="6"/>
     </row>
-    <row r="466" spans="6:15" ht="14.25" customHeight="1">
+    <row r="466" spans="6:15">
       <c r="F466" s="7"/>
       <c r="G466" s="7"/>
       <c r="H466" s="7"/>
@@ -8570,7 +8891,7 @@
       <c r="N466" s="9"/>
       <c r="O466" s="6"/>
     </row>
-    <row r="467" spans="6:15" ht="14.25" customHeight="1">
+    <row r="467" spans="6:15">
       <c r="F467" s="7"/>
       <c r="G467" s="7"/>
       <c r="H467" s="7"/>
@@ -8582,7 +8903,7 @@
       <c r="N467" s="9"/>
       <c r="O467" s="6"/>
     </row>
-    <row r="468" spans="6:15" ht="14.25" customHeight="1">
+    <row r="468" spans="6:15">
       <c r="F468" s="7"/>
       <c r="G468" s="7"/>
       <c r="H468" s="7"/>
@@ -8594,7 +8915,7 @@
       <c r="N468" s="9"/>
       <c r="O468" s="6"/>
     </row>
-    <row r="469" spans="6:15" ht="14.25" customHeight="1">
+    <row r="469" spans="6:15">
       <c r="F469" s="7"/>
       <c r="G469" s="7"/>
       <c r="H469" s="7"/>
@@ -8606,7 +8927,7 @@
       <c r="N469" s="9"/>
       <c r="O469" s="6"/>
     </row>
-    <row r="470" spans="6:15" ht="14.25" customHeight="1">
+    <row r="470" spans="6:15">
       <c r="F470" s="7"/>
       <c r="G470" s="7"/>
       <c r="H470" s="7"/>
@@ -8618,7 +8939,7 @@
       <c r="N470" s="9"/>
       <c r="O470" s="6"/>
     </row>
-    <row r="471" spans="6:15" ht="14.25" customHeight="1">
+    <row r="471" spans="6:15">
       <c r="F471" s="7"/>
       <c r="G471" s="7"/>
       <c r="H471" s="7"/>
@@ -8630,7 +8951,7 @@
       <c r="N471" s="9"/>
       <c r="O471" s="6"/>
     </row>
-    <row r="472" spans="6:15" ht="14.25" customHeight="1">
+    <row r="472" spans="6:15">
       <c r="F472" s="7"/>
       <c r="G472" s="7"/>
       <c r="H472" s="7"/>
@@ -8642,7 +8963,7 @@
       <c r="N472" s="9"/>
       <c r="O472" s="6"/>
     </row>
-    <row r="473" spans="6:15" ht="14.25" customHeight="1">
+    <row r="473" spans="6:15">
       <c r="F473" s="7"/>
       <c r="G473" s="7"/>
       <c r="H473" s="7"/>
@@ -8654,7 +8975,7 @@
       <c r="N473" s="9"/>
       <c r="O473" s="6"/>
     </row>
-    <row r="474" spans="6:15" ht="14.25" customHeight="1">
+    <row r="474" spans="6:15">
       <c r="F474" s="7"/>
       <c r="G474" s="7"/>
       <c r="H474" s="7"/>
@@ -8666,7 +8987,7 @@
       <c r="N474" s="9"/>
       <c r="O474" s="6"/>
     </row>
-    <row r="475" spans="6:15" ht="14.25" customHeight="1">
+    <row r="475" spans="6:15">
       <c r="F475" s="7"/>
       <c r="G475" s="7"/>
       <c r="H475" s="7"/>
@@ -8678,7 +8999,7 @@
       <c r="N475" s="9"/>
       <c r="O475" s="6"/>
     </row>
-    <row r="476" spans="6:15" ht="14.25" customHeight="1">
+    <row r="476" spans="6:15">
       <c r="F476" s="7"/>
       <c r="G476" s="7"/>
       <c r="H476" s="7"/>
@@ -8690,7 +9011,7 @@
       <c r="N476" s="9"/>
       <c r="O476" s="6"/>
     </row>
-    <row r="477" spans="6:15" ht="14.25" customHeight="1">
+    <row r="477" spans="6:15">
       <c r="F477" s="7"/>
       <c r="G477" s="7"/>
       <c r="H477" s="7"/>
@@ -8702,7 +9023,7 @@
       <c r="N477" s="9"/>
       <c r="O477" s="6"/>
     </row>
-    <row r="478" spans="6:15" ht="14.25" customHeight="1">
+    <row r="478" spans="6:15">
       <c r="F478" s="7"/>
       <c r="G478" s="7"/>
       <c r="H478" s="7"/>
@@ -8714,7 +9035,7 @@
       <c r="N478" s="9"/>
       <c r="O478" s="6"/>
     </row>
-    <row r="479" spans="6:15" ht="14.25" customHeight="1">
+    <row r="479" spans="6:15">
       <c r="F479" s="7"/>
       <c r="G479" s="7"/>
       <c r="H479" s="7"/>
@@ -8726,7 +9047,7 @@
       <c r="N479" s="9"/>
       <c r="O479" s="6"/>
     </row>
-    <row r="480" spans="6:15" ht="14.25" customHeight="1">
+    <row r="480" spans="6:15">
       <c r="F480" s="7"/>
       <c r="G480" s="7"/>
       <c r="H480" s="7"/>
@@ -8738,7 +9059,7 @@
       <c r="N480" s="9"/>
       <c r="O480" s="6"/>
     </row>
-    <row r="481" spans="6:15" ht="14.25" customHeight="1">
+    <row r="481" spans="6:15">
       <c r="F481" s="7"/>
       <c r="G481" s="7"/>
       <c r="H481" s="7"/>
@@ -8750,7 +9071,7 @@
       <c r="N481" s="9"/>
       <c r="O481" s="6"/>
     </row>
-    <row r="482" spans="6:15" ht="14.25" customHeight="1">
+    <row r="482" spans="6:15">
       <c r="F482" s="7"/>
       <c r="G482" s="7"/>
       <c r="H482" s="7"/>
@@ -8762,7 +9083,7 @@
       <c r="N482" s="9"/>
       <c r="O482" s="6"/>
     </row>
-    <row r="483" spans="6:15" ht="14.25" customHeight="1">
+    <row r="483" spans="6:15">
       <c r="F483" s="7"/>
       <c r="G483" s="7"/>
       <c r="H483" s="7"/>
@@ -8774,7 +9095,7 @@
       <c r="N483" s="9"/>
       <c r="O483" s="6"/>
     </row>
-    <row r="484" spans="6:15" ht="14.25" customHeight="1">
+    <row r="484" spans="6:15">
       <c r="F484" s="7"/>
       <c r="G484" s="7"/>
       <c r="H484" s="7"/>
@@ -8786,7 +9107,7 @@
       <c r="N484" s="9"/>
       <c r="O484" s="6"/>
     </row>
-    <row r="485" spans="6:15" ht="14.25" customHeight="1">
+    <row r="485" spans="6:15">
       <c r="F485" s="7"/>
       <c r="G485" s="7"/>
       <c r="H485" s="7"/>
@@ -8798,7 +9119,7 @@
       <c r="N485" s="9"/>
       <c r="O485" s="6"/>
     </row>
-    <row r="486" spans="6:15" ht="14.25" customHeight="1">
+    <row r="486" spans="6:15">
       <c r="F486" s="7"/>
       <c r="G486" s="7"/>
       <c r="H486" s="7"/>
@@ -8810,7 +9131,7 @@
       <c r="N486" s="9"/>
       <c r="O486" s="6"/>
     </row>
-    <row r="487" spans="6:15" ht="14.25" customHeight="1">
+    <row r="487" spans="6:15">
       <c r="F487" s="7"/>
       <c r="G487" s="7"/>
       <c r="H487" s="7"/>
@@ -8822,7 +9143,7 @@
       <c r="N487" s="9"/>
       <c r="O487" s="6"/>
     </row>
-    <row r="488" spans="6:15" ht="14.25" customHeight="1">
+    <row r="488" spans="6:15">
       <c r="F488" s="7"/>
       <c r="G488" s="7"/>
       <c r="H488" s="7"/>
@@ -8834,7 +9155,7 @@
       <c r="N488" s="9"/>
       <c r="O488" s="6"/>
     </row>
-    <row r="489" spans="6:15" ht="14.25" customHeight="1">
+    <row r="489" spans="6:15">
       <c r="F489" s="7"/>
       <c r="G489" s="7"/>
       <c r="H489" s="7"/>
@@ -8846,7 +9167,7 @@
       <c r="N489" s="9"/>
       <c r="O489" s="6"/>
     </row>
-    <row r="490" spans="6:15" ht="14.25" customHeight="1">
+    <row r="490" spans="6:15">
       <c r="F490" s="7"/>
       <c r="G490" s="7"/>
       <c r="H490" s="7"/>
@@ -8858,7 +9179,7 @@
       <c r="N490" s="9"/>
       <c r="O490" s="6"/>
     </row>
-    <row r="491" spans="6:15" ht="14.25" customHeight="1">
+    <row r="491" spans="6:15">
       <c r="F491" s="7"/>
       <c r="G491" s="7"/>
       <c r="H491" s="7"/>
@@ -8870,7 +9191,7 @@
       <c r="N491" s="9"/>
       <c r="O491" s="6"/>
     </row>
-    <row r="492" spans="6:15" ht="14.25" customHeight="1">
+    <row r="492" spans="6:15">
       <c r="F492" s="7"/>
       <c r="G492" s="7"/>
       <c r="H492" s="7"/>
@@ -8882,7 +9203,7 @@
       <c r="N492" s="9"/>
       <c r="O492" s="6"/>
     </row>
-    <row r="493" spans="6:15" ht="14.25" customHeight="1">
+    <row r="493" spans="6:15">
       <c r="F493" s="7"/>
       <c r="G493" s="7"/>
       <c r="H493" s="7"/>
@@ -8894,7 +9215,7 @@
       <c r="N493" s="9"/>
       <c r="O493" s="6"/>
     </row>
-    <row r="494" spans="6:15" ht="14.25" customHeight="1">
+    <row r="494" spans="6:15">
       <c r="F494" s="7"/>
       <c r="G494" s="7"/>
       <c r="H494" s="7"/>
@@ -8906,7 +9227,7 @@
       <c r="N494" s="9"/>
       <c r="O494" s="6"/>
     </row>
-    <row r="495" spans="6:15" ht="14.25" customHeight="1">
+    <row r="495" spans="6:15">
       <c r="F495" s="7"/>
       <c r="G495" s="7"/>
       <c r="H495" s="7"/>
@@ -8918,7 +9239,7 @@
       <c r="N495" s="9"/>
       <c r="O495" s="6"/>
     </row>
-    <row r="496" spans="6:15" ht="14.25" customHeight="1">
+    <row r="496" spans="6:15">
       <c r="F496" s="7"/>
       <c r="G496" s="7"/>
       <c r="H496" s="7"/>
@@ -8930,7 +9251,7 @@
       <c r="N496" s="9"/>
       <c r="O496" s="6"/>
     </row>
-    <row r="497" spans="6:15" ht="14.25" customHeight="1">
+    <row r="497" spans="6:15">
       <c r="F497" s="7"/>
       <c r="G497" s="7"/>
       <c r="H497" s="7"/>
@@ -8942,7 +9263,7 @@
       <c r="N497" s="9"/>
       <c r="O497" s="6"/>
     </row>
-    <row r="498" spans="6:15" ht="14.25" customHeight="1">
+    <row r="498" spans="6:15">
       <c r="F498" s="7"/>
       <c r="G498" s="7"/>
       <c r="H498" s="7"/>
@@ -8954,7 +9275,7 @@
       <c r="N498" s="9"/>
       <c r="O498" s="6"/>
     </row>
-    <row r="499" spans="6:15" ht="14.25" customHeight="1">
+    <row r="499" spans="6:15">
       <c r="F499" s="7"/>
       <c r="G499" s="7"/>
       <c r="H499" s="7"/>
@@ -8966,7 +9287,7 @@
       <c r="N499" s="9"/>
       <c r="O499" s="6"/>
     </row>
-    <row r="500" spans="6:15" ht="14.25" customHeight="1">
+    <row r="500" spans="6:15">
       <c r="F500" s="7"/>
       <c r="G500" s="7"/>
       <c r="H500" s="7"/>
@@ -8978,7 +9299,7 @@
       <c r="N500" s="9"/>
       <c r="O500" s="6"/>
     </row>
-    <row r="501" spans="6:15" ht="14.25" customHeight="1">
+    <row r="501" spans="6:15">
       <c r="F501" s="7"/>
       <c r="G501" s="7"/>
       <c r="H501" s="7"/>
@@ -8990,7 +9311,7 @@
       <c r="N501" s="9"/>
       <c r="O501" s="6"/>
     </row>
-    <row r="502" spans="6:15" ht="14.25" customHeight="1">
+    <row r="502" spans="6:15">
       <c r="F502" s="7"/>
       <c r="G502" s="7"/>
       <c r="H502" s="7"/>
@@ -9002,7 +9323,7 @@
       <c r="N502" s="9"/>
       <c r="O502" s="6"/>
     </row>
-    <row r="503" spans="6:15" ht="14.25" customHeight="1">
+    <row r="503" spans="6:15">
       <c r="F503" s="7"/>
       <c r="G503" s="7"/>
       <c r="H503" s="7"/>
@@ -9014,7 +9335,7 @@
       <c r="N503" s="9"/>
       <c r="O503" s="6"/>
     </row>
-    <row r="504" spans="6:15" ht="14.25" customHeight="1">
+    <row r="504" spans="6:15">
       <c r="F504" s="7"/>
       <c r="G504" s="7"/>
       <c r="H504" s="7"/>
@@ -9026,7 +9347,7 @@
       <c r="N504" s="9"/>
       <c r="O504" s="6"/>
     </row>
-    <row r="505" spans="6:15" ht="14.25" customHeight="1">
+    <row r="505" spans="6:15">
       <c r="F505" s="7"/>
       <c r="G505" s="7"/>
       <c r="H505" s="7"/>
@@ -9038,7 +9359,7 @@
       <c r="N505" s="9"/>
       <c r="O505" s="6"/>
     </row>
-    <row r="506" spans="6:15" ht="14.25" customHeight="1">
+    <row r="506" spans="6:15">
       <c r="F506" s="7"/>
       <c r="G506" s="7"/>
       <c r="H506" s="7"/>
@@ -9050,7 +9371,7 @@
       <c r="N506" s="9"/>
       <c r="O506" s="6"/>
     </row>
-    <row r="507" spans="6:15" ht="14.25" customHeight="1">
+    <row r="507" spans="6:15">
       <c r="F507" s="7"/>
       <c r="G507" s="7"/>
       <c r="H507" s="7"/>
@@ -9062,7 +9383,7 @@
       <c r="N507" s="9"/>
       <c r="O507" s="6"/>
     </row>
-    <row r="508" spans="6:15" ht="14.25" customHeight="1">
+    <row r="508" spans="6:15">
       <c r="F508" s="7"/>
       <c r="G508" s="7"/>
       <c r="H508" s="7"/>
@@ -9074,7 +9395,7 @@
       <c r="N508" s="9"/>
       <c r="O508" s="6"/>
     </row>
-    <row r="509" spans="6:15" ht="14.25" customHeight="1">
+    <row r="509" spans="6:15">
       <c r="F509" s="7"/>
       <c r="G509" s="7"/>
       <c r="H509" s="7"/>
@@ -9086,7 +9407,7 @@
       <c r="N509" s="9"/>
       <c r="O509" s="6"/>
     </row>
-    <row r="510" spans="6:15" ht="14.25" customHeight="1">
+    <row r="510" spans="6:15">
       <c r="F510" s="7"/>
       <c r="G510" s="7"/>
       <c r="H510" s="7"/>
@@ -9098,7 +9419,7 @@
       <c r="N510" s="9"/>
       <c r="O510" s="6"/>
     </row>
-    <row r="511" spans="6:15" ht="14.25" customHeight="1">
+    <row r="511" spans="6:15">
       <c r="F511" s="7"/>
       <c r="G511" s="7"/>
       <c r="H511" s="7"/>
@@ -9110,7 +9431,7 @@
       <c r="N511" s="9"/>
       <c r="O511" s="6"/>
     </row>
-    <row r="512" spans="6:15" ht="14.25" customHeight="1">
+    <row r="512" spans="6:15">
       <c r="F512" s="7"/>
       <c r="G512" s="7"/>
       <c r="H512" s="7"/>
@@ -9122,7 +9443,7 @@
       <c r="N512" s="9"/>
       <c r="O512" s="6"/>
     </row>
-    <row r="513" spans="6:15" ht="14.25" customHeight="1">
+    <row r="513" spans="6:15">
       <c r="F513" s="7"/>
       <c r="G513" s="7"/>
       <c r="H513" s="7"/>
@@ -9134,7 +9455,7 @@
       <c r="N513" s="9"/>
       <c r="O513" s="6"/>
     </row>
-    <row r="514" spans="6:15" ht="14.25" customHeight="1">
+    <row r="514" spans="6:15">
       <c r="F514" s="7"/>
       <c r="G514" s="7"/>
       <c r="H514" s="7"/>
@@ -9146,7 +9467,7 @@
       <c r="N514" s="9"/>
       <c r="O514" s="6"/>
     </row>
-    <row r="515" spans="6:15" ht="14.25" customHeight="1">
+    <row r="515" spans="6:15">
       <c r="F515" s="7"/>
       <c r="G515" s="7"/>
       <c r="H515" s="7"/>
@@ -9158,7 +9479,7 @@
       <c r="N515" s="9"/>
       <c r="O515" s="6"/>
     </row>
-    <row r="516" spans="6:15" ht="14.25" customHeight="1">
+    <row r="516" spans="6:15">
       <c r="F516" s="7"/>
       <c r="G516" s="7"/>
       <c r="H516" s="7"/>
@@ -9170,7 +9491,7 @@
       <c r="N516" s="9"/>
       <c r="O516" s="6"/>
     </row>
-    <row r="517" spans="6:15" ht="14.25" customHeight="1">
+    <row r="517" spans="6:15">
       <c r="F517" s="7"/>
       <c r="G517" s="7"/>
       <c r="H517" s="7"/>
@@ -9182,7 +9503,7 @@
       <c r="N517" s="9"/>
       <c r="O517" s="6"/>
     </row>
-    <row r="518" spans="6:15" ht="14.25" customHeight="1">
+    <row r="518" spans="6:15">
       <c r="F518" s="7"/>
       <c r="G518" s="7"/>
       <c r="H518" s="7"/>
@@ -9194,7 +9515,7 @@
       <c r="N518" s="9"/>
       <c r="O518" s="6"/>
     </row>
-    <row r="519" spans="6:15" ht="14.25" customHeight="1">
+    <row r="519" spans="6:15">
       <c r="F519" s="7"/>
       <c r="G519" s="7"/>
       <c r="H519" s="7"/>
@@ -9206,7 +9527,7 @@
       <c r="N519" s="9"/>
       <c r="O519" s="6"/>
     </row>
-    <row r="520" spans="6:15" ht="14.25" customHeight="1">
+    <row r="520" spans="6:15">
       <c r="F520" s="7"/>
       <c r="G520" s="7"/>
       <c r="H520" s="7"/>
@@ -9218,7 +9539,7 @@
       <c r="N520" s="9"/>
       <c r="O520" s="6"/>
     </row>
-    <row r="521" spans="6:15" ht="14.25" customHeight="1">
+    <row r="521" spans="6:15">
       <c r="F521" s="7"/>
       <c r="G521" s="7"/>
       <c r="H521" s="7"/>
@@ -9230,7 +9551,7 @@
       <c r="N521" s="9"/>
       <c r="O521" s="6"/>
     </row>
-    <row r="522" spans="6:15" ht="14.25" customHeight="1">
+    <row r="522" spans="6:15">
       <c r="F522" s="7"/>
       <c r="G522" s="7"/>
       <c r="H522" s="7"/>
@@ -9242,7 +9563,7 @@
       <c r="N522" s="9"/>
       <c r="O522" s="6"/>
     </row>
-    <row r="523" spans="6:15" ht="14.25" customHeight="1">
+    <row r="523" spans="6:15">
       <c r="F523" s="7"/>
       <c r="G523" s="7"/>
       <c r="H523" s="7"/>
@@ -9254,7 +9575,7 @@
       <c r="N523" s="9"/>
       <c r="O523" s="6"/>
     </row>
-    <row r="524" spans="6:15" ht="14.25" customHeight="1">
+    <row r="524" spans="6:15">
       <c r="F524" s="7"/>
       <c r="G524" s="7"/>
       <c r="H524" s="7"/>
@@ -9266,7 +9587,7 @@
       <c r="N524" s="9"/>
       <c r="O524" s="6"/>
     </row>
-    <row r="525" spans="6:15" ht="14.25" customHeight="1">
+    <row r="525" spans="6:15">
       <c r="F525" s="7"/>
       <c r="G525" s="7"/>
       <c r="H525" s="7"/>
@@ -9278,7 +9599,7 @@
       <c r="N525" s="9"/>
       <c r="O525" s="6"/>
     </row>
-    <row r="526" spans="6:15" ht="14.25" customHeight="1">
+    <row r="526" spans="6:15">
       <c r="F526" s="7"/>
       <c r="G526" s="7"/>
       <c r="H526" s="7"/>
@@ -9290,7 +9611,7 @@
       <c r="N526" s="9"/>
       <c r="O526" s="6"/>
     </row>
-    <row r="527" spans="6:15" ht="14.25" customHeight="1">
+    <row r="527" spans="6:15">
       <c r="F527" s="7"/>
       <c r="G527" s="7"/>
       <c r="H527" s="7"/>
@@ -9302,7 +9623,7 @@
       <c r="N527" s="9"/>
       <c r="O527" s="6"/>
     </row>
-    <row r="528" spans="6:15" ht="14.25" customHeight="1">
+    <row r="528" spans="6:15">
       <c r="F528" s="7"/>
       <c r="G528" s="7"/>
       <c r="H528" s="7"/>
@@ -9314,7 +9635,7 @@
       <c r="N528" s="9"/>
       <c r="O528" s="6"/>
     </row>
-    <row r="529" spans="6:15" ht="14.25" customHeight="1">
+    <row r="529" spans="6:15">
       <c r="F529" s="7"/>
       <c r="G529" s="7"/>
       <c r="H529" s="7"/>
@@ -9326,7 +9647,7 @@
       <c r="N529" s="9"/>
       <c r="O529" s="6"/>
     </row>
-    <row r="530" spans="6:15" ht="14.25" customHeight="1">
+    <row r="530" spans="6:15">
       <c r="F530" s="7"/>
       <c r="G530" s="7"/>
       <c r="H530" s="7"/>
@@ -9338,7 +9659,7 @@
       <c r="N530" s="9"/>
       <c r="O530" s="6"/>
     </row>
-    <row r="531" spans="6:15" ht="14.25" customHeight="1">
+    <row r="531" spans="6:15">
       <c r="F531" s="7"/>
       <c r="G531" s="7"/>
       <c r="H531" s="7"/>
@@ -9350,7 +9671,7 @@
       <c r="N531" s="9"/>
       <c r="O531" s="6"/>
     </row>
-    <row r="532" spans="6:15" ht="14.25" customHeight="1">
+    <row r="532" spans="6:15">
       <c r="F532" s="7"/>
       <c r="G532" s="7"/>
       <c r="H532" s="7"/>
@@ -9362,7 +9683,7 @@
       <c r="N532" s="9"/>
       <c r="O532" s="6"/>
     </row>
-    <row r="533" spans="6:15" ht="14.25" customHeight="1">
+    <row r="533" spans="6:15">
       <c r="F533" s="7"/>
       <c r="G533" s="7"/>
       <c r="H533" s="7"/>
@@ -9374,7 +9695,7 @@
       <c r="N533" s="9"/>
       <c r="O533" s="6"/>
     </row>
-    <row r="534" spans="6:15" ht="14.25" customHeight="1">
+    <row r="534" spans="6:15">
       <c r="F534" s="7"/>
       <c r="G534" s="7"/>
       <c r="H534" s="7"/>
@@ -9386,7 +9707,7 @@
       <c r="N534" s="9"/>
       <c r="O534" s="6"/>
     </row>
-    <row r="535" spans="6:15" ht="14.25" customHeight="1">
+    <row r="535" spans="6:15">
       <c r="F535" s="7"/>
       <c r="G535" s="7"/>
       <c r="H535" s="7"/>
@@ -9398,7 +9719,7 @@
       <c r="N535" s="9"/>
       <c r="O535" s="6"/>
     </row>
-    <row r="536" spans="6:15" ht="14.25" customHeight="1">
+    <row r="536" spans="6:15">
       <c r="F536" s="7"/>
       <c r="G536" s="7"/>
       <c r="H536" s="7"/>
@@ -9410,7 +9731,7 @@
       <c r="N536" s="9"/>
       <c r="O536" s="6"/>
     </row>
-    <row r="537" spans="6:15" ht="14.25" customHeight="1">
+    <row r="537" spans="6:15">
       <c r="F537" s="7"/>
       <c r="G537" s="7"/>
       <c r="H537" s="7"/>
@@ -9422,7 +9743,7 @@
       <c r="N537" s="9"/>
       <c r="O537" s="6"/>
     </row>
-    <row r="538" spans="6:15" ht="14.25" customHeight="1">
+    <row r="538" spans="6:15">
       <c r="F538" s="7"/>
       <c r="G538" s="7"/>
       <c r="H538" s="7"/>
@@ -9434,7 +9755,7 @@
       <c r="N538" s="9"/>
       <c r="O538" s="6"/>
     </row>
-    <row r="539" spans="6:15" ht="14.25" customHeight="1">
+    <row r="539" spans="6:15">
       <c r="F539" s="7"/>
       <c r="G539" s="7"/>
       <c r="H539" s="7"/>
@@ -9446,7 +9767,7 @@
       <c r="N539" s="9"/>
       <c r="O539" s="6"/>
     </row>
-    <row r="540" spans="6:15" ht="14.25" customHeight="1">
+    <row r="540" spans="6:15">
       <c r="F540" s="7"/>
       <c r="G540" s="7"/>
       <c r="H540" s="7"/>
@@ -9458,7 +9779,7 @@
       <c r="N540" s="9"/>
       <c r="O540" s="6"/>
     </row>
-    <row r="541" spans="6:15" ht="14.25" customHeight="1">
+    <row r="541" spans="6:15">
       <c r="F541" s="7"/>
       <c r="G541" s="7"/>
       <c r="H541" s="7"/>
@@ -9470,7 +9791,7 @@
       <c r="N541" s="9"/>
       <c r="O541" s="6"/>
     </row>
-    <row r="542" spans="6:15" ht="14.25" customHeight="1">
+    <row r="542" spans="6:15">
       <c r="F542" s="7"/>
       <c r="G542" s="7"/>
       <c r="H542" s="7"/>
@@ -9482,7 +9803,7 @@
       <c r="N542" s="9"/>
       <c r="O542" s="6"/>
     </row>
-    <row r="543" spans="6:15" ht="14.25" customHeight="1">
+    <row r="543" spans="6:15">
       <c r="F543" s="7"/>
       <c r="G543" s="7"/>
       <c r="H543" s="7"/>
@@ -9494,7 +9815,7 @@
       <c r="N543" s="9"/>
       <c r="O543" s="6"/>
     </row>
-    <row r="544" spans="6:15" ht="14.25" customHeight="1">
+    <row r="544" spans="6:15">
       <c r="F544" s="7"/>
       <c r="G544" s="7"/>
       <c r="H544" s="7"/>
@@ -9506,7 +9827,7 @@
       <c r="N544" s="9"/>
       <c r="O544" s="6"/>
     </row>
-    <row r="545" spans="6:15" ht="14.25" customHeight="1">
+    <row r="545" spans="6:15">
       <c r="F545" s="7"/>
       <c r="G545" s="7"/>
       <c r="H545" s="7"/>
@@ -9518,7 +9839,7 @@
       <c r="N545" s="9"/>
       <c r="O545" s="6"/>
     </row>
-    <row r="546" spans="6:15" ht="14.25" customHeight="1">
+    <row r="546" spans="6:15">
       <c r="F546" s="7"/>
       <c r="G546" s="7"/>
       <c r="H546" s="7"/>
@@ -9530,7 +9851,7 @@
       <c r="N546" s="9"/>
       <c r="O546" s="6"/>
     </row>
-    <row r="547" spans="6:15" ht="14.25" customHeight="1">
+    <row r="547" spans="6:15">
       <c r="F547" s="7"/>
       <c r="G547" s="7"/>
       <c r="H547" s="7"/>
@@ -9542,7 +9863,7 @@
       <c r="N547" s="9"/>
       <c r="O547" s="6"/>
     </row>
-    <row r="548" spans="6:15" ht="14.25" customHeight="1">
+    <row r="548" spans="6:15">
       <c r="F548" s="7"/>
       <c r="G548" s="7"/>
       <c r="H548" s="7"/>
@@ -9554,7 +9875,7 @@
       <c r="N548" s="9"/>
       <c r="O548" s="6"/>
     </row>
-    <row r="549" spans="6:15" ht="14.25" customHeight="1">
+    <row r="549" spans="6:15">
       <c r="F549" s="7"/>
       <c r="G549" s="7"/>
       <c r="H549" s="7"/>
@@ -9566,7 +9887,7 @@
       <c r="N549" s="9"/>
       <c r="O549" s="6"/>
     </row>
-    <row r="550" spans="6:15" ht="14.25" customHeight="1">
+    <row r="550" spans="6:15">
       <c r="F550" s="7"/>
       <c r="G550" s="7"/>
       <c r="H550" s="7"/>
@@ -9578,7 +9899,7 @@
       <c r="N550" s="9"/>
       <c r="O550" s="6"/>
     </row>
-    <row r="551" spans="6:15" ht="14.25" customHeight="1">
+    <row r="551" spans="6:15">
       <c r="F551" s="7"/>
       <c r="G551" s="7"/>
       <c r="H551" s="7"/>
@@ -9590,7 +9911,7 @@
       <c r="N551" s="9"/>
       <c r="O551" s="6"/>
     </row>
-    <row r="552" spans="6:15" ht="14.25" customHeight="1">
+    <row r="552" spans="6:15">
       <c r="F552" s="7"/>
       <c r="G552" s="7"/>
       <c r="H552" s="7"/>
@@ -9602,7 +9923,7 @@
       <c r="N552" s="9"/>
       <c r="O552" s="6"/>
     </row>
-    <row r="553" spans="6:15" ht="14.25" customHeight="1">
+    <row r="553" spans="6:15">
       <c r="F553" s="7"/>
       <c r="G553" s="7"/>
       <c r="H553" s="7"/>
@@ -9614,7 +9935,7 @@
       <c r="N553" s="9"/>
       <c r="O553" s="6"/>
     </row>
-    <row r="554" spans="6:15" ht="14.25" customHeight="1">
+    <row r="554" spans="6:15">
       <c r="F554" s="7"/>
       <c r="G554" s="7"/>
       <c r="H554" s="7"/>
@@ -9626,7 +9947,7 @@
       <c r="N554" s="9"/>
       <c r="O554" s="6"/>
     </row>
-    <row r="555" spans="6:15" ht="14.25" customHeight="1">
+    <row r="555" spans="6:15">
       <c r="F555" s="7"/>
       <c r="G555" s="7"/>
       <c r="H555" s="7"/>
@@ -9638,7 +9959,7 @@
       <c r="N555" s="9"/>
       <c r="O555" s="6"/>
     </row>
-    <row r="556" spans="6:15" ht="14.25" customHeight="1">
+    <row r="556" spans="6:15">
       <c r="F556" s="7"/>
       <c r="G556" s="7"/>
       <c r="H556" s="7"/>
@@ -9650,7 +9971,7 @@
       <c r="N556" s="9"/>
       <c r="O556" s="6"/>
     </row>
-    <row r="557" spans="6:15" ht="14.25" customHeight="1">
+    <row r="557" spans="6:15">
       <c r="F557" s="7"/>
       <c r="G557" s="7"/>
       <c r="H557" s="7"/>
@@ -9662,7 +9983,7 @@
       <c r="N557" s="9"/>
       <c r="O557" s="6"/>
     </row>
-    <row r="558" spans="6:15" ht="14.25" customHeight="1">
+    <row r="558" spans="6:15">
       <c r="F558" s="7"/>
       <c r="G558" s="7"/>
       <c r="H558" s="7"/>
@@ -9674,7 +9995,7 @@
       <c r="N558" s="9"/>
       <c r="O558" s="6"/>
     </row>
-    <row r="559" spans="6:15" ht="14.25" customHeight="1">
+    <row r="559" spans="6:15">
       <c r="F559" s="7"/>
       <c r="G559" s="7"/>
       <c r="H559" s="7"/>
@@ -9686,7 +10007,7 @@
       <c r="N559" s="9"/>
       <c r="O559" s="6"/>
     </row>
-    <row r="560" spans="6:15" ht="14.25" customHeight="1">
+    <row r="560" spans="6:15">
       <c r="F560" s="7"/>
       <c r="G560" s="7"/>
       <c r="H560" s="7"/>
@@ -9698,7 +10019,7 @@
       <c r="N560" s="9"/>
       <c r="O560" s="6"/>
     </row>
-    <row r="561" spans="6:15" ht="14.25" customHeight="1">
+    <row r="561" spans="6:15">
       <c r="F561" s="7"/>
       <c r="G561" s="7"/>
       <c r="H561" s="7"/>
@@ -9710,7 +10031,7 @@
       <c r="N561" s="9"/>
       <c r="O561" s="6"/>
     </row>
-    <row r="562" spans="6:15" ht="14.25" customHeight="1">
+    <row r="562" spans="6:15">
       <c r="F562" s="7"/>
       <c r="G562" s="7"/>
       <c r="H562" s="7"/>
@@ -9722,7 +10043,7 @@
       <c r="N562" s="9"/>
       <c r="O562" s="6"/>
     </row>
-    <row r="563" spans="6:15" ht="14.25" customHeight="1">
+    <row r="563" spans="6:15">
       <c r="F563" s="7"/>
       <c r="G563" s="7"/>
       <c r="H563" s="7"/>
@@ -9734,7 +10055,7 @@
       <c r="N563" s="9"/>
       <c r="O563" s="6"/>
     </row>
-    <row r="564" spans="6:15" ht="14.25" customHeight="1">
+    <row r="564" spans="6:15">
       <c r="F564" s="7"/>
       <c r="G564" s="7"/>
       <c r="H564" s="7"/>
@@ -9746,7 +10067,7 @@
       <c r="N564" s="9"/>
       <c r="O564" s="6"/>
     </row>
-    <row r="565" spans="6:15" ht="14.25" customHeight="1">
+    <row r="565" spans="6:15">
       <c r="F565" s="7"/>
       <c r="G565" s="7"/>
       <c r="H565" s="7"/>
@@ -9758,7 +10079,7 @@
       <c r="N565" s="9"/>
       <c r="O565" s="6"/>
     </row>
-    <row r="566" spans="6:15" ht="14.25" customHeight="1">
+    <row r="566" spans="6:15">
       <c r="F566" s="7"/>
       <c r="G566" s="7"/>
       <c r="H566" s="7"/>
@@ -9770,7 +10091,7 @@
       <c r="N566" s="9"/>
       <c r="O566" s="6"/>
     </row>
-    <row r="567" spans="6:15" ht="14.25" customHeight="1">
+    <row r="567" spans="6:15">
       <c r="F567" s="7"/>
       <c r="G567" s="7"/>
       <c r="H567" s="7"/>
@@ -9782,7 +10103,7 @@
       <c r="N567" s="9"/>
       <c r="O567" s="6"/>
     </row>
-    <row r="568" spans="6:15" ht="14.25" customHeight="1">
+    <row r="568" spans="6:15">
       <c r="F568" s="7"/>
       <c r="G568" s="7"/>
       <c r="H568" s="7"/>
@@ -9794,7 +10115,7 @@
       <c r="N568" s="9"/>
       <c r="O568" s="6"/>
     </row>
-    <row r="569" spans="6:15" ht="14.25" customHeight="1">
+    <row r="569" spans="6:15">
       <c r="F569" s="7"/>
       <c r="G569" s="7"/>
       <c r="H569" s="7"/>
@@ -9806,7 +10127,7 @@
       <c r="N569" s="9"/>
       <c r="O569" s="6"/>
     </row>
-    <row r="570" spans="6:15" ht="14.25" customHeight="1">
+    <row r="570" spans="6:15">
       <c r="F570" s="7"/>
       <c r="G570" s="7"/>
       <c r="H570" s="7"/>
@@ -9818,7 +10139,7 @@
       <c r="N570" s="9"/>
       <c r="O570" s="6"/>
     </row>
-    <row r="571" spans="6:15" ht="14.25" customHeight="1">
+    <row r="571" spans="6:15">
       <c r="F571" s="7"/>
       <c r="G571" s="7"/>
       <c r="H571" s="7"/>
@@ -9830,7 +10151,7 @@
       <c r="N571" s="9"/>
       <c r="O571" s="6"/>
     </row>
-    <row r="572" spans="6:15" ht="14.25" customHeight="1">
+    <row r="572" spans="6:15">
       <c r="F572" s="7"/>
       <c r="G572" s="7"/>
       <c r="H572" s="7"/>
@@ -9842,7 +10163,7 @@
       <c r="N572" s="9"/>
       <c r="O572" s="6"/>
     </row>
-    <row r="573" spans="6:15" ht="14.25" customHeight="1">
+    <row r="573" spans="6:15">
       <c r="F573" s="7"/>
       <c r="G573" s="7"/>
       <c r="H573" s="7"/>
@@ -9854,7 +10175,7 @@
       <c r="N573" s="9"/>
       <c r="O573" s="6"/>
     </row>
-    <row r="574" spans="6:15" ht="14.25" customHeight="1">
+    <row r="574" spans="6:15">
       <c r="F574" s="7"/>
       <c r="G574" s="7"/>
       <c r="H574" s="7"/>
@@ -9866,7 +10187,7 @@
       <c r="N574" s="9"/>
       <c r="O574" s="6"/>
     </row>
-    <row r="575" spans="6:15" ht="14.25" customHeight="1">
+    <row r="575" spans="6:15">
       <c r="F575" s="7"/>
       <c r="G575" s="7"/>
       <c r="H575" s="7"/>
@@ -9878,7 +10199,7 @@
       <c r="N575" s="9"/>
       <c r="O575" s="6"/>
     </row>
-    <row r="576" spans="6:15" ht="14.25" customHeight="1">
+    <row r="576" spans="6:15">
       <c r="F576" s="7"/>
       <c r="G576" s="7"/>
       <c r="H576" s="7"/>
@@ -9890,7 +10211,7 @@
       <c r="N576" s="9"/>
       <c r="O576" s="6"/>
     </row>
-    <row r="577" spans="6:15" ht="14.25" customHeight="1">
+    <row r="577" spans="6:15">
       <c r="F577" s="7"/>
       <c r="G577" s="7"/>
       <c r="H577" s="7"/>
@@ -9902,7 +10223,7 @@
       <c r="N577" s="9"/>
       <c r="O577" s="6"/>
     </row>
-    <row r="578" spans="6:15" ht="14.25" customHeight="1">
+    <row r="578" spans="6:15">
       <c r="F578" s="7"/>
       <c r="G578" s="7"/>
       <c r="H578" s="7"/>
@@ -9914,7 +10235,7 @@
       <c r="N578" s="9"/>
       <c r="O578" s="6"/>
     </row>
-    <row r="579" spans="6:15" ht="14.25" customHeight="1">
+    <row r="579" spans="6:15">
       <c r="F579" s="7"/>
       <c r="G579" s="7"/>
       <c r="H579" s="7"/>
@@ -9926,7 +10247,7 @@
       <c r="N579" s="9"/>
       <c r="O579" s="6"/>
     </row>
-    <row r="580" spans="6:15" ht="14.25" customHeight="1">
+    <row r="580" spans="6:15">
       <c r="F580" s="7"/>
       <c r="G580" s="7"/>
       <c r="H580" s="7"/>
@@ -9938,7 +10259,7 @@
       <c r="N580" s="9"/>
       <c r="O580" s="6"/>
     </row>
-    <row r="581" spans="6:15" ht="14.25" customHeight="1">
+    <row r="581" spans="6:15">
       <c r="F581" s="7"/>
       <c r="G581" s="7"/>
       <c r="H581" s="7"/>
@@ -9950,7 +10271,7 @@
       <c r="N581" s="9"/>
       <c r="O581" s="6"/>
     </row>
-    <row r="582" spans="6:15" ht="14.25" customHeight="1">
+    <row r="582" spans="6:15">
       <c r="F582" s="7"/>
       <c r="G582" s="7"/>
       <c r="H582" s="7"/>
@@ -9962,7 +10283,7 @@
       <c r="N582" s="9"/>
       <c r="O582" s="6"/>
     </row>
-    <row r="583" spans="6:15" ht="14.25" customHeight="1">
+    <row r="583" spans="6:15">
       <c r="F583" s="7"/>
       <c r="G583" s="7"/>
       <c r="H583" s="7"/>
@@ -9974,7 +10295,7 @@
       <c r="N583" s="9"/>
       <c r="O583" s="6"/>
     </row>
-    <row r="584" spans="6:15" ht="14.25" customHeight="1">
+    <row r="584" spans="6:15">
       <c r="F584" s="7"/>
       <c r="G584" s="7"/>
       <c r="H584" s="7"/>
@@ -9986,7 +10307,7 @@
       <c r="N584" s="9"/>
       <c r="O584" s="6"/>
     </row>
-    <row r="585" spans="6:15" ht="14.25" customHeight="1">
+    <row r="585" spans="6:15">
       <c r="F585" s="7"/>
       <c r="G585" s="7"/>
       <c r="H585" s="7"/>
@@ -9998,7 +10319,7 @@
       <c r="N585" s="9"/>
       <c r="O585" s="6"/>
     </row>
-    <row r="586" spans="6:15" ht="14.25" customHeight="1">
+    <row r="586" spans="6:15">
       <c r="F586" s="7"/>
       <c r="G586" s="7"/>
       <c r="H586" s="7"/>
@@ -10010,7 +10331,7 @@
       <c r="N586" s="9"/>
       <c r="O586" s="6"/>
     </row>
-    <row r="587" spans="6:15" ht="14.25" customHeight="1">
+    <row r="587" spans="6:15">
       <c r="F587" s="7"/>
       <c r="G587" s="7"/>
       <c r="H587" s="7"/>
@@ -10022,7 +10343,7 @@
       <c r="N587" s="9"/>
       <c r="O587" s="6"/>
     </row>
-    <row r="588" spans="6:15" ht="14.25" customHeight="1">
+    <row r="588" spans="6:15">
       <c r="F588" s="7"/>
       <c r="G588" s="7"/>
       <c r="H588" s="7"/>
@@ -10034,7 +10355,7 @@
       <c r="N588" s="9"/>
       <c r="O588" s="6"/>
     </row>
-    <row r="589" spans="6:15" ht="14.25" customHeight="1">
+    <row r="589" spans="6:15">
       <c r="F589" s="7"/>
       <c r="G589" s="7"/>
       <c r="H589" s="7"/>
@@ -10046,7 +10367,7 @@
       <c r="N589" s="9"/>
       <c r="O589" s="6"/>
     </row>
-    <row r="590" spans="6:15" ht="14.25" customHeight="1">
+    <row r="590" spans="6:15">
       <c r="F590" s="7"/>
       <c r="G590" s="7"/>
       <c r="H590" s="7"/>
@@ -10058,7 +10379,7 @@
       <c r="N590" s="9"/>
       <c r="O590" s="6"/>
     </row>
-    <row r="591" spans="6:15" ht="14.25" customHeight="1">
+    <row r="591" spans="6:15">
       <c r="F591" s="7"/>
       <c r="G591" s="7"/>
       <c r="H591" s="7"/>
@@ -10070,7 +10391,7 @@
       <c r="N591" s="9"/>
       <c r="O591" s="6"/>
     </row>
-    <row r="592" spans="6:15" ht="14.25" customHeight="1">
+    <row r="592" spans="6:15">
       <c r="F592" s="7"/>
       <c r="G592" s="7"/>
       <c r="H592" s="7"/>
@@ -10082,7 +10403,7 @@
       <c r="N592" s="9"/>
       <c r="O592" s="6"/>
     </row>
-    <row r="593" spans="6:15" ht="14.25" customHeight="1">
+    <row r="593" spans="6:15">
       <c r="F593" s="7"/>
       <c r="G593" s="7"/>
       <c r="H593" s="7"/>
@@ -10094,7 +10415,7 @@
       <c r="N593" s="9"/>
       <c r="O593" s="6"/>
     </row>
-    <row r="594" spans="6:15" ht="14.25" customHeight="1">
+    <row r="594" spans="6:15">
       <c r="F594" s="7"/>
       <c r="G594" s="7"/>
       <c r="H594" s="7"/>
@@ -10106,7 +10427,7 @@
       <c r="N594" s="9"/>
       <c r="O594" s="6"/>
     </row>
-    <row r="595" spans="6:15" ht="14.25" customHeight="1">
+    <row r="595" spans="6:15">
       <c r="F595" s="7"/>
       <c r="G595" s="7"/>
       <c r="H595" s="7"/>
@@ -10118,7 +10439,7 @@
       <c r="N595" s="9"/>
       <c r="O595" s="6"/>
     </row>
-    <row r="596" spans="6:15" ht="14.25" customHeight="1">
+    <row r="596" spans="6:15">
       <c r="F596" s="7"/>
       <c r="G596" s="7"/>
       <c r="H596" s="7"/>
@@ -10130,7 +10451,7 @@
       <c r="N596" s="9"/>
       <c r="O596" s="6"/>
     </row>
-    <row r="597" spans="6:15" ht="14.25" customHeight="1">
+    <row r="597" spans="6:15">
       <c r="F597" s="7"/>
       <c r="G597" s="7"/>
       <c r="H597" s="7"/>
@@ -10142,7 +10463,7 @@
       <c r="N597" s="9"/>
       <c r="O597" s="6"/>
     </row>
-    <row r="598" spans="6:15" ht="14.25" customHeight="1">
+    <row r="598" spans="6:15">
       <c r="F598" s="7"/>
       <c r="G598" s="7"/>
       <c r="H598" s="7"/>
@@ -10154,7 +10475,7 @@
       <c r="N598" s="9"/>
       <c r="O598" s="6"/>
     </row>
-    <row r="599" spans="6:15" ht="14.25" customHeight="1">
+    <row r="599" spans="6:15">
       <c r="F599" s="7"/>
       <c r="G599" s="7"/>
       <c r="H599" s="7"/>
@@ -10166,7 +10487,7 @@
       <c r="N599" s="9"/>
       <c r="O599" s="6"/>
     </row>
-    <row r="600" spans="6:15" ht="14.25" customHeight="1">
+    <row r="600" spans="6:15">
       <c r="F600" s="7"/>
       <c r="G600" s="7"/>
       <c r="H600" s="7"/>
@@ -10178,7 +10499,7 @@
       <c r="N600" s="9"/>
       <c r="O600" s="6"/>
     </row>
-    <row r="601" spans="6:15" ht="14.25" customHeight="1">
+    <row r="601" spans="6:15">
       <c r="F601" s="7"/>
       <c r="G601" s="7"/>
       <c r="H601" s="7"/>
@@ -10190,7 +10511,7 @@
       <c r="N601" s="9"/>
       <c r="O601" s="6"/>
     </row>
-    <row r="602" spans="6:15" ht="14.25" customHeight="1">
+    <row r="602" spans="6:15">
       <c r="F602" s="7"/>
       <c r="G602" s="7"/>
       <c r="H602" s="7"/>
@@ -10202,7 +10523,7 @@
       <c r="N602" s="9"/>
       <c r="O602" s="6"/>
     </row>
-    <row r="603" spans="6:15" ht="14.25" customHeight="1">
+    <row r="603" spans="6:15">
       <c r="F603" s="7"/>
       <c r="G603" s="7"/>
       <c r="H603" s="7"/>
@@ -10214,7 +10535,7 @@
       <c r="N603" s="9"/>
       <c r="O603" s="6"/>
     </row>
-    <row r="604" spans="6:15" ht="14.25" customHeight="1">
+    <row r="604" spans="6:15">
       <c r="F604" s="7"/>
       <c r="G604" s="7"/>
       <c r="H604" s="7"/>
@@ -10226,7 +10547,7 @@
       <c r="N604" s="9"/>
       <c r="O604" s="6"/>
     </row>
-    <row r="605" spans="6:15" ht="14.25" customHeight="1">
+    <row r="605" spans="6:15">
       <c r="F605" s="7"/>
       <c r="G605" s="7"/>
       <c r="H605" s="7"/>
@@ -10238,7 +10559,7 @@
       <c r="N605" s="9"/>
       <c r="O605" s="6"/>
     </row>
-    <row r="606" spans="6:15" ht="14.25" customHeight="1">
+    <row r="606" spans="6:15">
       <c r="F606" s="7"/>
       <c r="G606" s="7"/>
       <c r="H606" s="7"/>
@@ -10250,7 +10571,7 @@
       <c r="N606" s="9"/>
       <c r="O606" s="6"/>
     </row>
-    <row r="607" spans="6:15" ht="14.25" customHeight="1">
+    <row r="607" spans="6:15">
       <c r="F607" s="7"/>
       <c r="G607" s="7"/>
       <c r="H607" s="7"/>
@@ -10262,7 +10583,7 @@
       <c r="N607" s="9"/>
       <c r="O607" s="6"/>
     </row>
-    <row r="608" spans="6:15" ht="14.25" customHeight="1">
+    <row r="608" spans="6:15">
       <c r="F608" s="7"/>
       <c r="G608" s="7"/>
       <c r="H608" s="7"/>
@@ -10274,7 +10595,7 @@
       <c r="N608" s="9"/>
       <c r="O608" s="6"/>
     </row>
-    <row r="609" spans="6:15" ht="14.25" customHeight="1">
+    <row r="609" spans="6:15">
       <c r="F609" s="7"/>
       <c r="G609" s="7"/>
       <c r="H609" s="7"/>
@@ -10286,7 +10607,7 @@
       <c r="N609" s="9"/>
       <c r="O609" s="6"/>
     </row>
-    <row r="610" spans="6:15" ht="14.25" customHeight="1">
+    <row r="610" spans="6:15">
       <c r="F610" s="7"/>
       <c r="G610" s="7"/>
       <c r="H610" s="7"/>
@@ -10298,7 +10619,7 @@
       <c r="N610" s="9"/>
       <c r="O610" s="6"/>
     </row>
-    <row r="611" spans="6:15" ht="14.25" customHeight="1">
+    <row r="611" spans="6:15">
       <c r="F611" s="7"/>
       <c r="G611" s="7"/>
       <c r="H611" s="7"/>
@@ -10310,7 +10631,7 @@
       <c r="N611" s="9"/>
       <c r="O611" s="6"/>
     </row>
-    <row r="612" spans="6:15" ht="14.25" customHeight="1">
+    <row r="612" spans="6:15">
       <c r="F612" s="7"/>
       <c r="G612" s="7"/>
       <c r="H612" s="7"/>
@@ -10322,7 +10643,7 @@
       <c r="N612" s="9"/>
       <c r="O612" s="6"/>
     </row>
-    <row r="613" spans="6:15" ht="14.25" customHeight="1">
+    <row r="613" spans="6:15">
       <c r="F613" s="7"/>
       <c r="G613" s="7"/>
       <c r="H613" s="7"/>
@@ -10334,7 +10655,7 @@
       <c r="N613" s="9"/>
       <c r="O613" s="6"/>
     </row>
-    <row r="614" spans="6:15" ht="14.25" customHeight="1">
+    <row r="614" spans="6:15">
       <c r="F614" s="7"/>
       <c r="G614" s="7"/>
       <c r="H614" s="7"/>
@@ -10346,7 +10667,7 @@
       <c r="N614" s="9"/>
       <c r="O614" s="6"/>
     </row>
-    <row r="615" spans="6:15" ht="14.25" customHeight="1">
+    <row r="615" spans="6:15">
       <c r="F615" s="7"/>
       <c r="G615" s="7"/>
       <c r="H615" s="7"/>
@@ -10358,7 +10679,7 @@
       <c r="N615" s="9"/>
       <c r="O615" s="6"/>
     </row>
-    <row r="616" spans="6:15" ht="14.25" customHeight="1">
+    <row r="616" spans="6:15">
       <c r="F616" s="7"/>
       <c r="G616" s="7"/>
       <c r="H616" s="7"/>
@@ -10370,7 +10691,7 @@
       <c r="N616" s="9"/>
       <c r="O616" s="6"/>
     </row>
-    <row r="617" spans="6:15" ht="14.25" customHeight="1">
+    <row r="617" spans="6:15">
       <c r="F617" s="7"/>
       <c r="G617" s="7"/>
       <c r="H617" s="7"/>
@@ -10382,7 +10703,7 @@
       <c r="N617" s="9"/>
       <c r="O617" s="6"/>
     </row>
-    <row r="618" spans="6:15" ht="14.25" customHeight="1">
+    <row r="618" spans="6:15">
       <c r="F618" s="7"/>
       <c r="G618" s="7"/>
       <c r="H618" s="7"/>
@@ -10394,7 +10715,7 @@
       <c r="N618" s="9"/>
       <c r="O618" s="6"/>
     </row>
-    <row r="619" spans="6:15" ht="14.25" customHeight="1">
+    <row r="619" spans="6:15">
       <c r="F619" s="7"/>
       <c r="G619" s="7"/>
       <c r="H619" s="7"/>
@@ -10406,7 +10727,7 @@
       <c r="N619" s="9"/>
       <c r="O619" s="6"/>
     </row>
-    <row r="620" spans="6:15" ht="14.25" customHeight="1">
+    <row r="620" spans="6:15">
       <c r="F620" s="7"/>
       <c r="G620" s="7"/>
       <c r="H620" s="7"/>
@@ -10418,7 +10739,7 @@
       <c r="N620" s="9"/>
       <c r="O620" s="6"/>
     </row>
-    <row r="621" spans="6:15" ht="14.25" customHeight="1">
+    <row r="621" spans="6:15">
       <c r="F621" s="7"/>
       <c r="G621" s="7"/>
       <c r="H621" s="7"/>
@@ -10430,7 +10751,7 @@
       <c r="N621" s="9"/>
       <c r="O621" s="6"/>
     </row>
-    <row r="622" spans="6:15" ht="14.25" customHeight="1">
+    <row r="622" spans="6:15">
       <c r="F622" s="7"/>
       <c r="G622" s="7"/>
       <c r="H622" s="7"/>
@@ -10442,7 +10763,7 @@
       <c r="N622" s="9"/>
       <c r="O622" s="6"/>
     </row>
-    <row r="623" spans="6:15" ht="14.25" customHeight="1">
+    <row r="623" spans="6:15">
       <c r="F623" s="7"/>
       <c r="G623" s="7"/>
       <c r="H623" s="7"/>
@@ -10454,7 +10775,7 @@
       <c r="N623" s="9"/>
       <c r="O623" s="6"/>
     </row>
-    <row r="624" spans="6:15" ht="14.25" customHeight="1">
+    <row r="624" spans="6:15">
       <c r="F624" s="7"/>
       <c r="G624" s="7"/>
       <c r="H624" s="7"/>
@@ -10466,7 +10787,7 @@
       <c r="N624" s="9"/>
       <c r="O624" s="6"/>
     </row>
-    <row r="625" spans="6:15" ht="14.25" customHeight="1">
+    <row r="625" spans="6:15">
       <c r="F625" s="7"/>
       <c r="G625" s="7"/>
       <c r="H625" s="7"/>
@@ -10478,7 +10799,7 @@
       <c r="N625" s="9"/>
       <c r="O625" s="6"/>
     </row>
-    <row r="626" spans="6:15" ht="14.25" customHeight="1">
+    <row r="626" spans="6:15">
       <c r="F626" s="7"/>
       <c r="G626" s="7"/>
       <c r="H626" s="7"/>
@@ -10490,7 +10811,7 @@
       <c r="N626" s="9"/>
       <c r="O626" s="6"/>
     </row>
-    <row r="627" spans="6:15" ht="14.25" customHeight="1">
+    <row r="627" spans="6:15">
       <c r="F627" s="7"/>
       <c r="G627" s="7"/>
       <c r="H627" s="7"/>
@@ -10502,7 +10823,7 @@
       <c r="N627" s="9"/>
       <c r="O627" s="6"/>
     </row>
-    <row r="628" spans="6:15" ht="14.25" customHeight="1">
+    <row r="628" spans="6:15">
       <c r="F628" s="7"/>
       <c r="G628" s="7"/>
       <c r="H628" s="7"/>
@@ -10514,7 +10835,7 @@
       <c r="N628" s="9"/>
       <c r="O628" s="6"/>
     </row>
-    <row r="629" spans="6:15" ht="14.25" customHeight="1">
+    <row r="629" spans="6:15">
       <c r="F629" s="7"/>
       <c r="G629" s="7"/>
       <c r="H629" s="7"/>
@@ -10526,7 +10847,7 @@
       <c r="N629" s="9"/>
       <c r="O629" s="6"/>
     </row>
-    <row r="630" spans="6:15" ht="14.25" customHeight="1">
+    <row r="630" spans="6:15">
       <c r="F630" s="7"/>
       <c r="G630" s="7"/>
       <c r="H630" s="7"/>
@@ -10538,7 +10859,7 @@
       <c r="N630" s="9"/>
       <c r="O630" s="6"/>
     </row>
-    <row r="631" spans="6:15" ht="14.25" customHeight="1">
+    <row r="631" spans="6:15">
       <c r="F631" s="7"/>
       <c r="G631" s="7"/>
       <c r="H631" s="7"/>
@@ -10550,7 +10871,7 @@
       <c r="N631" s="9"/>
       <c r="O631" s="6"/>
     </row>
-    <row r="632" spans="6:15" ht="14.25" customHeight="1">
+    <row r="632" spans="6:15">
       <c r="F632" s="7"/>
       <c r="G632" s="7"/>
       <c r="H632" s="7"/>
@@ -10562,7 +10883,7 @@
       <c r="N632" s="9"/>
       <c r="O632" s="6"/>
     </row>
-    <row r="633" spans="6:15" ht="14.25" customHeight="1">
+    <row r="633" spans="6:15">
       <c r="F633" s="7"/>
       <c r="G633" s="7"/>
       <c r="H633" s="7"/>
@@ -10574,7 +10895,7 @@
       <c r="N633" s="9"/>
       <c r="O633" s="6"/>
     </row>
-    <row r="634" spans="6:15" ht="14.25" customHeight="1">
+    <row r="634" spans="6:15">
       <c r="F634" s="7"/>
       <c r="G634" s="7"/>
       <c r="H634" s="7"/>
@@ -10586,7 +10907,7 @@
       <c r="N634" s="9"/>
       <c r="O634" s="6"/>
     </row>
-    <row r="635" spans="6:15" ht="14.25" customHeight="1">
+    <row r="635" spans="6:15">
       <c r="F635" s="7"/>
       <c r="G635" s="7"/>
       <c r="H635" s="7"/>
@@ -10598,7 +10919,7 @@
       <c r="N635" s="9"/>
       <c r="O635" s="6"/>
     </row>
-    <row r="636" spans="6:15" ht="14.25" customHeight="1">
+    <row r="636" spans="6:15">
       <c r="F636" s="7"/>
       <c r="G636" s="7"/>
       <c r="H636" s="7"/>
@@ -10610,7 +10931,7 @@
       <c r="N636" s="9"/>
       <c r="O636" s="6"/>
     </row>
-    <row r="637" spans="6:15" ht="14.25" customHeight="1">
+    <row r="637" spans="6:15">
       <c r="F637" s="7"/>
       <c r="G637" s="7"/>
       <c r="H637" s="7"/>
@@ -10622,7 +10943,7 @@
       <c r="N637" s="9"/>
       <c r="O637" s="6"/>
     </row>
-    <row r="638" spans="6:15" ht="14.25" customHeight="1">
+    <row r="638" spans="6:15">
       <c r="F638" s="7"/>
       <c r="G638" s="7"/>
       <c r="H638" s="7"/>
@@ -10634,7 +10955,7 @@
       <c r="N638" s="9"/>
       <c r="O638" s="6"/>
     </row>
-    <row r="639" spans="6:15" ht="14.25" customHeight="1">
+    <row r="639" spans="6:15">
       <c r="F639" s="7"/>
       <c r="G639" s="7"/>
       <c r="H639" s="7"/>
@@ -10646,7 +10967,7 @@
       <c r="N639" s="9"/>
       <c r="O639" s="6"/>
     </row>
-    <row r="640" spans="6:15" ht="14.25" customHeight="1">
+    <row r="640" spans="6:15">
       <c r="F640" s="7"/>
       <c r="G640" s="7"/>
       <c r="H640" s="7"/>
@@ -10658,7 +10979,7 @@
       <c r="N640" s="9"/>
       <c r="O640" s="6"/>
     </row>
-    <row r="641" spans="6:15" ht="14.25" customHeight="1">
+    <row r="641" spans="6:15">
       <c r="F641" s="7"/>
       <c r="G641" s="7"/>
       <c r="H641" s="7"/>
@@ -10670,7 +10991,7 @@
       <c r="N641" s="9"/>
       <c r="O641" s="6"/>
     </row>
-    <row r="642" spans="6:15" ht="14.25" customHeight="1">
+    <row r="642" spans="6:15">
       <c r="F642" s="7"/>
       <c r="G642" s="7"/>
       <c r="H642" s="7"/>
@@ -10682,7 +11003,7 @@
       <c r="N642" s="9"/>
       <c r="O642" s="6"/>
     </row>
-    <row r="643" spans="6:15" ht="14.25" customHeight="1">
+    <row r="643" spans="6:15">
       <c r="F643" s="7"/>
       <c r="G643" s="7"/>
       <c r="H643" s="7"/>
@@ -10694,7 +11015,7 @@
       <c r="N643" s="9"/>
       <c r="O643" s="6"/>
     </row>
-    <row r="644" spans="6:15" ht="14.25" customHeight="1">
+    <row r="644" spans="6:15">
       <c r="F644" s="7"/>
       <c r="G644" s="7"/>
       <c r="H644" s="7"/>
@@ -10706,7 +11027,7 @@
       <c r="N644" s="9"/>
       <c r="O644" s="6"/>
     </row>
-    <row r="645" spans="6:15" ht="14.25" customHeight="1">
+    <row r="645" spans="6:15">
       <c r="F645" s="7"/>
       <c r="G645" s="7"/>
       <c r="H645" s="7"/>
@@ -10718,7 +11039,7 @@
       <c r="N645" s="9"/>
       <c r="O645" s="6"/>
     </row>
-    <row r="646" spans="6:15" ht="14.25" customHeight="1">
+    <row r="646" spans="6:15">
       <c r="F646" s="7"/>
       <c r="G646" s="7"/>
       <c r="H646" s="7"/>
@@ -10730,7 +11051,7 @@
       <c r="N646" s="9"/>
       <c r="O646" s="6"/>
     </row>
-    <row r="647" spans="6:15" ht="14.25" customHeight="1">
+    <row r="647" spans="6:15">
       <c r="F647" s="7"/>
       <c r="G647" s="7"/>
       <c r="H647" s="7"/>
@@ -10742,7 +11063,7 @@
       <c r="N647" s="9"/>
       <c r="O647" s="6"/>
     </row>
-    <row r="648" spans="6:15" ht="14.25" customHeight="1">
+    <row r="648" spans="6:15">
       <c r="F648" s="7"/>
       <c r="G648" s="7"/>
       <c r="H648" s="7"/>
@@ -10754,7 +11075,7 @@
       <c r="N648" s="9"/>
       <c r="O648" s="6"/>
     </row>
-    <row r="649" spans="6:15" ht="14.25" customHeight="1">
+    <row r="649" spans="6:15">
       <c r="F649" s="7"/>
       <c r="G649" s="7"/>
       <c r="H649" s="7"/>
@@ -10766,7 +11087,7 @@
       <c r="N649" s="9"/>
       <c r="O649" s="6"/>
     </row>
-    <row r="650" spans="6:15" ht="14.25" customHeight="1">
+    <row r="650" spans="6:15">
       <c r="F650" s="7"/>
       <c r="G650" s="7"/>
       <c r="H650" s="7"/>
@@ -10778,7 +11099,7 @@
       <c r="N650" s="9"/>
       <c r="O650" s="6"/>
     </row>
-    <row r="651" spans="6:15" ht="14.25" customHeight="1">
+    <row r="651" spans="6:15">
       <c r="F651" s="7"/>
       <c r="G651" s="7"/>
       <c r="H651" s="7"/>
@@ -10790,7 +11111,7 @@
       <c r="N651" s="9"/>
       <c r="O651" s="6"/>
     </row>
-    <row r="652" spans="6:15" ht="14.25" customHeight="1">
+    <row r="652" spans="6:15">
       <c r="F652" s="7"/>
       <c r="G652" s="7"/>
       <c r="H652" s="7"/>
@@ -10802,7 +11123,7 @@
       <c r="N652" s="9"/>
       <c r="O652" s="6"/>
     </row>
-    <row r="653" spans="6:15" ht="14.25" customHeight="1">
+    <row r="653" spans="6:15">
       <c r="F653" s="7"/>
       <c r="G653" s="7"/>
       <c r="H653" s="7"/>
@@ -10814,7 +11135,7 @@
       <c r="N653" s="9"/>
       <c r="O653" s="6"/>
     </row>
-    <row r="654" spans="6:15" ht="14.25" customHeight="1">
+    <row r="654" spans="6:15">
       <c r="F654" s="7"/>
       <c r="G654" s="7"/>
       <c r="H654" s="7"/>
@@ -10826,7 +11147,7 @@
       <c r="N654" s="9"/>
       <c r="O654" s="6"/>
     </row>
-    <row r="655" spans="6:15" ht="14.25" customHeight="1">
+    <row r="655" spans="6:15">
       <c r="F655" s="7"/>
       <c r="G655" s="7"/>
       <c r="H655" s="7"/>
@@ -10838,7 +11159,7 @@
       <c r="N655" s="9"/>
       <c r="O655" s="6"/>
     </row>
-    <row r="656" spans="6:15" ht="14.25" customHeight="1">
+    <row r="656" spans="6:15">
       <c r="F656" s="7"/>
       <c r="G656" s="7"/>
       <c r="H656" s="7"/>
@@ -10850,7 +11171,7 @@
       <c r="N656" s="9"/>
       <c r="O656" s="6"/>
     </row>
-    <row r="657" spans="6:15" ht="14.25" customHeight="1">
+    <row r="657" spans="6:15">
       <c r="F657" s="7"/>
       <c r="G657" s="7"/>
       <c r="H657" s="7"/>
@@ -10862,7 +11183,7 @@
       <c r="N657" s="9"/>
       <c r="O657" s="6"/>
     </row>
-    <row r="658" spans="6:15" ht="14.25" customHeight="1">
+    <row r="658" spans="6:15">
       <c r="F658" s="7"/>
       <c r="G658" s="7"/>
       <c r="H658" s="7"/>
@@ -10874,7 +11195,7 @@
       <c r="N658" s="9"/>
       <c r="O658" s="6"/>
     </row>
-    <row r="659" spans="6:15" ht="14.25" customHeight="1">
+    <row r="659" spans="6:15">
       <c r="F659" s="7"/>
       <c r="G659" s="7"/>
       <c r="H659" s="7"/>
@@ -10886,7 +11207,7 @@
       <c r="N659" s="9"/>
       <c r="O659" s="6"/>
     </row>
-    <row r="660" spans="6:15" ht="14.25" customHeight="1">
+    <row r="660" spans="6:15">
       <c r="F660" s="7"/>
       <c r="G660" s="7"/>
       <c r="H660" s="7"/>
@@ -10898,7 +11219,7 @@
       <c r="N660" s="9"/>
       <c r="O660" s="6"/>
     </row>
-    <row r="661" spans="6:15" ht="14.25" customHeight="1">
+    <row r="661" spans="6:15">
       <c r="F661" s="7"/>
       <c r="G661" s="7"/>
       <c r="H661" s="7"/>
@@ -10910,7 +11231,7 @@
       <c r="N661" s="9"/>
       <c r="O661" s="6"/>
     </row>
-    <row r="662" spans="6:15" ht="14.25" customHeight="1">
+    <row r="662" spans="6:15">
       <c r="F662" s="7"/>
       <c r="G662" s="7"/>
       <c r="H662" s="7"/>
@@ -10922,7 +11243,7 @@
       <c r="N662" s="9"/>
       <c r="O662" s="6"/>
     </row>
-    <row r="663" spans="6:15" ht="14.25" customHeight="1">
+    <row r="663" spans="6:15">
       <c r="F663" s="7"/>
       <c r="G663" s="7"/>
       <c r="H663" s="7"/>
@@ -10934,7 +11255,7 @@
       <c r="N663" s="9"/>
       <c r="O663" s="6"/>
     </row>
-    <row r="664" spans="6:15" ht="14.25" customHeight="1">
+    <row r="664" spans="6:15">
       <c r="F664" s="7"/>
       <c r="G664" s="7"/>
       <c r="H664" s="7"/>
@@ -10946,7 +11267,7 @@
       <c r="N664" s="9"/>
       <c r="O664" s="6"/>
     </row>
-    <row r="665" spans="6:15" ht="14.25" customHeight="1">
+    <row r="665" spans="6:15">
       <c r="F665" s="7"/>
       <c r="G665" s="7"/>
       <c r="H665" s="7"/>
@@ -10958,7 +11279,7 @@
       <c r="N665" s="9"/>
       <c r="O665" s="6"/>
     </row>
-    <row r="666" spans="6:15" ht="14.25" customHeight="1">
+    <row r="666" spans="6:15">
       <c r="F666" s="7"/>
       <c r="G666" s="7"/>
       <c r="H666" s="7"/>
@@ -10970,7 +11291,7 @@
       <c r="N666" s="9"/>
       <c r="O666" s="6"/>
     </row>
-    <row r="667" spans="6:15" ht="14.25" customHeight="1">
+    <row r="667" spans="6:15">
       <c r="F667" s="7"/>
       <c r="G667" s="7"/>
       <c r="H667" s="7"/>
@@ -10982,7 +11303,7 @@
       <c r="N667" s="9"/>
       <c r="O667" s="6"/>
     </row>
-    <row r="668" spans="6:15" ht="14.25" customHeight="1">
+    <row r="668" spans="6:15">
       <c r="F668" s="7"/>
       <c r="G668" s="7"/>
       <c r="H668" s="7"/>
@@ -10994,7 +11315,7 @@
       <c r="N668" s="9"/>
       <c r="O668" s="6"/>
     </row>
-    <row r="669" spans="6:15" ht="14.25" customHeight="1">
+    <row r="669" spans="6:15">
       <c r="F669" s="7"/>
       <c r="G669" s="7"/>
       <c r="H669" s="7"/>
@@ -11006,7 +11327,7 @@
       <c r="N669" s="9"/>
       <c r="O669" s="6"/>
     </row>
-    <row r="670" spans="6:15" ht="14.25" customHeight="1">
+    <row r="670" spans="6:15">
       <c r="F670" s="7"/>
       <c r="G670" s="7"/>
       <c r="H670" s="7"/>
@@ -11018,7 +11339,7 @@
       <c r="N670" s="9"/>
       <c r="O670" s="6"/>
     </row>
-    <row r="671" spans="6:15" ht="14.25" customHeight="1">
+    <row r="671" spans="6:15">
       <c r="F671" s="7"/>
       <c r="G671" s="7"/>
       <c r="H671" s="7"/>
@@ -11030,7 +11351,7 @@
       <c r="N671" s="9"/>
       <c r="O671" s="6"/>
     </row>
-    <row r="672" spans="6:15" ht="14.25" customHeight="1">
+    <row r="672" spans="6:15">
       <c r="F672" s="7"/>
       <c r="G672" s="7"/>
       <c r="H672" s="7"/>
@@ -11042,7 +11363,7 @@
       <c r="N672" s="9"/>
       <c r="O672" s="6"/>
     </row>
-    <row r="673" spans="6:15" ht="14.25" customHeight="1">
+    <row r="673" spans="6:15">
       <c r="F673" s="7"/>
       <c r="G673" s="7"/>
       <c r="H673" s="7"/>
@@ -11054,7 +11375,7 @@
       <c r="N673" s="9"/>
       <c r="O673" s="6"/>
     </row>
-    <row r="674" spans="6:15" ht="14.25" customHeight="1">
+    <row r="674" spans="6:15">
       <c r="F674" s="7"/>
       <c r="G674" s="7"/>
       <c r="H674" s="7"/>
@@ -11066,7 +11387,7 @@
       <c r="N674" s="9"/>
       <c r="O674" s="6"/>
     </row>
-    <row r="675" spans="6:15" ht="14.25" customHeight="1">
+    <row r="675" spans="6:15">
       <c r="F675" s="7"/>
       <c r="G675" s="7"/>
       <c r="H675" s="7"/>
@@ -11078,7 +11399,7 @@
       <c r="N675" s="9"/>
       <c r="O675" s="6"/>
     </row>
-    <row r="676" spans="6:15" ht="14.25" customHeight="1">
+    <row r="676" spans="6:15">
       <c r="F676" s="7"/>
       <c r="G676" s="7"/>
       <c r="H676" s="7"/>
@@ -11090,7 +11411,7 @@
       <c r="N676" s="9"/>
       <c r="O676" s="6"/>
     </row>
-    <row r="677" spans="6:15" ht="14.25" customHeight="1">
+    <row r="677" spans="6:15">
       <c r="F677" s="7"/>
       <c r="G677" s="7"/>
       <c r="H677" s="7"/>
@@ -11102,7 +11423,7 @@
       <c r="N677" s="9"/>
       <c r="O677" s="6"/>
     </row>
-    <row r="678" spans="6:15" ht="14.25" customHeight="1">
+    <row r="678" spans="6:15">
       <c r="F678" s="7"/>
       <c r="G678" s="7"/>
       <c r="H678" s="7"/>
@@ -11114,7 +11435,7 @@
       <c r="N678" s="9"/>
       <c r="O678" s="6"/>
     </row>
-    <row r="679" spans="6:15" ht="14.25" customHeight="1">
+    <row r="679" spans="6:15">
       <c r="F679" s="7"/>
       <c r="G679" s="7"/>
       <c r="H679" s="7"/>
@@ -11126,7 +11447,7 @@
       <c r="N679" s="9"/>
       <c r="O679" s="6"/>
     </row>
-    <row r="680" spans="6:15" ht="14.25" customHeight="1">
+    <row r="680" spans="6:15">
       <c r="F680" s="7"/>
       <c r="G680" s="7"/>
       <c r="H680" s="7"/>
@@ -11138,7 +11459,7 @@
       <c r="N680" s="9"/>
       <c r="O680" s="6"/>
     </row>
-    <row r="681" spans="6:15" ht="14.25" customHeight="1">
+    <row r="681" spans="6:15">
       <c r="F681" s="7"/>
       <c r="G681" s="7"/>
       <c r="H681" s="7"/>
@@ -11150,7 +11471,7 @@
       <c r="N681" s="9"/>
       <c r="O681" s="6"/>
     </row>
-    <row r="682" spans="6:15" ht="14.25" customHeight="1">
+    <row r="682" spans="6:15">
       <c r="F682" s="7"/>
       <c r="G682" s="7"/>
       <c r="H682" s="7"/>
@@ -11162,7 +11483,7 @@
       <c r="N682" s="9"/>
       <c r="O682" s="6"/>
     </row>
-    <row r="683" spans="6:15" ht="14.25" customHeight="1">
+    <row r="683" spans="6:15">
       <c r="F683" s="7"/>
       <c r="G683" s="7"/>
       <c r="H683" s="7"/>
@@ -11174,7 +11495,7 @@
       <c r="N683" s="9"/>
       <c r="O683" s="6"/>
     </row>
-    <row r="684" spans="6:15" ht="14.25" customHeight="1">
+    <row r="684" spans="6:15">
       <c r="F684" s="7"/>
       <c r="G684" s="7"/>
       <c r="H684" s="7"/>
@@ -11186,7 +11507,7 @@
       <c r="N684" s="9"/>
       <c r="O684" s="6"/>
     </row>
-    <row r="685" spans="6:15" ht="14.25" customHeight="1">
+    <row r="685" spans="6:15">
       <c r="F685" s="7"/>
       <c r="G685" s="7"/>
       <c r="H685" s="7"/>
@@ -11198,7 +11519,7 @@
       <c r="N685" s="9"/>
       <c r="O685" s="6"/>
     </row>
-    <row r="686" spans="6:15" ht="14.25" customHeight="1">
+    <row r="686" spans="6:15">
       <c r="F686" s="7"/>
       <c r="G686" s="7"/>
       <c r="H686" s="7"/>
@@ -11210,7 +11531,7 @@
       <c r="N686" s="9"/>
       <c r="O686" s="6"/>
     </row>
-    <row r="687" spans="6:15" ht="14.25" customHeight="1">
+    <row r="687" spans="6:15">
       <c r="F687" s="7"/>
       <c r="G687" s="7"/>
       <c r="H687" s="7"/>
@@ -11222,7 +11543,7 @@
       <c r="N687" s="9"/>
       <c r="O687" s="6"/>
     </row>
-    <row r="688" spans="6:15" ht="14.25" customHeight="1">
+    <row r="688" spans="6:15">
       <c r="F688" s="7"/>
       <c r="G688" s="7"/>
       <c r="H688" s="7"/>
@@ -11234,7 +11555,7 @@
       <c r="N688" s="9"/>
       <c r="O688" s="6"/>
     </row>
-    <row r="689" spans="6:15" ht="14.25" customHeight="1">
+    <row r="689" spans="6:15">
       <c r="F689" s="7"/>
       <c r="G689" s="7"/>
       <c r="H689" s="7"/>
@@ -11246,7 +11567,7 @@
       <c r="N689" s="9"/>
       <c r="O689" s="6"/>
     </row>
-    <row r="690" spans="6:15" ht="14.25" customHeight="1">
+    <row r="690" spans="6:15">
       <c r="F690" s="7"/>
       <c r="G690" s="7"/>
       <c r="H690" s="7"/>
@@ -11258,7 +11579,7 @@
       <c r="N690" s="9"/>
       <c r="O690" s="6"/>
     </row>
-    <row r="691" spans="6:15" ht="14.25" customHeight="1">
+    <row r="691" spans="6:15">
       <c r="F691" s="7"/>
       <c r="G691" s="7"/>
       <c r="H691" s="7"/>
@@ -11270,7 +11591,7 @@
       <c r="N691" s="9"/>
       <c r="O691" s="6"/>
     </row>
-    <row r="692" spans="6:15" ht="14.25" customHeight="1">
+    <row r="692" spans="6:15">
       <c r="F692" s="7"/>
       <c r="G692" s="7"/>
       <c r="H692" s="7"/>
@@ -11282,7 +11603,7 @@
       <c r="N692" s="9"/>
       <c r="O692" s="6"/>
     </row>
-    <row r="693" spans="6:15" ht="14.25" customHeight="1">
+    <row r="693" spans="6:15">
       <c r="F693" s="7"/>
       <c r="G693" s="7"/>
       <c r="H693" s="7"/>
@@ -11294,7 +11615,7 @@
       <c r="N693" s="9"/>
       <c r="O693" s="6"/>
     </row>
-    <row r="694" spans="6:15" ht="14.25" customHeight="1">
+    <row r="694" spans="6:15">
       <c r="F694" s="7"/>
       <c r="G694" s="7"/>
       <c r="H694" s="7"/>
@@ -11306,7 +11627,7 @@
       <c r="N694" s="9"/>
       <c r="O694" s="6"/>
     </row>
-    <row r="695" spans="6:15" ht="14.25" customHeight="1">
+    <row r="695" spans="6:15">
       <c r="F695" s="7"/>
       <c r="G695" s="7"/>
       <c r="H695" s="7"/>
@@ -11318,7 +11639,7 @@
       <c r="N695" s="9"/>
       <c r="O695" s="6"/>
     </row>
-    <row r="696" spans="6:15" ht="14.25" customHeight="1">
+    <row r="696" spans="6:15">
       <c r="F696" s="7"/>
       <c r="G696" s="7"/>
       <c r="H696" s="7"/>
@@ -11330,7 +11651,7 @@
       <c r="N696" s="9"/>
       <c r="O696" s="6"/>
     </row>
-    <row r="697" spans="6:15" ht="14.25" customHeight="1">
+    <row r="697" spans="6:15">
       <c r="F697" s="7"/>
       <c r="G697" s="7"/>
       <c r="H697" s="7"/>
@@ -11342,7 +11663,7 @@
       <c r="N697" s="9"/>
       <c r="O697" s="6"/>
     </row>
-    <row r="698" spans="6:15" ht="14.25" customHeight="1">
+    <row r="698" spans="6:15">
       <c r="F698" s="7"/>
       <c r="G698" s="7"/>
       <c r="H698" s="7"/>
@@ -11354,7 +11675,7 @@
       <c r="N698" s="9"/>
       <c r="O698" s="6"/>
     </row>
-    <row r="699" spans="6:15" ht="14.25" customHeight="1">
+    <row r="699" spans="6:15">
       <c r="F699" s="7"/>
       <c r="G699" s="7"/>
       <c r="H699" s="7"/>
@@ -11366,7 +11687,7 @@
       <c r="N699" s="9"/>
       <c r="O699" s="6"/>
     </row>
-    <row r="700" spans="6:15" ht="14.25" customHeight="1">
+    <row r="700" spans="6:15">
       <c r="F700" s="7"/>
       <c r="G700" s="7"/>
       <c r="H700" s="7"/>
@@ -11378,7 +11699,7 @@
       <c r="N700" s="9"/>
       <c r="O700" s="6"/>
     </row>
-    <row r="701" spans="6:15" ht="14.25" customHeight="1">
+    <row r="701" spans="6:15">
       <c r="F701" s="7"/>
       <c r="G701" s="7"/>
       <c r="H701" s="7"/>
@@ -11390,7 +11711,7 @@
       <c r="N701" s="9"/>
       <c r="O701" s="6"/>
     </row>
-    <row r="702" spans="6:15" ht="14.25" customHeight="1">
+    <row r="702" spans="6:15">
       <c r="F702" s="7"/>
       <c r="G702" s="7"/>
       <c r="H702" s="7"/>
@@ -11402,7 +11723,7 @@
       <c r="N702" s="9"/>
       <c r="O702" s="6"/>
     </row>
-    <row r="703" spans="6:15" ht="14.25" customHeight="1">
+    <row r="703" spans="6:15">
       <c r="F703" s="7"/>
       <c r="G703" s="7"/>
       <c r="H703" s="7"/>
@@ -11414,7 +11735,7 @@
       <c r="N703" s="9"/>
       <c r="O703" s="6"/>
     </row>
-    <row r="704" spans="6:15" ht="14.25" customHeight="1">
+    <row r="704" spans="6:15">
       <c r="F704" s="7"/>
       <c r="G704" s="7"/>
       <c r="H704" s="7"/>
@@ -11426,7 +11747,7 @@
       <c r="N704" s="9"/>
       <c r="O704" s="6"/>
     </row>
-    <row r="705" spans="6:15" ht="14.25" customHeight="1">
+    <row r="705" spans="6:15">
       <c r="F705" s="7"/>
       <c r="G705" s="7"/>
       <c r="H705" s="7"/>
@@ -11438,7 +11759,7 @@
       <c r="N705" s="9"/>
       <c r="O705" s="6"/>
     </row>
-    <row r="706" spans="6:15" ht="14.25" customHeight="1">
+    <row r="706" spans="6:15">
       <c r="F706" s="7"/>
       <c r="G706" s="7"/>
       <c r="H706" s="7"/>
@@ -11450,7 +11771,7 @@
       <c r="N706" s="9"/>
       <c r="O706" s="6"/>
     </row>
-    <row r="707" spans="6:15" ht="14.25" customHeight="1">
+    <row r="707" spans="6:15">
       <c r="F707" s="7"/>
       <c r="G707" s="7"/>
       <c r="H707" s="7"/>
@@ -11462,7 +11783,7 @@
       <c r="N707" s="9"/>
       <c r="O707" s="6"/>
     </row>
-    <row r="708" spans="6:15" ht="14.25" customHeight="1">
+    <row r="708" spans="6:15">
       <c r="F708" s="7"/>
       <c r="G708" s="7"/>
       <c r="H708" s="7"/>
@@ -11474,7 +11795,7 @@
       <c r="N708" s="9"/>
       <c r="O708" s="6"/>
     </row>
-    <row r="709" spans="6:15" ht="14.25" customHeight="1">
+    <row r="709" spans="6:15">
       <c r="F709" s="7"/>
       <c r="G709" s="7"/>
       <c r="H709" s="7"/>
@@ -11486,7 +11807,7 @@
       <c r="N709" s="9"/>
       <c r="O709" s="6"/>
     </row>
-    <row r="710" spans="6:15" ht="14.25" customHeight="1">
+    <row r="710" spans="6:15">
       <c r="F710" s="7"/>
       <c r="G710" s="7"/>
       <c r="H710" s="7"/>
@@ -11498,7 +11819,7 @@
       <c r="N710" s="9"/>
       <c r="O710" s="6"/>
     </row>
-    <row r="711" spans="6:15" ht="14.25" customHeight="1">
+    <row r="711" spans="6:15">
       <c r="F711" s="7"/>
       <c r="G711" s="7"/>
       <c r="H711" s="7"/>
@@ -11510,7 +11831,7 @@
       <c r="N711" s="9"/>
       <c r="O711" s="6"/>
     </row>
-    <row r="712" spans="6:15" ht="14.25" customHeight="1">
+    <row r="712" spans="6:15">
       <c r="F712" s="7"/>
       <c r="G712" s="7"/>
       <c r="H712" s="7"/>
@@ -11522,7 +11843,7 @@
       <c r="N712" s="9"/>
       <c r="O712" s="6"/>
     </row>
-    <row r="713" spans="6:15" ht="14.25" customHeight="1">
+    <row r="713" spans="6:15">
       <c r="F713" s="7"/>
       <c r="G713" s="7"/>
       <c r="H713" s="7"/>
@@ -11534,7 +11855,7 @@
       <c r="N713" s="9"/>
       <c r="O713" s="6"/>
     </row>
-    <row r="714" spans="6:15" ht="14.25" customHeight="1">
+    <row r="714" spans="6:15">
       <c r="F714" s="7"/>
       <c r="G714" s="7"/>
       <c r="H714" s="7"/>
@@ -11546,7 +11867,7 @@
       <c r="N714" s="9"/>
       <c r="O714" s="6"/>
     </row>
-    <row r="715" spans="6:15" ht="14.25" customHeight="1">
+    <row r="715" spans="6:15">
       <c r="F715" s="7"/>
       <c r="G715" s="7"/>
       <c r="H715" s="7"/>
@@ -11558,7 +11879,7 @@
       <c r="N715" s="9"/>
       <c r="O715" s="6"/>
     </row>
-    <row r="716" spans="6:15" ht="14.25" customHeight="1">
+    <row r="716" spans="6:15">
       <c r="F716" s="7"/>
       <c r="G716" s="7"/>
       <c r="H716" s="7"/>
@@ -11570,7 +11891,7 @@
       <c r="N716" s="9"/>
       <c r="O716" s="6"/>
     </row>
-    <row r="717" spans="6:15" ht="14.25" customHeight="1">
+    <row r="717" spans="6:15">
       <c r="F717" s="7"/>
       <c r="G717" s="7"/>
       <c r="H717" s="7"/>
@@ -11582,7 +11903,7 @@
       <c r="N717" s="9"/>
       <c r="O717" s="6"/>
     </row>
-    <row r="718" spans="6:15" ht="14.25" customHeight="1">
+    <row r="718" spans="6:15">
       <c r="F718" s="7"/>
       <c r="G718" s="7"/>
       <c r="H718" s="7"/>
@@ -11594,7 +11915,7 @@
       <c r="N718" s="9"/>
       <c r="O718" s="6"/>
     </row>
-    <row r="719" spans="6:15" ht="14.25" customHeight="1">
+    <row r="719" spans="6:15">
       <c r="F719" s="7"/>
       <c r="G719" s="7"/>
       <c r="H719" s="7"/>
@@ -11606,7 +11927,7 @@
       <c r="N719" s="9"/>
       <c r="O719" s="6"/>
     </row>
-    <row r="720" spans="6:15" ht="14.25" customHeight="1">
+    <row r="720" spans="6:15">
       <c r="F720" s="7"/>
       <c r="G720" s="7"/>
       <c r="H720" s="7"/>
@@ -11618,7 +11939,7 @@
       <c r="N720" s="9"/>
       <c r="O720" s="6"/>
     </row>
-    <row r="721" spans="6:15" ht="14.25" customHeight="1">
+    <row r="721" spans="6:15">
       <c r="F721" s="7"/>
       <c r="G721" s="7"/>
       <c r="H721" s="7"/>
@@ -11630,7 +11951,7 @@
       <c r="N721" s="9"/>
       <c r="O721" s="6"/>
     </row>
-    <row r="722" spans="6:15" ht="14.25" customHeight="1">
+    <row r="722" spans="6:15">
       <c r="F722" s="7"/>
       <c r="G722" s="7"/>
       <c r="H722" s="7"/>
@@ -11642,7 +11963,7 @@
       <c r="N722" s="9"/>
       <c r="O722" s="6"/>
     </row>
-    <row r="723" spans="6:15" ht="14.25" customHeight="1">
+    <row r="723" spans="6:15">
       <c r="F723" s="7"/>
       <c r="G723" s="7"/>
       <c r="H723" s="7"/>
@@ -11654,7 +11975,7 @@
       <c r="N723" s="9"/>
       <c r="O723" s="6"/>
     </row>
-    <row r="724" spans="6:15" ht="14.25" customHeight="1">
+    <row r="724" spans="6:15">
       <c r="F724" s="7"/>
       <c r="G724" s="7"/>
       <c r="H724" s="7"/>
@@ -11666,7 +11987,7 @@
       <c r="N724" s="9"/>
       <c r="O724" s="6"/>
     </row>
-    <row r="725" spans="6:15" ht="14.25" customHeight="1">
+    <row r="725" spans="6:15">
       <c r="F725" s="7"/>
       <c r="G725" s="7"/>
       <c r="H725" s="7"/>
@@ -11678,7 +11999,7 @@
       <c r="N725" s="9"/>
       <c r="O725" s="6"/>
     </row>
-    <row r="726" spans="6:15" ht="14.25" customHeight="1">
+    <row r="726" spans="6:15">
       <c r="F726" s="7"/>
       <c r="G726" s="7"/>
       <c r="H726" s="7"/>
@@ -11690,7 +12011,7 @@
       <c r="N726" s="9"/>
       <c r="O726" s="6"/>
     </row>
-    <row r="727" spans="6:15" ht="14.25" customHeight="1">
+    <row r="727" spans="6:15">
       <c r="F727" s="7"/>
       <c r="G727" s="7"/>
       <c r="H727" s="7"/>
@@ -11702,7 +12023,7 @@
       <c r="N727" s="9"/>
       <c r="O727" s="6"/>
     </row>
-    <row r="728" spans="6:15" ht="14.25" customHeight="1">
+    <row r="728" spans="6:15">
       <c r="F728" s="7"/>
       <c r="G728" s="7"/>
       <c r="H728" s="7"/>
@@ -11714,7 +12035,7 @@
       <c r="N728" s="9"/>
       <c r="O728" s="6"/>
     </row>
-    <row r="729" spans="6:15" ht="14.25" customHeight="1">
+    <row r="729" spans="6:15">
       <c r="F729" s="7"/>
       <c r="G729" s="7"/>
       <c r="H729" s="7"/>
@@ -11726,7 +12047,7 @@
       <c r="N729" s="9"/>
       <c r="O729" s="6"/>
     </row>
-    <row r="730" spans="6:15" ht="14.25" customHeight="1">
+    <row r="730" spans="6:15">
       <c r="F730" s="7"/>
       <c r="G730" s="7"/>
       <c r="H730" s="7"/>
@@ -11738,7 +12059,7 @@
       <c r="N730" s="9"/>
       <c r="O730" s="6"/>
     </row>
-    <row r="731" spans="6:15" ht="14.25" customHeight="1">
+    <row r="731" spans="6:15">
       <c r="F731" s="7"/>
       <c r="G731" s="7"/>
       <c r="H731" s="7"/>
@@ -11750,7 +12071,7 @@
       <c r="N731" s="9"/>
       <c r="O731" s="6"/>
     </row>
-    <row r="732" spans="6:15" ht="14.25" customHeight="1">
+    <row r="732" spans="6:15">
       <c r="F732" s="7"/>
       <c r="G732" s="7"/>
       <c r="H732" s="7"/>
@@ -11762,7 +12083,7 @@
       <c r="N732" s="9"/>
       <c r="O732" s="6"/>
     </row>
-    <row r="733" spans="6:15" ht="14.25" customHeight="1">
+    <row r="733" spans="6:15">
       <c r="F733" s="7"/>
       <c r="G733" s="7"/>
       <c r="H733" s="7"/>
@@ -11774,7 +12095,7 @@
       <c r="N733" s="9"/>
       <c r="O733" s="6"/>
     </row>
-    <row r="734" spans="6:15" ht="14.25" customHeight="1">
+    <row r="734" spans="6:15">
       <c r="F734" s="7"/>
       <c r="G734" s="7"/>
       <c r="H734" s="7"/>
@@ -11786,7 +12107,7 @@
       <c r="N734" s="9"/>
       <c r="O734" s="6"/>
     </row>
-    <row r="735" spans="6:15" ht="14.25" customHeight="1">
+    <row r="735" spans="6:15">
       <c r="F735" s="7"/>
       <c r="G735" s="7"/>
       <c r="H735" s="7"/>
@@ -11798,7 +12119,7 @@
       <c r="N735" s="9"/>
       <c r="O735" s="6"/>
     </row>
-    <row r="736" spans="6:15" ht="14.25" customHeight="1">
+    <row r="736" spans="6:15">
       <c r="F736" s="7"/>
       <c r="G736" s="7"/>
       <c r="H736" s="7"/>
@@ -11810,7 +12131,7 @@
       <c r="N736" s="9"/>
       <c r="O736" s="6"/>
     </row>
-    <row r="737" spans="6:15" ht="14.25" customHeight="1">
+    <row r="737" spans="6:15">
       <c r="F737" s="7"/>
       <c r="G737" s="7"/>
       <c r="H737" s="7"/>
@@ -11822,7 +12143,7 @@
       <c r="N737" s="9"/>
       <c r="O737" s="6"/>
     </row>
-    <row r="738" spans="6:15" ht="14.25" customHeight="1">
+    <row r="738" spans="6:15">
       <c r="F738" s="7"/>
       <c r="G738" s="7"/>
       <c r="H738" s="7"/>
@@ -11834,7 +12155,7 @@
       <c r="N738" s="9"/>
       <c r="O738" s="6"/>
     </row>
-    <row r="739" spans="6:15" ht="14.25" customHeight="1">
+    <row r="739" spans="6:15">
       <c r="F739" s="7"/>
       <c r="G739" s="7"/>
       <c r="H739" s="7"/>
@@ -11846,7 +12167,7 @@
       <c r="N739" s="9"/>
       <c r="O739" s="6"/>
     </row>
-    <row r="740" spans="6:15" ht="14.25" customHeight="1">
+    <row r="740" spans="6:15">
       <c r="F740" s="7"/>
       <c r="G740" s="7"/>
       <c r="H740" s="7"/>
@@ -11858,7 +12179,7 @@
       <c r="N740" s="9"/>
       <c r="O740" s="6"/>
     </row>
-    <row r="741" spans="6:15" ht="14.25" customHeight="1">
+    <row r="741" spans="6:15">
       <c r="F741" s="7"/>
       <c r="G741" s="7"/>
       <c r="H741" s="7"/>
@@ -11870,7 +12191,7 @@
       <c r="N741" s="9"/>
       <c r="O741" s="6"/>
     </row>
-    <row r="742" spans="6:15" ht="14.25" customHeight="1">
+    <row r="742" spans="6:15">
       <c r="F742" s="7"/>
       <c r="G742" s="7"/>
       <c r="H742" s="7"/>
@@ -11882,7 +12203,7 @@
       <c r="N742" s="9"/>
       <c r="O742" s="6"/>
     </row>
-    <row r="743" spans="6:15" ht="14.25" customHeight="1">
+    <row r="743" spans="6:15">
       <c r="F743" s="7"/>
       <c r="G743" s="7"/>
       <c r="H743" s="7"/>
@@ -11894,7 +12215,7 @@
       <c r="N743" s="9"/>
       <c r="O743" s="6"/>
     </row>
-    <row r="744" spans="6:15" ht="14.25" customHeight="1">
+    <row r="744" spans="6:15">
       <c r="F744" s="7"/>
       <c r="G744" s="7"/>
       <c r="H744" s="7"/>
@@ -11906,7 +12227,7 @@
       <c r="N744" s="9"/>
       <c r="O744" s="6"/>
     </row>
-    <row r="745" spans="6:15" ht="14.25" customHeight="1">
+    <row r="745" spans="6:15">
       <c r="F745" s="7"/>
       <c r="G745" s="7"/>
       <c r="H745" s="7"/>
@@ -11918,7 +12239,7 @@
       <c r="N745" s="9"/>
       <c r="O745" s="6"/>
     </row>
-    <row r="746" spans="6:15" ht="14.25" customHeight="1">
+    <row r="746" spans="6:15">
       <c r="F746" s="7"/>
       <c r="G746" s="7"/>
       <c r="H746" s="7"/>
@@ -11930,7 +12251,7 @@
       <c r="N746" s="9"/>
       <c r="O746" s="6"/>
     </row>
-    <row r="747" spans="6:15" ht="14.25" customHeight="1">
+    <row r="747" spans="6:15">
       <c r="F747" s="7"/>
       <c r="G747" s="7"/>
       <c r="H747" s="7"/>
@@ -11942,7 +12263,7 @@
       <c r="N747" s="9"/>
       <c r="O747" s="6"/>
     </row>
-    <row r="748" spans="6:15" ht="14.25" customHeight="1">
+    <row r="748" spans="6:15">
       <c r="F748" s="7"/>
       <c r="G748" s="7"/>
       <c r="H748" s="7"/>
@@ -11954,7 +12275,7 @@
       <c r="N748" s="9"/>
       <c r="O748" s="6"/>
     </row>
-    <row r="749" spans="6:15" ht="14.25" customHeight="1">
+    <row r="749" spans="6:15">
       <c r="F749" s="7"/>
       <c r="G749" s="7"/>
       <c r="H749" s="7"/>
@@ -11966,7 +12287,7 @@
       <c r="N749" s="9"/>
       <c r="O749" s="6"/>
     </row>
-    <row r="750" spans="6:15" ht="14.25" customHeight="1">
+    <row r="750" spans="6:15">
       <c r="F750" s="7"/>
       <c r="G750" s="7"/>
       <c r="H750" s="7"/>
@@ -11978,7 +12299,7 @@
       <c r="N750" s="9"/>
       <c r="O750" s="6"/>
     </row>
-    <row r="751" spans="6:15" ht="14.25" customHeight="1">
+    <row r="751" spans="6:15">
       <c r="F751" s="7"/>
       <c r="G751" s="7"/>
       <c r="H751" s="7"/>
@@ -11990,7 +12311,7 @@
       <c r="N751" s="9"/>
       <c r="O751" s="6"/>
     </row>
-    <row r="752" spans="6:15" ht="14.25" customHeight="1">
+    <row r="752" spans="6:15">
       <c r="F752" s="7"/>
       <c r="G752" s="7"/>
       <c r="H752" s="7"/>
@@ -12002,7 +12323,7 @@
       <c r="N752" s="9"/>
       <c r="O752" s="6"/>
     </row>
-    <row r="753" spans="6:15" ht="14.25" customHeight="1">
+    <row r="753" spans="6:15">
       <c r="F753" s="7"/>
       <c r="G753" s="7"/>
       <c r="H753" s="7"/>
@@ -12014,7 +12335,7 @@
       <c r="N753" s="9"/>
       <c r="O753" s="6"/>
     </row>
-    <row r="754" spans="6:15" ht="14.25" customHeight="1">
+    <row r="754" spans="6:15">
       <c r="F754" s="7"/>
       <c r="G754" s="7"/>
       <c r="H754" s="7"/>
@@ -12026,7 +12347,7 @@
       <c r="N754" s="9"/>
       <c r="O754" s="6"/>
     </row>
-    <row r="755" spans="6:15" ht="14.25" customHeight="1">
+    <row r="755" spans="6:15">
       <c r="F755" s="7"/>
       <c r="G755" s="7"/>
       <c r="H755" s="7"/>
@@ -12038,7 +12359,7 @@
       <c r="N755" s="9"/>
       <c r="O755" s="6"/>
     </row>
-    <row r="756" spans="6:15" ht="14.25" customHeight="1">
+    <row r="756" spans="6:15">
       <c r="F756" s="7"/>
       <c r="G756" s="7"/>
       <c r="H756" s="7"/>
@@ -12050,7 +12371,7 @@
       <c r="N756" s="9"/>
       <c r="O756" s="6"/>
     </row>
-    <row r="757" spans="6:15" ht="14.25" customHeight="1">
+    <row r="757" spans="6:15">
       <c r="F757" s="7"/>
       <c r="G757" s="7"/>
       <c r="H757" s="7"/>
@@ -12062,7 +12383,7 @@
       <c r="N757" s="9"/>
       <c r="O757" s="6"/>
     </row>
-    <row r="758" spans="6:15" ht="14.25" customHeight="1">
+    <row r="758" spans="6:15">
       <c r="F758" s="7"/>
       <c r="G758" s="7"/>
       <c r="H758" s="7"/>
@@ -12074,7 +12395,7 @@
       <c r="N758" s="9"/>
       <c r="O758" s="6"/>
     </row>
-    <row r="759" spans="6:15" ht="14.25" customHeight="1">
+    <row r="759" spans="6:15">
       <c r="F759" s="7"/>
       <c r="G759" s="7"/>
       <c r="H759" s="7"/>
@@ -12086,7 +12407,7 @@
       <c r="N759" s="9"/>
       <c r="O759" s="6"/>
     </row>
-    <row r="760" spans="6:15" ht="14.25" customHeight="1">
+    <row r="760" spans="6:15">
       <c r="F760" s="7"/>
       <c r="G760" s="7"/>
       <c r="H760" s="7"/>
@@ -12098,7 +12419,7 @@
       <c r="N760" s="9"/>
       <c r="O760" s="6"/>
     </row>
-    <row r="761" spans="6:15" ht="14.25" customHeight="1">
+    <row r="761" spans="6:15">
       <c r="F761" s="7"/>
       <c r="G761" s="7"/>
       <c r="H761" s="7"/>
@@ -12110,7 +12431,7 @@
       <c r="N761" s="9"/>
       <c r="O761" s="6"/>
     </row>
-    <row r="762" spans="6:15" ht="14.25" customHeight="1">
+    <row r="762" spans="6:15">
       <c r="F762" s="7"/>
       <c r="G762" s="7"/>
       <c r="H762" s="7"/>
@@ -12122,7 +12443,7 @@
       <c r="N762" s="9"/>
       <c r="O762" s="6"/>
     </row>
-    <row r="763" spans="6:15" ht="14.25" customHeight="1">
+    <row r="763" spans="6:15">
       <c r="F763" s="7"/>
       <c r="G763" s="7"/>
       <c r="H763" s="7"/>
@@ -12134,7 +12455,7 @@
       <c r="N763" s="9"/>
       <c r="O763" s="6"/>
     </row>
-    <row r="764" spans="6:15" ht="14.25" customHeight="1">
+    <row r="764" spans="6:15">
       <c r="F764" s="7"/>
       <c r="G764" s="7"/>
       <c r="H764" s="7"/>
@@ -12146,7 +12467,7 @@
       <c r="N764" s="9"/>
       <c r="O764" s="6"/>
     </row>
-    <row r="765" spans="6:15" ht="14.25" customHeight="1">
+    <row r="765" spans="6:15">
       <c r="F765" s="7"/>
       <c r="G765" s="7"/>
       <c r="H765" s="7"/>
@@ -12158,7 +12479,7 @@
       <c r="N765" s="9"/>
       <c r="O765" s="6"/>
     </row>
-    <row r="766" spans="6:15" ht="14.25" customHeight="1">
+    <row r="766" spans="6:15">
       <c r="F766" s="7"/>
       <c r="G766" s="7"/>
       <c r="H766" s="7"/>
@@ -12170,7 +12491,7 @@
       <c r="N766" s="9"/>
       <c r="O766" s="6"/>
     </row>
-    <row r="767" spans="6:15" ht="14.25" customHeight="1">
+    <row r="767" spans="6:15">
       <c r="F767" s="7"/>
       <c r="G767" s="7"/>
       <c r="H767" s="7"/>
@@ -12182,7 +12503,7 @@
       <c r="N767" s="9"/>
       <c r="O767" s="6"/>
     </row>
-    <row r="768" spans="6:15" ht="14.25" customHeight="1">
+    <row r="768" spans="6:15">
       <c r="F768" s="7"/>
       <c r="G768" s="7"/>
       <c r="H768" s="7"/>
@@ -12194,7 +12515,7 @@
       <c r="N768" s="9"/>
       <c r="O768" s="6"/>
     </row>
-    <row r="769" spans="6:15" ht="14.25" customHeight="1">
+    <row r="769" spans="6:15">
       <c r="F769" s="7"/>
       <c r="G769" s="7"/>
       <c r="H769" s="7"/>
@@ -12206,7 +12527,7 @@
       <c r="N769" s="9"/>
       <c r="O769" s="6"/>
     </row>
-    <row r="770" spans="6:15" ht="14.25" customHeight="1">
+    <row r="770" spans="6:15">
       <c r="F770" s="7"/>
       <c r="G770" s="7"/>
       <c r="H770" s="7"/>
@@ -12218,7 +12539,7 @@
       <c r="N770" s="9"/>
       <c r="O770" s="6"/>
     </row>
-    <row r="771" spans="6:15" ht="14.25" customHeight="1">
+    <row r="771" spans="6:15">
       <c r="F771" s="7"/>
       <c r="G771" s="7"/>
       <c r="H771" s="7"/>
@@ -12230,7 +12551,7 @@
       <c r="N771" s="9"/>
       <c r="O771" s="6"/>
     </row>
-    <row r="772" spans="6:15" ht="14.25" customHeight="1">
+    <row r="772" spans="6:15">
       <c r="F772" s="7"/>
       <c r="G772" s="7"/>
       <c r="H772" s="7"/>
@@ -12242,7 +12563,7 @@
       <c r="N772" s="9"/>
       <c r="O772" s="6"/>
     </row>
-    <row r="773" spans="6:15" ht="14.25" customHeight="1">
+    <row r="773" spans="6:15">
       <c r="F773" s="7"/>
       <c r="G773" s="7"/>
       <c r="H773" s="7"/>
@@ -12254,7 +12575,7 @@
       <c r="N773" s="9"/>
       <c r="O773" s="6"/>
     </row>
-    <row r="774" spans="6:15" ht="14.25" customHeight="1">
+    <row r="774" spans="6:15">
       <c r="F774" s="7"/>
       <c r="G774" s="7"/>
       <c r="H774" s="7"/>
@@ -12266,7 +12587,7 @@
       <c r="N774" s="9"/>
       <c r="O774" s="6"/>
     </row>
-    <row r="775" spans="6:15" ht="14.25" customHeight="1">
+    <row r="775" spans="6:15">
       <c r="F775" s="7"/>
       <c r="G775" s="7"/>
       <c r="H775" s="7"/>
@@ -12278,7 +12599,7 @@
       <c r="N775" s="9"/>
       <c r="O775" s="6"/>
     </row>
-    <row r="776" spans="6:15" ht="14.25" customHeight="1">
+    <row r="776" spans="6:15">
       <c r="F776" s="7"/>
       <c r="G776" s="7"/>
       <c r="H776" s="7"/>
@@ -12290,7 +12611,7 @@
       <c r="N776" s="9"/>
       <c r="O776" s="6"/>
     </row>
-    <row r="777" spans="6:15" ht="14.25" customHeight="1">
+    <row r="777" spans="6:15">
       <c r="F777" s="7"/>
       <c r="G777" s="7"/>
       <c r="H777" s="7"/>
@@ -12302,7 +12623,7 @@
       <c r="N777" s="9"/>
       <c r="O777" s="6"/>
     </row>
-    <row r="778" spans="6:15" ht="14.25" customHeight="1">
+    <row r="778" spans="6:15">
       <c r="F778" s="7"/>
       <c r="G778" s="7"/>
       <c r="H778" s="7"/>
@@ -12314,7 +12635,7 @@
       <c r="N778" s="9"/>
       <c r="O778" s="6"/>
     </row>
-    <row r="779" spans="6:15" ht="14.25" customHeight="1">
+    <row r="779" spans="6:15">
       <c r="F779" s="7"/>
       <c r="G779" s="7"/>
       <c r="H779" s="7"/>
@@ -12326,7 +12647,7 @@
       <c r="N779" s="9"/>
       <c r="O779" s="6"/>
     </row>
-    <row r="780" spans="6:15" ht="14.25" customHeight="1">
+    <row r="780" spans="6:15">
       <c r="F780" s="7"/>
       <c r="G780" s="7"/>
       <c r="H780" s="7"/>
@@ -12338,7 +12659,7 @@
       <c r="N780" s="9"/>
       <c r="O780" s="6"/>
     </row>
-    <row r="781" spans="6:15" ht="14.25" customHeight="1">
+    <row r="781" spans="6:15">
       <c r="F781" s="7"/>
       <c r="G781" s="7"/>
       <c r="H781" s="7"/>
@@ -12350,7 +12671,7 @@
       <c r="N781" s="9"/>
       <c r="O781" s="6"/>
     </row>
-    <row r="782" spans="6:15" ht="14.25" customHeight="1">
+    <row r="782" spans="6:15">
       <c r="F782" s="7"/>
       <c r="G782" s="7"/>
       <c r="H782" s="7"/>
@@ -12362,7 +12683,7 @@
       <c r="N782" s="9"/>
       <c r="O782" s="6"/>
     </row>
-    <row r="783" spans="6:15" ht="14.25" customHeight="1">
+    <row r="783" spans="6:15">
       <c r="F783" s="7"/>
       <c r="G783" s="7"/>
       <c r="H783" s="7"/>
@@ -12374,7 +12695,7 @@
       <c r="N783" s="9"/>
       <c r="O783" s="6"/>
     </row>
-    <row r="784" spans="6:15" ht="14.25" customHeight="1">
+    <row r="784" spans="6:15">
       <c r="F784" s="7"/>
       <c r="G784" s="7"/>
       <c r="H784" s="7"/>
@@ -12386,7 +12707,7 @@
       <c r="N784" s="9"/>
       <c r="O784" s="6"/>
     </row>
-    <row r="785" spans="6:15" ht="14.25" customHeight="1">
+    <row r="785" spans="6:15">
       <c r="F785" s="7"/>
       <c r="G785" s="7"/>
       <c r="H785" s="7"/>
@@ -12398,7 +12719,7 @@
       <c r="N785" s="9"/>
       <c r="O785" s="6"/>
     </row>
-    <row r="786" spans="6:15" ht="14.25" customHeight="1">
+    <row r="786" spans="6:15">
       <c r="F786" s="7"/>
       <c r="G786" s="7"/>
       <c r="H786" s="7"/>
@@ -12410,7 +12731,7 @@
       <c r="N786" s="9"/>
       <c r="O786" s="6"/>
     </row>
-    <row r="787" spans="6:15" ht="14.25" customHeight="1">
+    <row r="787" spans="6:15">
       <c r="F787" s="7"/>
       <c r="G787" s="7"/>
       <c r="H787" s="7"/>
@@ -12422,7 +12743,7 @@
       <c r="N787" s="9"/>
       <c r="O787" s="6"/>
     </row>
-    <row r="788" spans="6:15" ht="14.25" customHeight="1">
+    <row r="788" spans="6:15">
       <c r="F788" s="7"/>
       <c r="G788" s="7"/>
       <c r="H788" s="7"/>
@@ -12434,7 +12755,7 @@
       <c r="N788" s="9"/>
       <c r="O788" s="6"/>
     </row>
-    <row r="789" spans="6:15" ht="14.25" customHeight="1">
+    <row r="789" spans="6:15">
       <c r="F789" s="7"/>
       <c r="G789" s="7"/>
       <c r="H789" s="7"/>
@@ -12446,7 +12767,7 @@
       <c r="N789" s="9"/>
       <c r="O789" s="6"/>
     </row>
-    <row r="790" spans="6:15" ht="14.25" customHeight="1">
+    <row r="790" spans="6:15">
       <c r="F790" s="7"/>
       <c r="G790" s="7"/>
       <c r="H790" s="7"/>
@@ -12458,7 +12779,7 @@
       <c r="N790" s="9"/>
       <c r="O790" s="6"/>
     </row>
-    <row r="791" spans="6:15" ht="14.25" customHeight="1">
+    <row r="791" spans="6:15">
       <c r="F791" s="7"/>
       <c r="G791" s="7"/>
       <c r="H791" s="7"/>
@@ -12470,7 +12791,7 @@
       <c r="N791" s="9"/>
       <c r="O791" s="6"/>
     </row>
-    <row r="792" spans="6:15" ht="14.25" customHeight="1">
+    <row r="792" spans="6:15">
       <c r="F792" s="7"/>
       <c r="G792" s="7"/>
       <c r="H792" s="7"/>
@@ -12482,7 +12803,7 @@
       <c r="N792" s="9"/>
       <c r="O792" s="6"/>
     </row>
-    <row r="793" spans="6:15" ht="14.25" customHeight="1">
+    <row r="793" spans="6:15">
       <c r="F793" s="7"/>
       <c r="G793" s="7"/>
       <c r="H793" s="7"/>
@@ -12494,7 +12815,7 @@
       <c r="N793" s="9"/>
       <c r="O793" s="6"/>
     </row>
-    <row r="794" spans="6:15" ht="14.25" customHeight="1">
+    <row r="794" spans="6:15">
       <c r="F794" s="7"/>
       <c r="G794" s="7"/>
       <c r="H794" s="7"/>
@@ -12506,7 +12827,7 @@
       <c r="N794" s="9"/>
       <c r="O794" s="6"/>
     </row>
-    <row r="795" spans="6:15" ht="14.25" customHeight="1">
+    <row r="795" spans="6:15">
       <c r="F795" s="7"/>
       <c r="G795" s="7"/>
       <c r="H795" s="7"/>
@@ -12518,7 +12839,7 @@
       <c r="N795" s="9"/>
       <c r="O795" s="6"/>
     </row>
-    <row r="796" spans="6:15" ht="14.25" customHeight="1">
+    <row r="796" spans="6:15">
       <c r="F796" s="7"/>
       <c r="G796" s="7"/>
       <c r="H796" s="7"/>
@@ -12530,7 +12851,7 @@
       <c r="N796" s="9"/>
       <c r="O796" s="6"/>
     </row>
-    <row r="797" spans="6:15" ht="14.25" customHeight="1">
+    <row r="797" spans="6:15">
       <c r="F797" s="7"/>
       <c r="G797" s="7"/>
       <c r="H797" s="7"/>
@@ -12542,7 +12863,7 @@
       <c r="N797" s="9"/>
       <c r="O797" s="6"/>
     </row>
-    <row r="798" spans="6:15" ht="14.25" customHeight="1">
+    <row r="798" spans="6:15">
       <c r="F798" s="7"/>
       <c r="G798" s="7"/>
       <c r="H798" s="7"/>
@@ -12554,7 +12875,7 @@
       <c r="N798" s="9"/>
       <c r="O798" s="6"/>
     </row>
-    <row r="799" spans="6:15" ht="14.25" customHeight="1">
+    <row r="799" spans="6:15">
       <c r="F799" s="7"/>
       <c r="G799" s="7"/>
       <c r="H799" s="7"/>
@@ -12566,7 +12887,7 @@
       <c r="N799" s="9"/>
       <c r="O799" s="6"/>
     </row>
-    <row r="800" spans="6:15" ht="14.25" customHeight="1">
+    <row r="800" spans="6:15">
       <c r="F800" s="7"/>
       <c r="G800" s="7"/>
       <c r="H800" s="7"/>
@@ -12578,7 +12899,7 @@
       <c r="N800" s="9"/>
       <c r="O800" s="6"/>
     </row>
-    <row r="801" spans="6:15" ht="14.25" customHeight="1">
+    <row r="801" spans="6:15">
       <c r="F801" s="7"/>
       <c r="G801" s="7"/>
       <c r="H801" s="7"/>
@@ -12590,7 +12911,7 @@
       <c r="N801" s="9"/>
       <c r="O801" s="6"/>
     </row>
-    <row r="802" spans="6:15" ht="14.25" customHeight="1">
+    <row r="802" spans="6:15">
       <c r="F802" s="7"/>
       <c r="G802" s="7"/>
       <c r="H802" s="7"/>
@@ -12602,7 +12923,7 @@
       <c r="N802" s="9"/>
       <c r="O802" s="6"/>
     </row>
-    <row r="803" spans="6:15" ht="14.25" customHeight="1">
+    <row r="803" spans="6:15">
       <c r="F803" s="7"/>
       <c r="G803" s="7"/>
       <c r="H803" s="7"/>
@@ -12614,7 +12935,7 @@
       <c r="N803" s="9"/>
       <c r="O803" s="6"/>
     </row>
-    <row r="804" spans="6:15" ht="14.25" customHeight="1">
+    <row r="804" spans="6:15">
       <c r="F804" s="7"/>
       <c r="G804" s="7"/>
       <c r="H804" s="7"/>
@@ -12626,7 +12947,7 @@
       <c r="N804" s="9"/>
       <c r="O804" s="6"/>
     </row>
-    <row r="805" spans="6:15" ht="14.25" customHeight="1">
+    <row r="805" spans="6:15">
       <c r="F805" s="7"/>
       <c r="G805" s="7"/>
       <c r="H805" s="7"/>
@@ -12638,7 +12959,7 @@
       <c r="N805" s="9"/>
       <c r="O805" s="6"/>
     </row>
-    <row r="806" spans="6:15" ht="14.25" customHeight="1">
+    <row r="806" spans="6:15">
       <c r="F806" s="7"/>
       <c r="G806" s="7"/>
       <c r="H806" s="7"/>
@@ -12650,7 +12971,7 @@
       <c r="N806" s="9"/>
       <c r="O806" s="6"/>
     </row>
-    <row r="807" spans="6:15" ht="14.25" customHeight="1">
+    <row r="807" spans="6:15">
       <c r="F807" s="7"/>
       <c r="G807" s="7"/>
       <c r="H807" s="7"/>
@@ -12662,7 +12983,7 @@
       <c r="N807" s="9"/>
       <c r="O807" s="6"/>
     </row>
-    <row r="808" spans="6:15" ht="14.25" customHeight="1">
+    <row r="808" spans="6:15">
       <c r="F808" s="7"/>
       <c r="G808" s="7"/>
       <c r="H808" s="7"/>
@@ -12674,7 +12995,7 @@
       <c r="N808" s="9"/>
       <c r="O808" s="6"/>
     </row>
-    <row r="809" spans="6:15" ht="14.25" customHeight="1">
+    <row r="809" spans="6:15">
       <c r="F809" s="7"/>
       <c r="G809" s="7"/>
       <c r="H809" s="7"/>
@@ -12686,7 +13007,7 @@
       <c r="N809" s="9"/>
       <c r="O809" s="6"/>
     </row>
-    <row r="810" spans="6:15" ht="14.25" customHeight="1">
+    <row r="810" spans="6:15">
       <c r="F810" s="7"/>
       <c r="G810" s="7"/>
       <c r="H810" s="7"/>
@@ -12698,7 +13019,7 @@
       <c r="N810" s="9"/>
       <c r="O810" s="6"/>
     </row>
-    <row r="811" spans="6:15" ht="14.25" customHeight="1">
+    <row r="811" spans="6:15">
       <c r="F811" s="7"/>
       <c r="G811" s="7"/>
       <c r="H811" s="7"/>
@@ -12710,7 +13031,7 @@
       <c r="N811" s="9"/>
       <c r="O811" s="6"/>
     </row>
-    <row r="812" spans="6:15" ht="14.25" customHeight="1">
+    <row r="812" spans="6:15">
       <c r="F812" s="7"/>
       <c r="G812" s="7"/>
       <c r="H812" s="7"/>
@@ -12722,7 +13043,7 @@
       <c r="N812" s="9"/>
       <c r="O812" s="6"/>
     </row>
-    <row r="813" spans="6:15" ht="14.25" customHeight="1">
+    <row r="813" spans="6:15">
       <c r="F813" s="7"/>
       <c r="G813" s="7"/>
       <c r="H813" s="7"/>
@@ -12734,7 +13055,7 @@
       <c r="N813" s="9"/>
       <c r="O813" s="6"/>
     </row>
-    <row r="814" spans="6:15" ht="14.25" customHeight="1">
+    <row r="814" spans="6:15">
       <c r="F814" s="7"/>
       <c r="G814" s="7"/>
       <c r="H814" s="7"/>
@@ -12746,7 +13067,7 @@
       <c r="N814" s="9"/>
       <c r="O814" s="6"/>
     </row>
-    <row r="815" spans="6:15" ht="14.25" customHeight="1">
+    <row r="815" spans="6:15">
       <c r="F815" s="7"/>
       <c r="G815" s="7"/>
       <c r="H815" s="7"/>
@@ -12758,7 +13079,7 @@
       <c r="N815" s="9"/>
       <c r="O815" s="6"/>
     </row>
-    <row r="816" spans="6:15" ht="14.25" customHeight="1">
+    <row r="816" spans="6:15">
       <c r="F816" s="7"/>
       <c r="G816" s="7"/>
       <c r="H816" s="7"/>
@@ -12770,7 +13091,7 @@
       <c r="N816" s="9"/>
       <c r="O816" s="6"/>
     </row>
-    <row r="817" spans="6:15" ht="14.25" customHeight="1">
+    <row r="817" spans="6:15">
       <c r="F817" s="7"/>
       <c r="G817" s="7"/>
       <c r="H817" s="7"/>
@@ -12782,7 +13103,7 @@
       <c r="N817" s="9"/>
       <c r="O817" s="6"/>
     </row>
-    <row r="818" spans="6:15" ht="14.25" customHeight="1">
+    <row r="818" spans="6:15">
       <c r="F818" s="7"/>
       <c r="G818" s="7"/>
       <c r="H818" s="7"/>
@@ -12794,7 +13115,7 @@
       <c r="N818" s="9"/>
       <c r="O818" s="6"/>
     </row>
-    <row r="819" spans="6:15" ht="14.25" customHeight="1">
+    <row r="819" spans="6:15">
       <c r="F819" s="7"/>
       <c r="G819" s="7"/>
       <c r="H819" s="7"/>
@@ -12806,7 +13127,7 @@
       <c r="N819" s="9"/>
       <c r="O819" s="6"/>
     </row>
-    <row r="820" spans="6:15" ht="14.25" customHeight="1">
+    <row r="820" spans="6:15">
       <c r="F820" s="7"/>
       <c r="G820" s="7"/>
       <c r="H820" s="7"/>
@@ -12818,7 +13139,7 @@
       <c r="N820" s="9"/>
       <c r="O820" s="6"/>
     </row>
-    <row r="821" spans="6:15" ht="14.25" customHeight="1">
+    <row r="821" spans="6:15">
       <c r="F821" s="7"/>
       <c r="G821" s="7"/>
       <c r="H821" s="7"/>
@@ -12830,7 +13151,7 @@
       <c r="N821" s="9"/>
       <c r="O821" s="6"/>
     </row>
-    <row r="822" spans="6:15" ht="14.25" customHeight="1">
+    <row r="822" spans="6:15">
       <c r="F822" s="7"/>
       <c r="G822" s="7"/>
       <c r="H822" s="7"/>
@@ -12842,7 +13163,7 @@
       <c r="N822" s="9"/>
       <c r="O822" s="6"/>
     </row>
-    <row r="823" spans="6:15" ht="14.25" customHeight="1">
+    <row r="823" spans="6:15">
       <c r="F823" s="7"/>
       <c r="G823" s="7"/>
       <c r="H823" s="7"/>
@@ -12854,7 +13175,7 @@
       <c r="N823" s="9"/>
       <c r="O823" s="6"/>
     </row>
-    <row r="824" spans="6:15" ht="14.25" customHeight="1">
+    <row r="824" spans="6:15">
       <c r="F824" s="7"/>
       <c r="G824" s="7"/>
       <c r="H824" s="7"/>
@@ -12866,7 +13187,7 @@
       <c r="N824" s="9"/>
       <c r="O824" s="6"/>
     </row>
-    <row r="825" spans="6:15" ht="14.25" customHeight="1">
+    <row r="825" spans="6:15">
       <c r="F825" s="7"/>
       <c r="G825" s="7"/>
       <c r="H825" s="7"/>
@@ -12878,7 +13199,7 @@
       <c r="N825" s="9"/>
       <c r="O825" s="6"/>
     </row>
-    <row r="826" spans="6:15" ht="14.25" customHeight="1">
+    <row r="826" spans="6:15">
       <c r="F826" s="7"/>
       <c r="G826" s="7"/>
       <c r="H826" s="7"/>
@@ -12890,7 +13211,7 @@
       <c r="N826" s="9"/>
       <c r="O826" s="6"/>
     </row>
-    <row r="827" spans="6:15" ht="14.25" customHeight="1">
+    <row r="827" spans="6:15">
       <c r="F827" s="7"/>
       <c r="G827" s="7"/>
       <c r="H827" s="7"/>
@@ -12902,7 +13223,7 @@
       <c r="N827" s="9"/>
       <c r="O827" s="6"/>
     </row>
-    <row r="828" spans="6:15" ht="14.25" customHeight="1">
+    <row r="828" spans="6:15">
       <c r="F828" s="7"/>
       <c r="G828" s="7"/>
       <c r="H828" s="7"/>
@@ -12914,7 +13235,7 @@
       <c r="N828" s="9"/>
       <c r="O828" s="6"/>
     </row>
-    <row r="829" spans="6:15" ht="14.25" customHeight="1">
+    <row r="829" spans="6:15">
       <c r="F829" s="7"/>
       <c r="G829" s="7"/>
       <c r="H829" s="7"/>
@@ -12926,7 +13247,7 @@
       <c r="N829" s="9"/>
       <c r="O829" s="6"/>
     </row>
-    <row r="830" spans="6:15" ht="14.25" customHeight="1">
+    <row r="830" spans="6:15">
       <c r="F830" s="7"/>
       <c r="G830" s="7"/>
       <c r="H830" s="7"/>
@@ -12938,7 +13259,7 @@
       <c r="N830" s="9"/>
       <c r="O830" s="6"/>
     </row>
-    <row r="831" spans="6:15" ht="14.25" customHeight="1">
+    <row r="831" spans="6:15">
       <c r="F831" s="7"/>
       <c r="G831" s="7"/>
       <c r="H831" s="7"/>
@@ -12950,7 +13271,7 @@
       <c r="N831" s="9"/>
       <c r="O831" s="6"/>
     </row>
-    <row r="832" spans="6:15" ht="14.25" customHeight="1">
+    <row r="832" spans="6:15">
       <c r="F832" s="7"/>
       <c r="G832" s="7"/>
       <c r="H832" s="7"/>
@@ -12962,7 +13283,7 @@
       <c r="N832" s="9"/>
       <c r="O832" s="6"/>
     </row>
-    <row r="833" spans="6:15" ht="14.25" customHeight="1">
+    <row r="833" spans="6:15">
       <c r="F833" s="7"/>
       <c r="G833" s="7"/>
       <c r="H833" s="7"/>
@@ -12974,7 +13295,7 @@
       <c r="N833" s="9"/>
       <c r="O833" s="6"/>
     </row>
-    <row r="834" spans="6:15" ht="14.25" customHeight="1">
+    <row r="834" spans="6:15">
       <c r="F834" s="7"/>
       <c r="G834" s="7"/>
       <c r="H834" s="7"/>
@@ -12986,7 +13307,7 @@
       <c r="N834" s="9"/>
       <c r="O834" s="6"/>
     </row>
-    <row r="835" spans="6:15" ht="14.25" customHeight="1">
+    <row r="835" spans="6:15">
       <c r="F835" s="7"/>
       <c r="G835" s="7"/>
       <c r="H835" s="7"/>
@@ -12998,7 +13319,7 @@
       <c r="N835" s="9"/>
       <c r="O835" s="6"/>
     </row>
-    <row r="836" spans="6:15" ht="14.25" customHeight="1">
+    <row r="836" spans="6:15">
       <c r="F836" s="7"/>
       <c r="G836" s="7"/>
       <c r="H836" s="7"/>
@@ -13010,7 +13331,7 @@
       <c r="N836" s="9"/>
       <c r="O836" s="6"/>
     </row>
-    <row r="837" spans="6:15" ht="14.25" customHeight="1">
+    <row r="837" spans="6:15">
       <c r="F837" s="7"/>
       <c r="G837" s="7"/>
       <c r="H837" s="7"/>
@@ -13022,7 +13343,7 @@
       <c r="N837" s="9"/>
       <c r="O837" s="6"/>
     </row>
-    <row r="838" spans="6:15" ht="14.25" customHeight="1">
+    <row r="838" spans="6:15">
       <c r="F838" s="7"/>
       <c r="G838" s="7"/>
       <c r="H838" s="7"/>
@@ -13034,7 +13355,7 @@
       <c r="N838" s="9"/>
       <c r="O838" s="6"/>
     </row>
-    <row r="839" spans="6:15" ht="14.25" customHeight="1">
+    <row r="839" spans="6:15">
       <c r="F839" s="7"/>
       <c r="G839" s="7"/>
       <c r="H839" s="7"/>
@@ -13046,7 +13367,7 @@
       <c r="N839" s="9"/>
       <c r="O839" s="6"/>
     </row>
-    <row r="840" spans="6:15" ht="14.25" customHeight="1">
+    <row r="840" spans="6:15">
       <c r="F840" s="7"/>
       <c r="G840" s="7"/>
       <c r="H840" s="7"/>
@@ -13058,7 +13379,7 @@
       <c r="N840" s="9"/>
       <c r="O840" s="6"/>
     </row>
-    <row r="841" spans="6:15" ht="14.25" customHeight="1">
+    <row r="841" spans="6:15">
       <c r="F841" s="7"/>
       <c r="G841" s="7"/>
       <c r="H841" s="7"/>
@@ -13070,7 +13391,7 @@
       <c r="N841" s="9"/>
       <c r="O841" s="6"/>
     </row>
-    <row r="842" spans="6:15" ht="14.25" customHeight="1">
+    <row r="842" spans="6:15">
       <c r="F842" s="7"/>
       <c r="G842" s="7"/>
       <c r="H842" s="7"/>
@@ -13082,7 +13403,7 @@
       <c r="N842" s="9"/>
       <c r="O842" s="6"/>
     </row>
-    <row r="843" spans="6:15" ht="14.25" customHeight="1">
+    <row r="843" spans="6:15">
       <c r="F843" s="7"/>
       <c r="G843" s="7"/>
       <c r="H843" s="7"/>
@@ -13094,7 +13415,7 @@
       <c r="N843" s="9"/>
       <c r="O843" s="6"/>
     </row>
-    <row r="844" spans="6:15" ht="14.25" customHeight="1">
+    <row r="844" spans="6:15">
       <c r="F844" s="7"/>
       <c r="G844" s="7"/>
       <c r="H844" s="7"/>
@@ -13106,7 +13427,7 @@
       <c r="N844" s="9"/>
       <c r="O844" s="6"/>
     </row>
-    <row r="845" spans="6:15" ht="14.25" customHeight="1">
+    <row r="845" spans="6:15">
       <c r="F845" s="7"/>
       <c r="G845" s="7"/>
       <c r="H845" s="7"/>
@@ -13118,7 +13439,7 @@
       <c r="N845" s="9"/>
       <c r="O845" s="6"/>
     </row>
-    <row r="846" spans="6:15" ht="14.25" customHeight="1">
+    <row r="846" spans="6:15">
       <c r="F846" s="7"/>
       <c r="G846" s="7"/>
       <c r="H846" s="7"/>
@@ -13130,7 +13451,7 @@
       <c r="N846" s="9"/>
       <c r="O846" s="6"/>
     </row>
-    <row r="847" spans="6:15" ht="14.25" customHeight="1">
+    <row r="847" spans="6:15">
       <c r="F847" s="7"/>
       <c r="G847" s="7"/>
       <c r="H847" s="7"/>
@@ -13142,7 +13463,7 @@
       <c r="N847" s="9"/>
       <c r="O847" s="6"/>
     </row>
-    <row r="848" spans="6:15" ht="14.25" customHeight="1">
+    <row r="848" spans="6:15">
       <c r="F848" s="7"/>
       <c r="G848" s="7"/>
       <c r="H848" s="7"/>
@@ -13154,7 +13475,7 @@
       <c r="N848" s="9"/>
       <c r="O848" s="6"/>
     </row>
-    <row r="849" spans="6:15" ht="14.25" customHeight="1">
+    <row r="849" spans="6:15">
       <c r="F849" s="7"/>
       <c r="G849" s="7"/>
       <c r="H849" s="7"/>
@@ -13166,7 +13487,7 @@
       <c r="N849" s="9"/>
       <c r="O849" s="6"/>
     </row>
-    <row r="850" spans="6:15" ht="14.25" customHeight="1">
+    <row r="850" spans="6:15">
       <c r="F850" s="7"/>
       <c r="G850" s="7"/>
       <c r="H850" s="7"/>
@@ -13178,7 +13499,7 @@
       <c r="N850" s="9"/>
       <c r="O850" s="6"/>
     </row>
-    <row r="851" spans="6:15" ht="14.25" customHeight="1">
+    <row r="851" spans="6:15">
       <c r="F851" s="7"/>
       <c r="G851" s="7"/>
       <c r="H851" s="7"/>
@@ -13190,7 +13511,7 @@
       <c r="N851" s="9"/>
       <c r="O851" s="6"/>
     </row>
-    <row r="852" spans="6:15" ht="14.25" customHeight="1">
+    <row r="852" spans="6:15">
       <c r="F852" s="7"/>
       <c r="G852" s="7"/>
       <c r="H852" s="7"/>
@@ -13202,7 +13523,7 @@
       <c r="N852" s="9"/>
       <c r="O852" s="6"/>
     </row>
-    <row r="853" spans="6:15" ht="14.25" customHeight="1">
+    <row r="853" spans="6:15">
       <c r="F853" s="7"/>
       <c r="G853" s="7"/>
       <c r="H853" s="7"/>
@@ -13214,7 +13535,7 @@
       <c r="N853" s="9"/>
       <c r="O853" s="6"/>
     </row>
-    <row r="854" spans="6:15" ht="14.25" customHeight="1">
+    <row r="854" spans="6:15">
       <c r="F854" s="7"/>
       <c r="G854" s="7"/>
       <c r="H854" s="7"/>
@@ -13226,7 +13547,7 @@
       <c r="N854" s="9"/>
       <c r="O854" s="6"/>
     </row>
-    <row r="855" spans="6:15" ht="14.25" customHeight="1">
+    <row r="855" spans="6:15">
       <c r="F855" s="7"/>
       <c r="G855" s="7"/>
       <c r="H855" s="7"/>
@@ -13238,7 +13559,7 @@
       <c r="N855" s="9"/>
       <c r="O855" s="6"/>
     </row>
-    <row r="856" spans="6:15" ht="14.25" customHeight="1">
+    <row r="856" spans="6:15">
       <c r="F856" s="7"/>
       <c r="G856" s="7"/>
       <c r="H856" s="7"/>
@@ -13250,7 +13571,7 @@
       <c r="N856" s="9"/>
       <c r="O856" s="6"/>
     </row>
-    <row r="857" spans="6:15" ht="14.25" customHeight="1">
+    <row r="857" spans="6:15">
       <c r="F857" s="7"/>
       <c r="G857" s="7"/>
       <c r="H857" s="7"/>
@@ -13262,7 +13583,7 @@
       <c r="N857" s="9"/>
       <c r="O857" s="6"/>
     </row>
-    <row r="858" spans="6:15" ht="14.25" customHeight="1">
+    <row r="858" spans="6:15">
       <c r="F858" s="7"/>
       <c r="G858" s="7"/>
       <c r="H858" s="7"/>
@@ -13274,7 +13595,7 @@
       <c r="N858" s="9"/>
       <c r="O858" s="6"/>
     </row>
-    <row r="859" spans="6:15" ht="14.25" customHeight="1">
+    <row r="859" spans="6:15">
       <c r="F859" s="7"/>
       <c r="G859" s="7"/>
       <c r="H859" s="7"/>
@@ -13286,7 +13607,7 @@
       <c r="N859" s="9"/>
       <c r="O859" s="6"/>
     </row>
-    <row r="860" spans="6:15" ht="14.25" customHeight="1">
+    <row r="860" spans="6:15">
       <c r="F860" s="7"/>
       <c r="G860" s="7"/>
       <c r="H860" s="7"/>
@@ -13298,7 +13619,7 @@
       <c r="N860" s="9"/>
       <c r="O860" s="6"/>
     </row>
-    <row r="861" spans="6:15" ht="14.25" customHeight="1">
+    <row r="861" spans="6:15">
       <c r="F861" s="7"/>
       <c r="G861" s="7"/>
       <c r="H861" s="7"/>
@@ -13310,7 +13631,7 @@
       <c r="N861" s="9"/>
       <c r="O861" s="6"/>
     </row>
-    <row r="862" spans="6:15" ht="14.25" customHeight="1">
+    <row r="862" spans="6:15">
       <c r="F862" s="7"/>
       <c r="G862" s="7"/>
       <c r="H862" s="7"/>
@@ -13322,7 +13643,7 @@
       <c r="N862" s="9"/>
       <c r="O862" s="6"/>
     </row>
-    <row r="863" spans="6:15" ht="14.25" customHeight="1">
+    <row r="863" spans="6:15">
       <c r="F863" s="7"/>
       <c r="G863" s="7"/>
       <c r="H863" s="7"/>
@@ -13334,7 +13655,7 @@
       <c r="N863" s="9"/>
       <c r="O863" s="6"/>
     </row>
-    <row r="864" spans="6:15" ht="14.25" customHeight="1">
+    <row r="864" spans="6:15">
       <c r="F864" s="7"/>
       <c r="G864" s="7"/>
       <c r="H864" s="7"/>
@@ -13346,7 +13667,7 @@
       <c r="N864" s="9"/>
       <c r="O864" s="6"/>
     </row>
-    <row r="865" spans="6:15" ht="14.25" customHeight="1">
+    <row r="865" spans="6:15">
       <c r="F865" s="7"/>
       <c r="G865" s="7"/>
       <c r="H865" s="7"/>
@@ -13358,7 +13679,7 @@
       <c r="N865" s="9"/>
       <c r="O865" s="6"/>
     </row>
-    <row r="866" spans="6:15" ht="14.25" customHeight="1">
+    <row r="866" spans="6:15">
       <c r="F866" s="7"/>
       <c r="G866" s="7"/>
       <c r="H866" s="7"/>
@@ -13370,7 +13691,7 @@
       <c r="N866" s="9"/>
       <c r="O866" s="6"/>
     </row>
-    <row r="867" spans="6:15" ht="14.25" customHeight="1">
+    <row r="867" spans="6:15">
       <c r="F867" s="7"/>
       <c r="G867" s="7"/>
       <c r="H867" s="7"/>
@@ -13382,7 +13703,7 @@
       <c r="N867" s="9"/>
       <c r="O867" s="6"/>
     </row>
-    <row r="868" spans="6:15" ht="14.25" customHeight="1">
+    <row r="868" spans="6:15">
       <c r="F868" s="7"/>
       <c r="G868" s="7"/>
       <c r="H868" s="7"/>
@@ -13394,7 +13715,7 @@
       <c r="N868" s="9"/>
       <c r="O868" s="6"/>
     </row>
-    <row r="869" spans="6:15" ht="14.25" customHeight="1">
+    <row r="869" spans="6:15">
       <c r="F869" s="7"/>
       <c r="G869" s="7"/>
       <c r="H869" s="7"/>
@@ -13406,7 +13727,7 @@
       <c r="N869" s="9"/>
       <c r="O869" s="6"/>
     </row>
-    <row r="870" spans="6:15" ht="14.25" customHeight="1">
+    <row r="870" spans="6:15">
       <c r="F870" s="7"/>
       <c r="G870" s="7"/>
       <c r="H870" s="7"/>
@@ -13418,7 +13739,7 @@
       <c r="N870" s="9"/>
       <c r="O870" s="6"/>
     </row>
-    <row r="871" spans="6:15" ht="14.25" customHeight="1">
+    <row r="871" spans="6:15">
       <c r="F871" s="7"/>
       <c r="G871" s="7"/>
       <c r="H871" s="7"/>
@@ -13430,7 +13751,7 @@
       <c r="N871" s="9"/>
       <c r="O871" s="6"/>
     </row>
-    <row r="872" spans="6:15" ht="14.25" customHeight="1">
+    <row r="872" spans="6:15">
       <c r="F872" s="7"/>
       <c r="G872" s="7"/>
       <c r="H872" s="7"/>
@@ -13442,7 +13763,7 @@
       <c r="N872" s="9"/>
       <c r="O872" s="6"/>
     </row>
-    <row r="873" spans="6:15" ht="14.25" customHeight="1">
+    <row r="873" spans="6:15">
       <c r="F873" s="7"/>
       <c r="G873" s="7"/>
       <c r="H873" s="7"/>
@@ -13454,7 +13775,7 @@
       <c r="N873" s="9"/>
       <c r="O873" s="6"/>
     </row>
-    <row r="874" spans="6:15" ht="14.25" customHeight="1">
+    <row r="874" spans="6:15">
       <c r="F874" s="7"/>
       <c r="G874" s="7"/>
       <c r="H874" s="7"/>
@@ -13466,7 +13787,7 @@
       <c r="N874" s="9"/>
       <c r="O874" s="6"/>
     </row>
-    <row r="875" spans="6:15" ht="14.25" customHeight="1">
+    <row r="875" spans="6:15">
       <c r="F875" s="7"/>
       <c r="G875" s="7"/>
       <c r="H875" s="7"/>
@@ -13478,7 +13799,7 @@
       <c r="N875" s="9"/>
       <c r="O875" s="6"/>
     </row>
-    <row r="876" spans="6:15" ht="14.25" customHeight="1">
+    <row r="876" spans="6:15">
       <c r="F876" s="7"/>
       <c r="G876" s="7"/>
       <c r="H876" s="7"/>
@@ -13502,8 +13823,8 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -13527,120 +13848,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D998"/>
+  <dimension ref="A1:D993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="73.85546875" customWidth="1"/>
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A4" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A7" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:4" ht="14.25" customHeight="1"/>
@@ -14627,11 +14883,6 @@
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -14652,27 +14903,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>23</v>
+      <c r="A1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>43</v>
+      <c r="A2" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">
